--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="885">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3294,6 +3294,35 @@
   <si>
     <t>Make sure you read all of the details for each requirement. There are a lot of small details that must be met in order to pass these requirements. Note that if you are using a pre-built engine, all of the editor functionality section is "Not Applicable" and you do not submit an editor at all.</t>
   </si>
+  <si>
+    <t>The game can be played entirely on a touch screen tablet running Windows x64. This has been primarily tested on a Microsoft Surface Pro 2.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open Debug Console (Shift+PauseBrk), type in (without quotes) "enable_cheat_codes" and press enter. God mode: "cheat.god :on" or "cheat.god :off". Get an awesome weapon: "cheat.givewep level: 9000.01". Kill all nearby enemies: "cheat.diediedie radius: 10". Skip a level: "cheat.gemmeoutahere". Note that the debug console </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the mruby scripting environment, just using Kernel#eval</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3304,7 +3333,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0%;[Red]\-0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3476,6 +3505,29 @@
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3917,7 +3969,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4511,6 +4563,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15283,7 +15341,7 @@
       <c r="H6" s="185"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -17314,8 +17372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17340,7 +17398,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$250,$A$2)&amp;" "&amp;$A$2</f>
-        <v>105 Untested</v>
+        <v>75 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$250,$A$2)&amp;" "&amp;$A$2</f>
@@ -17425,7 +17483,7 @@
       <c r="C5" s="171"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17467,7 +17525,7 @@
       <c r="C7" s="171"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -17547,7 +17605,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -18627,7 +18685,7 @@
         <v>140</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>74</v>
@@ -18645,12 +18703,14 @@
         <v>142</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="60"/>
+      <c r="F72" s="60" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
@@ -18663,7 +18723,7 @@
         <v>144</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>74</v>
@@ -18681,7 +18741,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>74</v>
@@ -18699,7 +18759,7 @@
         <v>148</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>74</v>
@@ -18771,7 +18831,7 @@
         <v>155</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>74</v>
@@ -18789,7 +18849,7 @@
         <v>157</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>74</v>
@@ -18807,7 +18867,7 @@
         <v>159</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>74</v>
@@ -18825,7 +18885,7 @@
         <v>161</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>74</v>
@@ -18843,7 +18903,7 @@
         <v>163</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>74</v>
@@ -18915,7 +18975,7 @@
         <v>172</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>74</v>
@@ -18933,7 +18993,7 @@
         <v>174</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>74</v>
@@ -18951,7 +19011,7 @@
         <v>876</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>74</v>
@@ -18969,7 +19029,7 @@
         <v>177</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>74</v>
@@ -19113,7 +19173,7 @@
         <v>874</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>74</v>
@@ -19131,7 +19191,7 @@
         <v>875</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>74</v>
@@ -19149,7 +19209,7 @@
         <v>192</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>74</v>
@@ -19203,7 +19263,7 @@
         <v>197</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>74</v>
@@ -19221,14 +19281,14 @@
         <v>199</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F104" s="60"/>
     </row>
-    <row r="105" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="68" t="s">
         <v>96</v>
       </c>
@@ -19244,7 +19304,9 @@
       <c r="E105" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="60"/>
+      <c r="F105" s="199" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="68" t="s">
@@ -19419,7 +19481,7 @@
         <v>215</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>74</v>
@@ -19437,7 +19499,7 @@
         <v>217</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>74</v>
@@ -19491,7 +19553,7 @@
         <v>222</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>74</v>
@@ -19508,8 +19570,8 @@
       <c r="C120" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>74</v>
+      <c r="D120" s="200" t="s">
+        <v>86</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>74</v>
@@ -19527,7 +19589,7 @@
         <v>226</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>74</v>
@@ -19545,7 +19607,7 @@
         <v>228</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>74</v>
@@ -19563,7 +19625,7 @@
         <v>230</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>74</v>
@@ -19581,7 +19643,7 @@
         <v>232</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>74</v>
@@ -19599,7 +19661,7 @@
         <v>234</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>74</v>
@@ -19617,7 +19679,7 @@
         <v>236</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>74</v>
@@ -20572,7 +20634,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20585,7 +20647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -22984,8 +23046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23010,7 +23072,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$177,$A$2)&amp;" "&amp;$A$2</f>
-        <v>39 Untested</v>
+        <v>35 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$177,$A$2)&amp;" "&amp;$A$2</f>
@@ -23217,7 +23279,7 @@
         <v>320</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -23253,7 +23315,7 @@
         <v>322</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
@@ -23271,7 +23333,7 @@
         <v>323</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>74</v>
@@ -23289,7 +23351,7 @@
         <v>324</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>74</v>
@@ -24037,7 +24099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -28204,17 +28266,17 @@
       <c r="B3" s="76"/>
       <c r="C3" s="181">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D3" s="182"/>
       <c r="E3" s="181">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F3" s="182"/>
       <c r="G3" s="181">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H3" s="182"/>
       <c r="J3" s="193"/>
@@ -28264,17 +28326,17 @@
       <c r="B6" s="11"/>
       <c r="C6" s="184">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6" s="185"/>
       <c r="E6" s="184">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F6" s="185"/>
       <c r="G6" s="184">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="185"/>
       <c r="J6" s="126"/>
@@ -28450,28 +28512,28 @@
       </c>
       <c r="B12" s="11">
         <f>TCRs!$D$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J12" s="127"/>
       <c r="K12" s="105"/>
@@ -28549,21 +28611,21 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="886">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3322,6 +3322,9 @@
       </rPr>
       <t>the mruby scripting environment, just using Kernel#eval</t>
     </r>
+  </si>
+  <si>
+    <t>Tested on DIT2426US (the lab machine in our teamspace)</t>
   </si>
 </sst>
 </file>
@@ -4314,6 +4317,66 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4321,6 +4384,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4341,94 +4431,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4438,6 +4450,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4461,20 +4482,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4489,42 +4504,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4554,6 +4533,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4562,12 +4571,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -14581,47 +14584,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14641,35 +14644,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="142" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14680,42 +14683,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="147"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="126"/>
+      <c r="K7" s="143"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="126"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="127"/>
+      <c r="K9" s="144"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14733,17 +14736,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="118"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14782,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="142" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14806,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="126"/>
+      <c r="K13" s="143"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14827,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="127"/>
+      <c r="K14" s="144"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14869,10 +14872,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="118"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14890,16 +14893,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="136"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="125" t="s">
+      <c r="K18" s="142" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14913,16 +14916,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="138"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="127"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14971,12 +14974,12 @@
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="142">
+      <c r="I22" s="118">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="144" t="s">
+      <c r="K22" s="120" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14992,9 +14995,9 @@
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="143"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="145"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15031,12 +15034,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="146" t="s">
+      <c r="F26" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15047,12 +15050,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="135" t="s">
+      <c r="F27" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="136"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15063,10 +15066,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15077,10 +15080,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="150"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15091,26 +15094,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="138"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15131,18 +15134,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15153,12 +15150,18 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15220,65 +15223,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="179" t="s">
         <v>707</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="177" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H1" s="178"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="179" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="179" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="H2" s="180"/>
-      <c r="J2" s="190" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="192"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="181">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
-        <v>0.88</v>
-      </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="181">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
-        <v>0.88</v>
-      </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="181">
+        <v>0.85</v>
+      </c>
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
-        <v>0.88</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="195"/>
+        <v>0.85</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15298,18 +15301,18 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="136" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="116" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="136" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="136" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="118"/>
+      <c r="H5" s="138"/>
       <c r="J5" s="77" t="s">
         <v>709</v>
       </c>
@@ -15324,46 +15327,46 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="184">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="185"/>
-      <c r="E6" s="184">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="184">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="185"/>
+      <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
         <f>IF(J6 &gt; 0.05, 0, IF( J6 &gt; 0.02, 0.01, (IF(J6 &gt; 0.01, 0.02, 0.03))))</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>699</v>
       </c>
-      <c r="H7" s="186"/>
+      <c r="H7" s="191"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15393,7 +15396,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="196" t="s">
+      <c r="J8" s="198" t="s">
         <v>711</v>
       </c>
       <c r="K8" s="3"/>
@@ -15431,7 +15434,7 @@
         <f>B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="197"/>
+      <c r="J9" s="199"/>
       <c r="K9" s="3"/>
       <c r="L9" s="94" t="s">
         <v>713</v>
@@ -15467,7 +15470,7 @@
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="198"/>
+      <c r="J10" s="200"/>
       <c r="K10" s="3"/>
       <c r="L10" s="95" t="s">
         <v>714</v>
@@ -15537,7 +15540,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="142" t="s">
         <v>722</v>
       </c>
       <c r="K12" s="31"/>
@@ -15575,7 +15578,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="126"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>715</v>
@@ -15611,7 +15614,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="126"/>
+      <c r="J14" s="143"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>716</v>
@@ -15641,7 +15644,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="126"/>
+      <c r="J15" s="143"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>717</v>
@@ -15650,19 +15653,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="183" t="s">
+      <c r="C16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="J16" s="126"/>
+      <c r="H16" s="188"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>718</v>
@@ -15693,7 +15696,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="126"/>
+      <c r="J17" s="143"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>719</v>
@@ -15729,7 +15732,7 @@
         <f>B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="126"/>
+      <c r="J18" s="143"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>720</v>
@@ -15765,7 +15768,7 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="127"/>
+      <c r="J19" s="144"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>721</v>
@@ -15923,18 +15926,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="183" t="s">
+      <c r="C25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H25" s="183"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16176,18 +16179,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H34" s="183"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16429,18 +16432,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="183" t="s">
+      <c r="C43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H43" s="183"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16682,18 +16685,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="183" t="s">
+      <c r="C52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D52" s="183"/>
-      <c r="E52" s="183" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H52" s="183"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16934,6 +16937,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16950,27 +16974,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17002,54 +17005,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="161" t="s">
         <v>726</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="154"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="163"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17078,10 +17081,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="159"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17097,10 +17100,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="166"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17116,10 +17119,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17135,10 +17138,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="167"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17154,10 +17157,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="167"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17173,10 +17176,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="166"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17192,10 +17195,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="166"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17211,10 +17214,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="169"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17231,11 +17234,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17254,93 +17257,88 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="154"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="154"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17357,6 +17355,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17372,8 +17375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17398,7 +17401,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$250,$A$2)&amp;" "&amp;$A$2</f>
-        <v>75 Untested</v>
+        <v>29 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$250,$A$2)&amp;" "&amp;$A$2</f>
@@ -17415,12 +17418,12 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>882</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Partial"))</f>
@@ -17438,10 +17441,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -17459,10 +17462,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17480,10 +17483,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17501,10 +17504,10 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -17522,10 +17525,10 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -17543,7 +17546,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17558,11 +17561,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17577,10 +17580,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>725</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>869</v>
       </c>
@@ -17623,7 +17626,7 @@
         <v>727</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -17641,7 +17644,7 @@
         <v>870</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
@@ -17703,10 +17706,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="B17" s="176"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="8" t="s">
         <v>871</v>
       </c>
@@ -17731,12 +17734,14 @@
         <v>743</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
@@ -17749,7 +17754,7 @@
         <v>744</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -17767,7 +17772,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -17785,7 +17790,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -17803,7 +17808,7 @@
         <v>745</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -17821,7 +17826,7 @@
         <v>746</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -17839,14 +17844,14 @@
         <v>747</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -17857,7 +17862,7 @@
         <v>734</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -17875,14 +17880,14 @@
         <v>748</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>110</v>
       </c>
@@ -17893,7 +17898,7 @@
         <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>74</v>
@@ -17911,7 +17916,7 @@
         <v>749</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>74</v>
@@ -17919,10 +17924,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="172" t="s">
         <v>741</v>
       </c>
-      <c r="B29" s="176"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>872</v>
       </c>
@@ -18405,10 +18410,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="175" t="s">
+      <c r="A56" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="176"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18433,7 +18438,7 @@
         <v>116</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>74</v>
@@ -18451,7 +18456,7 @@
         <v>739</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>74</v>
@@ -18469,7 +18474,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>74</v>
@@ -18487,7 +18492,7 @@
         <v>121</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>74</v>
@@ -18505,7 +18510,7 @@
         <v>878</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>74</v>
@@ -18523,7 +18528,7 @@
         <v>879</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>74</v>
@@ -18541,7 +18546,7 @@
         <v>877</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>74</v>
@@ -18559,7 +18564,7 @@
         <v>126</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>74</v>
@@ -18577,7 +18582,7 @@
         <v>128</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>74</v>
@@ -18595,7 +18600,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>74</v>
@@ -18613,7 +18618,7 @@
         <v>132</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>74</v>
@@ -18631,7 +18636,7 @@
         <v>134</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>74</v>
@@ -18639,10 +18644,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="175" t="s">
+      <c r="A69" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="176"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18667,7 +18672,7 @@
         <v>138</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>74</v>
@@ -18777,7 +18782,7 @@
         <v>150</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>74</v>
@@ -18795,7 +18800,7 @@
         <v>152</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>74</v>
@@ -18803,10 +18808,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="175" t="s">
+      <c r="A78" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="176"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18911,10 +18916,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="172" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="176"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -18939,7 +18944,7 @@
         <v>166</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>74</v>
@@ -18957,7 +18962,7 @@
         <v>170</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>74</v>
@@ -19047,7 +19052,7 @@
         <v>179</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>74</v>
@@ -19065,7 +19070,7 @@
         <v>183</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>74</v>
@@ -19083,7 +19088,7 @@
         <v>181</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>74</v>
@@ -19101,7 +19106,7 @@
         <v>168</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>74</v>
@@ -19119,7 +19124,7 @@
         <v>185</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>74</v>
@@ -19137,7 +19142,7 @@
         <v>187</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>74</v>
@@ -19145,10 +19150,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="175" t="s">
+      <c r="A97" s="172" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="176"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19227,7 +19232,7 @@
         <v>194</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>74</v>
@@ -19235,10 +19240,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="175" t="s">
+      <c r="A102" s="172" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="176"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19299,12 +19304,12 @@
         <v>736</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="199" t="s">
+      <c r="F105" s="116" t="s">
         <v>884</v>
       </c>
     </row>
@@ -19319,7 +19324,7 @@
         <v>202</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>74</v>
@@ -19337,7 +19342,7 @@
         <v>204</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>74</v>
@@ -19355,7 +19360,7 @@
         <v>873</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>74</v>
@@ -19373,7 +19378,7 @@
         <v>738</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>74</v>
@@ -19381,10 +19386,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="175" t="s">
+      <c r="A110" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="176"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19409,7 +19414,7 @@
         <v>208</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>74</v>
@@ -19427,7 +19432,7 @@
         <v>210</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>74</v>
@@ -19445,7 +19450,7 @@
         <v>212</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>74</v>
@@ -19453,10 +19458,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="175" t="s">
+      <c r="A114" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="176"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19517,7 +19522,7 @@
         <v>735</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>74</v>
@@ -19525,10 +19530,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="175" t="s">
+      <c r="A118" s="172" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="176"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="8" t="s">
         <v>824</v>
       </c>
@@ -19570,7 +19575,7 @@
       <c r="C120" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="200" t="s">
+      <c r="D120" s="117" t="s">
         <v>86</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -19688,6 +19693,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19697,11 +19707,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20690,7 +20695,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>863</v>
       </c>
       <c r="D2" s="66">
@@ -20713,7 +20718,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20734,7 +20739,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20755,7 +20760,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20776,7 +20781,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20797,7 +20802,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20818,7 +20823,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20833,11 +20838,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20852,10 +20857,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>811</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>864</v>
       </c>
@@ -20942,10 +20947,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="176"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21086,10 +21091,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="172" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="176"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21230,10 +21235,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21698,10 +21703,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="172" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="176"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="73" t="s">
         <v>833</v>
       </c>
@@ -22076,10 +22081,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="175" t="s">
+      <c r="A78" s="172" t="s">
         <v>302</v>
       </c>
-      <c r="B78" s="176"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23089,7 +23094,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>831</v>
       </c>
       <c r="D2" s="66">
@@ -23112,7 +23117,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23133,7 +23138,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23154,7 +23159,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23175,7 +23180,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23196,7 +23201,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23217,7 +23222,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23232,11 +23237,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23251,10 +23256,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23467,10 +23472,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="172" t="s">
         <v>535</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23629,10 +23634,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="172" t="s">
         <v>551</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23845,10 +23850,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="172" t="s">
         <v>662</v>
       </c>
-      <c r="B43" s="176"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24099,7 +24104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -24142,7 +24147,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>385</v>
       </c>
       <c r="D2" s="66">
@@ -24165,7 +24170,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24186,7 +24191,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24207,7 +24212,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24228,7 +24233,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24249,7 +24254,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24270,7 +24275,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24285,11 +24290,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24304,10 +24309,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24412,10 +24417,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="172" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="176"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24520,10 +24525,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>827</v>
       </c>
@@ -24646,10 +24651,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="172" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="176"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>825</v>
       </c>
@@ -24790,10 +24795,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="172" t="s">
         <v>436</v>
       </c>
-      <c r="B37" s="176"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="8" t="s">
         <v>826</v>
       </c>
@@ -24916,10 +24921,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="175" t="s">
+      <c r="A44" s="172" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="176"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25608,7 +25613,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>474</v>
       </c>
       <c r="D2" s="66">
@@ -25631,7 +25636,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25652,7 +25657,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25673,7 +25678,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25694,7 +25699,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25715,7 +25720,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25736,7 +25741,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25751,11 +25756,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25770,10 +25775,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>475</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26112,10 +26117,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="172" t="s">
         <v>512</v>
       </c>
-      <c r="B29" s="176"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>822</v>
       </c>
@@ -26328,10 +26333,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26490,10 +26495,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="175" t="s">
+      <c r="A50" s="172" t="s">
         <v>590</v>
       </c>
-      <c r="B50" s="176"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="73" t="s">
         <v>823</v>
       </c>
@@ -27067,7 +27072,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="174" t="s">
         <v>611</v>
       </c>
       <c r="D2" s="66">
@@ -27090,7 +27095,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27111,7 +27116,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27132,7 +27137,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27153,7 +27158,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27174,7 +27179,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27195,7 +27200,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="171"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27210,11 +27215,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27229,10 +27234,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="172" t="s">
         <v>612</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="73" t="s">
         <v>816</v>
       </c>
@@ -27445,10 +27450,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="172" t="s">
         <v>635</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27661,10 +27666,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="172" t="s">
         <v>812</v>
       </c>
-      <c r="B34" s="176"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="8" t="s">
         <v>817</v>
       </c>
@@ -27787,10 +27792,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="172" t="s">
         <v>681</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28207,7 +28212,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28223,65 +28228,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="177" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H1" s="178"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="179" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="179" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>689</v>
       </c>
-      <c r="H2" s="180"/>
-      <c r="J2" s="190" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="192"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="181">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.86</v>
-      </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="181">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.86</v>
-      </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="181">
+        <v>0.64</v>
+      </c>
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.86</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="195"/>
+        <v>0.76</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28298,19 +28303,19 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="136" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="116" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="136" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="136" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="J5" s="125" t="s">
+      <c r="H5" s="138"/>
+      <c r="J5" s="142" t="s">
         <v>722</v>
       </c>
       <c r="K5" s="31"/>
@@ -28324,22 +28329,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="184">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="185"/>
-      <c r="E6" s="184">
+        <v>-0.435</v>
+      </c>
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="184">
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="185"/>
-      <c r="J6" s="126"/>
+        <v>-8.7499999999999994E-2</v>
+      </c>
+      <c r="H6" s="190"/>
+      <c r="J6" s="143"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>715</v>
@@ -28348,19 +28353,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>699</v>
       </c>
-      <c r="H7" s="186"/>
-      <c r="J7" s="126"/>
+      <c r="H7" s="191"/>
+      <c r="J7" s="143"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>716</v>
@@ -28391,7 +28396,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="126"/>
+      <c r="J8" s="143"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>717</v>
@@ -28404,30 +28409,30 @@
       </c>
       <c r="B9" s="57">
         <f>TCRs!$D$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="81">
         <v>-0.1</v>
       </c>
       <c r="D9" s="96">
         <f t="shared" ref="D9:D14" si="0">B9*C9</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E9" s="83">
         <v>-0.05</v>
       </c>
       <c r="F9" s="96">
         <f t="shared" ref="F9:F14" si="1">B9*E9</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G9" s="83">
         <v>-0.02</v>
       </c>
       <c r="H9" s="96">
         <f>B9*G9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="126"/>
+        <v>-0.04</v>
+      </c>
+      <c r="J9" s="143"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>718</v>
@@ -28440,30 +28445,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="126"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="J10" s="143"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>719</v>
@@ -28476,30 +28481,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="126"/>
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="J11" s="143"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>720</v>
@@ -28512,30 +28517,30 @@
       </c>
       <c r="B12" s="11">
         <f>TCRs!$D$7</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="97">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="97">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="97">
         <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J12" s="127"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J12" s="144"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>721</v>
@@ -28611,38 +28616,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>-0.435</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>-8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="183" t="s">
+      <c r="C16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H16" s="183"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28884,18 +28889,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="183" t="s">
+      <c r="C25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H25" s="183"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29137,18 +29142,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H34" s="183"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29390,18 +29395,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="183" t="s">
+      <c r="C43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H43" s="183"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29643,18 +29648,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="183" t="s">
+      <c r="C52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D52" s="183"/>
-      <c r="E52" s="183" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H52" s="183"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29895,6 +29900,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29911,26 +29936,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -24,11 +24,7 @@
     <sheet name="Instructor Grade" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4377,15 +4373,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4411,6 +4398,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14584,19 +14580,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
@@ -14644,35 +14640,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="145"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14683,42 +14679,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="143"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="143"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="144"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14736,17 +14732,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14785,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="142" t="s">
+      <c r="K12" s="139" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14809,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="143"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14830,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="144"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14872,10 +14868,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14902,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="142" t="s">
+      <c r="K18" s="139" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14925,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="144"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14953,7 +14949,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="136" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14969,7 +14965,7 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
@@ -14990,7 +14986,7 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
@@ -15006,7 +15002,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="141"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15194,11 +15190,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15301,18 +15292,18 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="136" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="136" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="138"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="77" t="s">
         <v>709</v>
       </c>
@@ -15344,7 +15335,7 @@
       <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.21000000000000002</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15431,7 +15422,7 @@
         <v>-0.02</v>
       </c>
       <c r="H9" s="96">
-        <f>B9*G9</f>
+        <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
       <c r="J9" s="199"/>
@@ -15467,7 +15458,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
-        <f t="shared" ref="H10:H14" si="2">B10*G10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="200"/>
@@ -15540,7 +15531,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="142" t="s">
+      <c r="J12" s="139" t="s">
         <v>722</v>
       </c>
       <c r="K12" s="31"/>
@@ -15578,7 +15569,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="143"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>715</v>
@@ -15614,7 +15605,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="143"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>716</v>
@@ -15644,7 +15635,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="143"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>717</v>
@@ -15665,7 +15656,7 @@
         <v>699</v>
       </c>
       <c r="H16" s="188"/>
-      <c r="J16" s="143"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>718</v>
@@ -15696,7 +15687,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="143"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>719</v>
@@ -15729,10 +15720,10 @@
         <v>-0.05</v>
       </c>
       <c r="H18" s="96">
-        <f>B18*G18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="143"/>
+        <f t="shared" ref="H18:H23" si="5">B18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="140"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>720</v>
@@ -15765,10 +15756,10 @@
         <v>-0.01</v>
       </c>
       <c r="H19" s="97">
-        <f t="shared" ref="H19:H23" si="5">B19*G19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="144"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="141"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>721</v>
@@ -15992,7 +15983,7 @@
         <v>-0.05</v>
       </c>
       <c r="H27" s="96">
-        <f>B27*G27</f>
+        <f t="shared" ref="H27:H32" si="8">B27*G27</f>
         <v>0</v>
       </c>
     </row>
@@ -16023,7 +16014,7 @@
         <v>-0.01</v>
       </c>
       <c r="H28" s="97">
-        <f t="shared" ref="H28:H32" si="8">B28*G28</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16245,7 +16236,7 @@
         <v>-0.05</v>
       </c>
       <c r="H36" s="96">
-        <f>B36*G36</f>
+        <f t="shared" ref="H36:H41" si="11">B36*G36</f>
         <v>0</v>
       </c>
     </row>
@@ -16276,7 +16267,7 @@
         <v>-0.01</v>
       </c>
       <c r="H37" s="97">
-        <f t="shared" ref="H37:H41" si="11">B37*G37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16498,7 +16489,7 @@
         <v>-0.1</v>
       </c>
       <c r="H45" s="96">
-        <f>B45*G45</f>
+        <f t="shared" ref="H45:H50" si="14">B45*G45</f>
         <v>0</v>
       </c>
     </row>
@@ -16529,7 +16520,7 @@
         <v>-0.02</v>
       </c>
       <c r="H46" s="97">
-        <f t="shared" ref="H46:H50" si="14">B46*G46</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16751,7 +16742,7 @@
         <v>-0.05</v>
       </c>
       <c r="H54" s="96">
-        <f>B54*G54</f>
+        <f t="shared" ref="H54:H59" si="17">B54*G54</f>
         <v>0</v>
       </c>
     </row>
@@ -16782,7 +16773,7 @@
         <v>-0.01</v>
       </c>
       <c r="H55" s="97">
-        <f t="shared" ref="H55:H59" si="17">B55*G55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16977,11 +16968,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17363,11 +17349,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17375,8 +17356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17423,7 +17404,7 @@
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Partial"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Partial"))</f>
@@ -17444,7 +17425,7 @@
       <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -18438,7 +18419,7 @@
         <v>116</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>74</v>
@@ -18456,7 +18437,7 @@
         <v>739</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>74</v>
@@ -18474,7 +18455,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>74</v>
@@ -18492,7 +18473,7 @@
         <v>121</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>74</v>
@@ -20640,11 +20621,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -23039,11 +23015,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -24092,11 +24063,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -25558,11 +25524,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -27017,11 +26978,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -28199,11 +28155,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -28271,17 +28222,17 @@
       <c r="B3" s="76"/>
       <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="D3" s="193"/>
       <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="F3" s="193"/>
       <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="H3" s="193"/>
       <c r="J3" s="185"/>
@@ -28303,19 +28254,19 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="136" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="136" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="J5" s="142" t="s">
+      <c r="H5" s="147"/>
+      <c r="J5" s="139" t="s">
         <v>722</v>
       </c>
       <c r="K5" s="31"/>
@@ -28331,20 +28282,20 @@
       <c r="B6" s="11"/>
       <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.435</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="D6" s="190"/>
       <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.21000000000000002</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="F6" s="190"/>
       <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-8.7499999999999994E-2</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
       <c r="H6" s="190"/>
-      <c r="J6" s="143"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>715</v>
@@ -28365,7 +28316,7 @@
         <v>699</v>
       </c>
       <c r="H7" s="191"/>
-      <c r="J7" s="143"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>716</v>
@@ -28396,7 +28347,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="143"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>717</v>
@@ -28409,30 +28360,30 @@
       </c>
       <c r="B9" s="57">
         <f>TCRs!$D$2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="81">
         <v>-0.1</v>
       </c>
       <c r="D9" s="96">
         <f t="shared" ref="D9:D14" si="0">B9*C9</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="83">
         <v>-0.05</v>
       </c>
       <c r="F9" s="96">
         <f t="shared" ref="F9:F14" si="1">B9*E9</f>
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="83">
         <v>-0.02</v>
       </c>
       <c r="H9" s="96">
-        <f>B9*G9</f>
-        <v>-0.04</v>
-      </c>
-      <c r="J9" s="143"/>
+        <f t="shared" ref="H9:H14" si="2">B9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="140"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>718</v>
@@ -28445,30 +28396,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>-0.18</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>-0.09</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
-        <f t="shared" ref="H10:H14" si="2">B10*G10</f>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="J10" s="143"/>
+        <f t="shared" si="2"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="J10" s="140"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>719</v>
@@ -28504,7 +28455,7 @@
         <f t="shared" si="2"/>
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="J11" s="143"/>
+      <c r="J11" s="140"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>720</v>
@@ -28540,7 +28491,7 @@
         <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J12" s="144"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>721</v>
@@ -28616,21 +28567,21 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.435</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-0.21000000000000002</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-8.7499999999999994E-2</v>
+        <v>-3.7500000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28702,7 +28653,7 @@
         <v>-0.05</v>
       </c>
       <c r="H18" s="96">
-        <f>B18*G18</f>
+        <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
     </row>
@@ -28733,7 +28684,7 @@
         <v>-0.01</v>
       </c>
       <c r="H19" s="97">
-        <f t="shared" ref="H19:H23" si="5">B19*G19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28955,7 +28906,7 @@
         <v>-0.05</v>
       </c>
       <c r="H27" s="96">
-        <f>B27*G27</f>
+        <f t="shared" ref="H27:H32" si="8">B27*G27</f>
         <v>0</v>
       </c>
     </row>
@@ -28986,7 +28937,7 @@
         <v>-0.01</v>
       </c>
       <c r="H28" s="97">
-        <f t="shared" ref="H28:H32" si="8">B28*G28</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29208,7 +29159,7 @@
         <v>-0.05</v>
       </c>
       <c r="H36" s="96">
-        <f>B36*G36</f>
+        <f t="shared" ref="H36:H41" si="11">B36*G36</f>
         <v>0</v>
       </c>
     </row>
@@ -29239,7 +29190,7 @@
         <v>-0.01</v>
       </c>
       <c r="H37" s="97">
-        <f t="shared" ref="H37:H41" si="11">B37*G37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29461,7 +29412,7 @@
         <v>-0.1</v>
       </c>
       <c r="H45" s="96">
-        <f>B45*G45</f>
+        <f t="shared" ref="H45:H50" si="14">B45*G45</f>
         <v>0</v>
       </c>
     </row>
@@ -29492,7 +29443,7 @@
         <v>-0.02</v>
       </c>
       <c r="H46" s="97">
-        <f t="shared" ref="H46:H50" si="14">B46*G46</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -29714,7 +29665,7 @@
         <v>-0.05</v>
       </c>
       <c r="H54" s="96">
-        <f>B54*G54</f>
+        <f t="shared" ref="H54:H59" si="17">B54*G54</f>
         <v>0</v>
       </c>
     </row>
@@ -29745,7 +29696,7 @@
         <v>-0.01</v>
       </c>
       <c r="H55" s="97">
-        <f t="shared" ref="H55:H59" si="17">B55*G55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29939,10 +29890,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-Project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,6 @@
     <sheet name="Instructor Grade" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4319,87 +4318,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4427,16 +4345,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4446,15 +4442,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4478,14 +4465,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4500,6 +4493,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4528,36 +4557,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14580,47 +14579,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14640,35 +14639,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="127" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14679,42 +14678,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="141"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14732,17 +14731,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14781,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="127" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14805,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14826,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="141"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14868,10 +14867,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14889,16 +14888,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="125"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="127" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14912,16 +14911,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="141"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14949,7 +14948,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="151" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14965,17 +14964,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="137">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="139" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14986,14 +14985,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="121"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15002,7 +15001,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15030,12 +15029,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15046,12 +15045,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15062,10 +15061,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15076,10 +15075,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15090,26 +15089,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15130,12 +15129,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15151,13 +15151,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15214,65 +15213,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>707</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>692</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15292,18 +15291,18 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
         <v>709</v>
       </c>
@@ -15318,24 +15317,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="190"/>
+      <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>9.0000000000000011E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15346,18 +15345,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="188"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15531,7 +15530,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="127" t="s">
         <v>722</v>
       </c>
       <c r="K12" s="31"/>
@@ -15569,7 +15568,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>715</v>
@@ -15605,7 +15604,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>716</v>
@@ -15635,7 +15634,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>717</v>
@@ -15644,19 +15643,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="J16" s="140"/>
+      <c r="H16" s="185"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>718</v>
@@ -15687,7 +15686,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>719</v>
@@ -15723,7 +15722,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>720</v>
@@ -15759,7 +15758,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>721</v>
@@ -15917,18 +15916,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16170,18 +16169,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16423,18 +16422,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16676,18 +16675,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16928,27 +16927,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16965,6 +16943,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16991,54 +16990,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="154" t="s">
         <v>726</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17067,10 +17066,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17086,10 +17085,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17105,10 +17104,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17124,10 +17123,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17143,10 +17142,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17162,10 +17161,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17181,10 +17180,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17200,10 +17199,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17220,11 +17219,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17243,88 +17242,93 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17341,11 +17345,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17356,8 +17355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17382,7 +17381,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$250,$A$2)&amp;" "&amp;$A$2</f>
-        <v>29 Untested</v>
+        <v>3 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$250,$A$2)&amp;" "&amp;$A$2</f>
@@ -17399,7 +17398,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>882</v>
       </c>
       <c r="D2" s="66">
@@ -17422,10 +17421,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -17443,7 +17442,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>7</v>
@@ -17464,7 +17463,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>9</v>
@@ -17485,7 +17484,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3</v>
@@ -17506,7 +17505,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3</v>
@@ -17527,7 +17526,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17542,11 +17541,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17561,10 +17560,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>725</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>869</v>
       </c>
@@ -17687,10 +17686,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="177" t="s">
         <v>740</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
         <v>871</v>
       </c>
@@ -17905,10 +17904,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>741</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>872</v>
       </c>
@@ -17933,7 +17932,7 @@
         <v>750</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
@@ -17951,7 +17950,7 @@
         <v>752</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>74</v>
@@ -17969,7 +17968,7 @@
         <v>753</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>74</v>
@@ -17987,7 +17986,7 @@
         <v>786</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>74</v>
@@ -18005,7 +18004,7 @@
         <v>765</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>74</v>
@@ -18023,7 +18022,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>74</v>
@@ -18041,7 +18040,7 @@
         <v>757</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>74</v>
@@ -18059,7 +18058,7 @@
         <v>768</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>74</v>
@@ -18077,7 +18076,7 @@
         <v>769</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>74</v>
@@ -18095,7 +18094,7 @@
         <v>789</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>74</v>
@@ -18113,7 +18112,7 @@
         <v>764</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>74</v>
@@ -18131,7 +18130,7 @@
         <v>766</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>74</v>
@@ -18149,7 +18148,7 @@
         <v>770</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>74</v>
@@ -18167,7 +18166,7 @@
         <v>881</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>74</v>
@@ -18185,7 +18184,7 @@
         <v>791</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>74</v>
@@ -18203,7 +18202,7 @@
         <v>784</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>74</v>
@@ -18221,7 +18220,7 @@
         <v>772</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>74</v>
@@ -18239,7 +18238,7 @@
         <v>779</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>74</v>
@@ -18257,7 +18256,7 @@
         <v>797</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>74</v>
@@ -18275,7 +18274,7 @@
         <v>793</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>74</v>
@@ -18293,7 +18292,7 @@
         <v>785</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>74</v>
@@ -18311,7 +18310,7 @@
         <v>775</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>74</v>
@@ -18329,7 +18328,7 @@
         <v>777</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>74</v>
@@ -18347,7 +18346,7 @@
         <v>781</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>74</v>
@@ -18365,7 +18364,7 @@
         <v>799</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>74</v>
@@ -18383,7 +18382,7 @@
         <v>795</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>74</v>
@@ -18391,10 +18390,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="173"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>878</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>74</v>
@@ -18625,10 +18624,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18789,10 +18788,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18897,10 +18896,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="172" t="s">
+      <c r="A84" s="177" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="173"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19131,10 +19130,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="173"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19221,10 +19220,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="172" t="s">
+      <c r="A102" s="177" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="173"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19367,10 +19366,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="172" t="s">
+      <c r="A110" s="177" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="173"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19439,10 +19438,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="173"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19511,10 +19510,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="172" t="s">
+      <c r="A118" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="173"/>
+      <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
         <v>824</v>
       </c>
@@ -19674,11 +19673,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19688,6 +19682,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20671,7 +20670,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>863</v>
       </c>
       <c r="D2" s="66">
@@ -20694,7 +20693,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20715,7 +20714,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20736,7 +20735,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20757,7 +20756,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20778,7 +20777,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20799,7 +20798,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20814,11 +20813,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20833,10 +20832,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>811</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>864</v>
       </c>
@@ -20923,10 +20922,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="173"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21067,10 +21066,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="173"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21211,10 +21210,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21679,10 +21678,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="177" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="173"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
         <v>833</v>
       </c>
@@ -22057,10 +22056,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>302</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23065,7 +23064,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>831</v>
       </c>
       <c r="D2" s="66">
@@ -23088,7 +23087,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23109,7 +23108,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23130,7 +23129,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23151,7 +23150,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23172,7 +23171,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23193,7 +23192,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23208,11 +23207,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23227,10 +23226,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23443,10 +23442,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>535</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23605,10 +23604,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>551</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23821,10 +23820,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="177" t="s">
         <v>662</v>
       </c>
-      <c r="B43" s="173"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24113,7 +24112,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>385</v>
       </c>
       <c r="D2" s="66">
@@ -24136,7 +24135,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24157,7 +24156,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24178,7 +24177,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24199,7 +24198,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24220,7 +24219,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24241,7 +24240,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24256,11 +24255,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24275,10 +24274,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24383,10 +24382,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="177" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="173"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24491,10 +24490,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>827</v>
       </c>
@@ -24617,10 +24616,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>825</v>
       </c>
@@ -24761,10 +24760,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="177" t="s">
         <v>436</v>
       </c>
-      <c r="B37" s="173"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
         <v>826</v>
       </c>
@@ -24887,10 +24886,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25574,7 +25573,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>474</v>
       </c>
       <c r="D2" s="66">
@@ -25597,7 +25596,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25618,7 +25617,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25639,7 +25638,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25660,7 +25659,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25681,7 +25680,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25702,7 +25701,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25717,11 +25716,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25736,10 +25735,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>475</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26078,10 +26077,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>512</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>822</v>
       </c>
@@ -26294,10 +26293,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26456,10 +26455,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="177" t="s">
         <v>590</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
         <v>823</v>
       </c>
@@ -27028,7 +27027,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>611</v>
       </c>
       <c r="D2" s="66">
@@ -27051,7 +27050,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27072,7 +27071,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27093,7 +27092,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27114,7 +27113,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27135,7 +27134,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27156,7 +27155,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27171,11 +27170,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27190,10 +27189,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>612</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
         <v>816</v>
       </c>
@@ -27406,10 +27405,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>635</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27622,10 +27621,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="177" t="s">
         <v>812</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
         <v>817</v>
       </c>
@@ -27748,10 +27747,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>681</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28179,65 +28178,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>692</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>689</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.66</v>
-      </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.76</v>
-      </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+        <v>0.77</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.81</v>
-      </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+        <v>0.82</v>
+      </c>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28254,19 +28253,19 @@
         <v>693</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="J5" s="139" t="s">
+      <c r="H5" s="120"/>
+      <c r="J5" s="127" t="s">
         <v>722</v>
       </c>
       <c r="K5" s="31"/>
@@ -28280,22 +28279,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-9.0000000000000011E-2</v>
-      </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+        <v>-0.08</v>
+      </c>
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-3.7500000000000006E-2</v>
-      </c>
-      <c r="H6" s="190"/>
-      <c r="J6" s="140"/>
+        <v>-3.2500000000000001E-2</v>
+      </c>
+      <c r="H6" s="187"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>715</v>
@@ -28304,19 +28303,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>699</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="188"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>716</v>
@@ -28347,7 +28346,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>717</v>
@@ -28383,7 +28382,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="140"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>718</v>
@@ -28396,30 +28395,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
         <f t="shared" si="2"/>
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="J10" s="140"/>
+        <v>-0.03</v>
+      </c>
+      <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>719</v>
@@ -28455,7 +28454,7 @@
         <f t="shared" si="2"/>
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="J11" s="140"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>720</v>
@@ -28491,7 +28490,7 @@
         <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>721</v>
@@ -28567,38 +28566,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.19500000000000001</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-9.0000000000000011E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-3.7500000000000006E-2</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="185"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28840,18 +28839,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29093,18 +29092,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29346,18 +29345,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29599,18 +29598,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>699</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29851,26 +29850,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29887,6 +29866,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Quit Game Option</t>
-  </si>
-  <si>
-    <t>The quit game option on the pause menu must be labeled "Quit Game". If must use this exact wording. The “Quit Game” option must actually quit the game (i.e., shut down the application), not just return you to the main menu (you can have another option to do that, but a main menu is not even required). Note that not having a confirmation when quitting the game will cause you to fail the "Confirmation of Destructive Action" TCR, not this one.</t>
   </si>
   <si>
     <t>Resume Game Option</t>
@@ -3320,6 +3317,9 @@
   </si>
   <si>
     <t>Tested on DIT2426US (the lab machine in our teamspace)</t>
+  </si>
+  <si>
+    <t>The quit game option on the pause menu must be labeled "Quit Game". It must use this exact wording. The “Quit Game” option must actually quit the game (i.e., shut down the application), not just return you to the main menu (you can have another option to do that, but a main menu is not even required). Note that not having a confirmation when quitting the game will cause you to fail the "Confirmation of Destructive Action" TCR, not this one.</t>
   </si>
 </sst>
 </file>
@@ -15214,19 +15214,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="189" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="179" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1" s="180"/>
       <c r="E1" s="179" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1" s="180"/>
       <c r="G1" s="179" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1" s="180"/>
     </row>
@@ -15234,19 +15234,19 @@
       <c r="A2" s="190"/>
       <c r="B2" s="75"/>
       <c r="C2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" s="182"/>
       <c r="E2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F2" s="182"/>
       <c r="G2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2" s="182"/>
       <c r="J2" s="192" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K2" s="193"/>
       <c r="L2" s="194"/>
@@ -15288,27 +15288,27 @@
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="118" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D5" s="120"/>
       <c r="E5" s="118" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="118" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="77" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15334,7 +15334,7 @@
       <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.08</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15346,15 +15346,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="188" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D7" s="188"/>
       <c r="E7" s="188" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F7" s="188"/>
       <c r="G7" s="188" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H7" s="188"/>
       <c r="J7" s="91"/>
@@ -15363,35 +15363,35 @@
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="198" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="93" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15427,7 +15427,7 @@
       <c r="J9" s="199"/>
       <c r="K9" s="3"/>
       <c r="L9" s="94" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15463,7 +15463,7 @@
       <c r="J10" s="200"/>
       <c r="K10" s="3"/>
       <c r="L10" s="95" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15531,11 +15531,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="102" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15571,7 +15571,7 @@
       <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15607,7 +15607,7 @@
       <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15637,51 +15637,51 @@
       <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D16" s="185"/>
       <c r="E16" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F16" s="185"/>
       <c r="G16" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H16" s="185"/>
       <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>34</v>
@@ -15689,7 +15689,7 @@
       <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15725,7 +15725,7 @@
       <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15761,7 +15761,7 @@
       <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15917,39 +15917,39 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D25" s="185"/>
       <c r="E25" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F25" s="185"/>
       <c r="G25" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>34</v>
@@ -16170,39 +16170,39 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D34" s="185"/>
       <c r="E34" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F34" s="185"/>
       <c r="G34" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>34</v>
@@ -16423,39 +16423,39 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D43" s="185"/>
       <c r="E43" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F43" s="185"/>
       <c r="G43" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>34</v>
@@ -16676,39 +16676,39 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D52" s="185"/>
       <c r="E52" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F52" s="185"/>
       <c r="G52" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>34</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="154" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -17355,8 +17355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17399,7 +17399,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Partial"))</f>
@@ -17561,11 +17561,11 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>90</v>
@@ -17603,7 +17603,7 @@
         <v>97</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>80</v>
@@ -17618,10 +17618,10 @@
         <v>96</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>76</v>
@@ -17636,10 +17636,10 @@
         <v>98</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>74</v>
@@ -17651,13 +17651,13 @@
     </row>
     <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>74</v>
@@ -17669,13 +17669,13 @@
     </row>
     <row r="16" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="60" t="s">
+        <v>731</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>732</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>733</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>74</v>
@@ -17687,11 +17687,11 @@
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="177" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>90</v>
@@ -17711,7 +17711,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>80</v>
@@ -17720,7 +17720,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -17731,7 +17731,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>80</v>
@@ -17785,7 +17785,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>80</v>
@@ -17803,7 +17803,7 @@
         <v>106</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>80</v>
@@ -17821,7 +17821,7 @@
         <v>107</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>80</v>
@@ -17839,7 +17839,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>76</v>
@@ -17857,7 +17857,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>80</v>
@@ -17893,7 +17893,7 @@
         <v>113</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>80</v>
@@ -17905,11 +17905,11 @@
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>90</v>
@@ -17926,10 +17926,10 @@
         <v>93</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>86</v>
@@ -17944,10 +17944,10 @@
         <v>93</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>86</v>
@@ -17962,10 +17962,10 @@
         <v>93</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>86</v>
@@ -17980,10 +17980,10 @@
         <v>93</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>86</v>
@@ -17998,10 +17998,10 @@
         <v>96</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>86</v>
@@ -18013,13 +18013,13 @@
     </row>
     <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="C35" s="60" t="s">
         <v>761</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>762</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>86</v>
@@ -18034,10 +18034,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>755</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>756</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>757</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>86</v>
@@ -18052,10 +18052,10 @@
         <v>96</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>86</v>
@@ -18070,10 +18070,10 @@
         <v>96</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>86</v>
@@ -18088,10 +18088,10 @@
         <v>96</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="C39" s="60" t="s">
         <v>788</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>789</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>86</v>
@@ -18106,10 +18106,10 @@
         <v>98</v>
       </c>
       <c r="B40" s="60" t="s">
+        <v>762</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>763</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>764</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>86</v>
@@ -18124,10 +18124,10 @@
         <v>98</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>86</v>
@@ -18142,10 +18142,10 @@
         <v>98</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>86</v>
@@ -18160,10 +18160,10 @@
         <v>98</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>86</v>
@@ -18178,10 +18178,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="60" t="s">
+        <v>789</v>
+      </c>
+      <c r="C44" s="60" t="s">
         <v>790</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>791</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>86</v>
@@ -18193,13 +18193,13 @@
     </row>
     <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>86</v>
@@ -18211,13 +18211,13 @@
     </row>
     <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>86</v>
@@ -18229,13 +18229,13 @@
     </row>
     <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="60" t="s">
+        <v>777</v>
+      </c>
+      <c r="C47" s="60" t="s">
         <v>778</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>779</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>86</v>
@@ -18247,13 +18247,13 @@
     </row>
     <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="C48" s="60" t="s">
         <v>796</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>797</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>86</v>
@@ -18265,13 +18265,13 @@
     </row>
     <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="60" t="s">
+        <v>791</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>792</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>793</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>86</v>
@@ -18283,13 +18283,13 @@
     </row>
     <row r="50" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>86</v>
@@ -18301,13 +18301,13 @@
     </row>
     <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>774</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>775</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>86</v>
@@ -18319,13 +18319,13 @@
     </row>
     <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>776</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>777</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>86</v>
@@ -18337,13 +18337,13 @@
     </row>
     <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>780</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>781</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>86</v>
@@ -18355,13 +18355,13 @@
     </row>
     <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="C54" s="60" t="s">
         <v>798</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>799</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>86</v>
@@ -18373,13 +18373,13 @@
     </row>
     <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="C55" s="60" t="s">
         <v>794</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>795</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>86</v>
@@ -18433,7 +18433,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>80</v>
@@ -18451,7 +18451,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>119</v>
+        <v>885</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>80</v>
@@ -18466,10 +18466,10 @@
         <v>96</v>
       </c>
       <c r="B60" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="60" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>121</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>80</v>
@@ -18484,10 +18484,10 @@
         <v>96</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>80</v>
@@ -18502,10 +18502,10 @@
         <v>96</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>76</v>
@@ -18520,10 +18520,10 @@
         <v>96</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>76</v>
@@ -18538,10 +18538,10 @@
         <v>110</v>
       </c>
       <c r="B64" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="60" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>126</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>76</v>
@@ -18556,10 +18556,10 @@
         <v>110</v>
       </c>
       <c r="B65" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="60" t="s">
         <v>127</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>128</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>76</v>
@@ -18574,10 +18574,10 @@
         <v>110</v>
       </c>
       <c r="B66" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="60" t="s">
         <v>129</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>130</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>76</v>
@@ -18592,10 +18592,10 @@
         <v>98</v>
       </c>
       <c r="B67" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>132</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>76</v>
@@ -18610,10 +18610,10 @@
         <v>98</v>
       </c>
       <c r="B68" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="60" t="s">
         <v>133</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>134</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>76</v>
@@ -18625,7 +18625,7 @@
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="177" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
@@ -18646,10 +18646,10 @@
         <v>93</v>
       </c>
       <c r="B70" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="60" t="s">
         <v>137</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>138</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>80</v>
@@ -18664,10 +18664,10 @@
         <v>96</v>
       </c>
       <c r="B71" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="60" t="s">
         <v>139</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>140</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>80</v>
@@ -18682,10 +18682,10 @@
         <v>96</v>
       </c>
       <c r="B72" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="60" t="s">
         <v>141</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>142</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>80</v>
@@ -18694,7 +18694,7 @@
         <v>74</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -18702,10 +18702,10 @@
         <v>96</v>
       </c>
       <c r="B73" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>86</v>
@@ -18720,10 +18720,10 @@
         <v>110</v>
       </c>
       <c r="B74" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="60" t="s">
         <v>145</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>146</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>86</v>
@@ -18738,10 +18738,10 @@
         <v>98</v>
       </c>
       <c r="B75" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="60" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>148</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>86</v>
@@ -18756,10 +18756,10 @@
         <v>98</v>
       </c>
       <c r="B76" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="60" t="s">
         <v>149</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>150</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>80</v>
@@ -18774,10 +18774,10 @@
         <v>98</v>
       </c>
       <c r="B77" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="60" t="s">
         <v>151</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>152</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>86</v>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
@@ -18810,10 +18810,10 @@
         <v>93</v>
       </c>
       <c r="B79" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="60" t="s">
         <v>154</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>155</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>80</v>
@@ -18828,10 +18828,10 @@
         <v>93</v>
       </c>
       <c r="B80" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="60" t="s">
         <v>156</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>157</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>80</v>
@@ -18846,10 +18846,10 @@
         <v>96</v>
       </c>
       <c r="B81" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="60" t="s">
         <v>158</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>159</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>80</v>
@@ -18864,10 +18864,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="60" t="s">
         <v>160</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>161</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>80</v>
@@ -18882,10 +18882,10 @@
         <v>98</v>
       </c>
       <c r="B83" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>80</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
@@ -18918,10 +18918,10 @@
         <v>96</v>
       </c>
       <c r="B85" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="60" t="s">
         <v>165</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>166</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>76</v>
@@ -18936,10 +18936,10 @@
         <v>96</v>
       </c>
       <c r="B86" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="60" t="s">
         <v>169</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>170</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>76</v>
@@ -18954,10 +18954,10 @@
         <v>96</v>
       </c>
       <c r="B87" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="60" t="s">
         <v>171</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>172</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>80</v>
@@ -18972,10 +18972,10 @@
         <v>96</v>
       </c>
       <c r="B88" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="60" t="s">
         <v>173</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>174</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>80</v>
@@ -18990,10 +18990,10 @@
         <v>96</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>80</v>
@@ -19008,10 +19008,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="60" t="s">
         <v>176</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>177</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>80</v>
@@ -19026,10 +19026,10 @@
         <v>96</v>
       </c>
       <c r="B91" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="C91" s="60" t="s">
-        <v>179</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>80</v>
@@ -19044,10 +19044,10 @@
         <v>96</v>
       </c>
       <c r="B92" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="C92" s="60" t="s">
-        <v>183</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>80</v>
@@ -19062,10 +19062,10 @@
         <v>110</v>
       </c>
       <c r="B93" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="60" t="s">
         <v>180</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>181</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>76</v>
@@ -19080,10 +19080,10 @@
         <v>110</v>
       </c>
       <c r="B94" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="60" t="s">
         <v>167</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>168</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>80</v>
@@ -19098,10 +19098,10 @@
         <v>110</v>
       </c>
       <c r="B95" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="60" t="s">
         <v>184</v>
-      </c>
-      <c r="C95" s="60" t="s">
-        <v>185</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>80</v>
@@ -19116,10 +19116,10 @@
         <v>110</v>
       </c>
       <c r="B96" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="60" t="s">
         <v>186</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>187</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>76</v>
@@ -19131,7 +19131,7 @@
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
@@ -19152,10 +19152,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>80</v>
@@ -19170,10 +19170,10 @@
         <v>110</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>80</v>
@@ -19188,10 +19188,10 @@
         <v>110</v>
       </c>
       <c r="B100" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="C100" s="60" t="s">
-        <v>192</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>80</v>
@@ -19206,10 +19206,10 @@
         <v>110</v>
       </c>
       <c r="B101" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="60" t="s">
         <v>193</v>
-      </c>
-      <c r="C101" s="60" t="s">
-        <v>194</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>76</v>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
@@ -19242,10 +19242,10 @@
         <v>93</v>
       </c>
       <c r="B103" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="60" t="s">
         <v>196</v>
-      </c>
-      <c r="C103" s="60" t="s">
-        <v>197</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>80</v>
@@ -19260,10 +19260,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="60" t="s">
         <v>198</v>
-      </c>
-      <c r="C104" s="60" t="s">
-        <v>199</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>80</v>
@@ -19278,10 +19278,10 @@
         <v>96</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C105" s="60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>80</v>
@@ -19290,7 +19290,7 @@
         <v>74</v>
       </c>
       <c r="F105" s="116" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -19298,10 +19298,10 @@
         <v>110</v>
       </c>
       <c r="B106" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="60" t="s">
         <v>201</v>
-      </c>
-      <c r="C106" s="60" t="s">
-        <v>202</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>80</v>
@@ -19316,10 +19316,10 @@
         <v>98</v>
       </c>
       <c r="B107" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="60" t="s">
         <v>203</v>
-      </c>
-      <c r="C107" s="60" t="s">
-        <v>204</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>76</v>
@@ -19331,13 +19331,13 @@
     </row>
     <row r="108" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108" s="60" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>76</v>
@@ -19349,13 +19349,13 @@
     </row>
     <row r="109" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B109" s="60" t="s">
+        <v>736</v>
+      </c>
+      <c r="C109" s="60" t="s">
         <v>737</v>
-      </c>
-      <c r="C109" s="60" t="s">
-        <v>738</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>76</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="177" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
@@ -19388,10 +19388,10 @@
         <v>93</v>
       </c>
       <c r="B111" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="60" t="s">
         <v>207</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>208</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>80</v>
@@ -19406,10 +19406,10 @@
         <v>96</v>
       </c>
       <c r="B112" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="60" t="s">
         <v>209</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>210</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>80</v>
@@ -19424,10 +19424,10 @@
         <v>110</v>
       </c>
       <c r="B113" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="60" t="s">
         <v>211</v>
-      </c>
-      <c r="C113" s="60" t="s">
-        <v>212</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>80</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
@@ -19460,10 +19460,10 @@
         <v>93</v>
       </c>
       <c r="B115" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="60" t="s">
         <v>214</v>
-      </c>
-      <c r="C115" s="60" t="s">
-        <v>215</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>80</v>
@@ -19478,10 +19478,10 @@
         <v>96</v>
       </c>
       <c r="B116" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="60" t="s">
         <v>216</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>217</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>80</v>
@@ -19496,10 +19496,10 @@
         <v>110</v>
       </c>
       <c r="B117" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" s="60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>80</v>
@@ -19511,11 +19511,11 @@
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>90</v>
@@ -19532,10 +19532,10 @@
         <v>93</v>
       </c>
       <c r="B119" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="60" t="s">
         <v>221</v>
-      </c>
-      <c r="C119" s="60" t="s">
-        <v>222</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>86</v>
@@ -19550,10 +19550,10 @@
         <v>96</v>
       </c>
       <c r="B120" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="60" t="s">
         <v>223</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>224</v>
       </c>
       <c r="D120" s="117" t="s">
         <v>86</v>
@@ -19568,10 +19568,10 @@
         <v>96</v>
       </c>
       <c r="B121" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" s="60" t="s">
         <v>225</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>226</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>86</v>
@@ -19586,10 +19586,10 @@
         <v>110</v>
       </c>
       <c r="B122" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" s="60" t="s">
         <v>227</v>
-      </c>
-      <c r="C122" s="60" t="s">
-        <v>228</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>86</v>
@@ -19604,10 +19604,10 @@
         <v>98</v>
       </c>
       <c r="B123" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="60" t="s">
         <v>229</v>
-      </c>
-      <c r="C123" s="60" t="s">
-        <v>230</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>86</v>
@@ -19622,10 +19622,10 @@
         <v>98</v>
       </c>
       <c r="B124" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="60" t="s">
         <v>231</v>
-      </c>
-      <c r="C124" s="60" t="s">
-        <v>232</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>86</v>
@@ -19637,13 +19637,13 @@
     </row>
     <row r="125" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="60" t="s">
         <v>233</v>
-      </c>
-      <c r="C125" s="60" t="s">
-        <v>234</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>86</v>
@@ -19655,13 +19655,13 @@
     </row>
     <row r="126" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B126" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="60" t="s">
         <v>235</v>
-      </c>
-      <c r="C126" s="60" t="s">
-        <v>236</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>86</v>
@@ -20649,7 +20649,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$241,$A$2)&amp;" "&amp;$A$2</f>
@@ -20660,7 +20660,7 @@
         <v>80 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20671,7 +20671,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Required")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Required")*(D$10:D$241="Partial"))</f>
@@ -20833,11 +20833,11 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>90</v>
@@ -20854,10 +20854,10 @@
         <v>96</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>74</v>
@@ -20872,10 +20872,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>74</v>
@@ -20887,13 +20887,13 @@
     </row>
     <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>74</v>
@@ -20905,13 +20905,13 @@
     </row>
     <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>74</v>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="177" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
@@ -20944,10 +20944,10 @@
         <v>93</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>74</v>
@@ -20962,10 +20962,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>74</v>
@@ -20980,10 +20980,10 @@
         <v>96</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>74</v>
@@ -20998,10 +20998,10 @@
         <v>110</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>74</v>
@@ -21016,10 +21016,10 @@
         <v>98</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>74</v>
@@ -21031,13 +21031,13 @@
     </row>
     <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>74</v>
@@ -21049,13 +21049,13 @@
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>74</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="177" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
@@ -21088,10 +21088,10 @@
         <v>93</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>74</v>
@@ -21106,10 +21106,10 @@
         <v>96</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>856</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>857</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>858</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
@@ -21124,10 +21124,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>854</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>855</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>856</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
@@ -21142,10 +21142,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>74</v>
@@ -21160,10 +21160,10 @@
         <v>98</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>74</v>
@@ -21175,13 +21175,13 @@
     </row>
     <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>74</v>
@@ -21193,13 +21193,13 @@
     </row>
     <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>74</v>
@@ -21211,7 +21211,7 @@
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
@@ -21232,10 +21232,10 @@
         <v>93</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -21250,10 +21250,10 @@
         <v>93</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>74</v>
@@ -21268,10 +21268,10 @@
         <v>93</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>74</v>
@@ -21286,10 +21286,10 @@
         <v>96</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>74</v>
@@ -21304,10 +21304,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -21322,10 +21322,10 @@
         <v>96</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>74</v>
@@ -21340,10 +21340,10 @@
         <v>96</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -21358,10 +21358,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
@@ -21376,10 +21376,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
@@ -21394,10 +21394,10 @@
         <v>98</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>74</v>
@@ -21412,10 +21412,10 @@
         <v>98</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
@@ -21430,10 +21430,10 @@
         <v>98</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>74</v>
@@ -21448,10 +21448,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>74</v>
@@ -21466,10 +21466,10 @@
         <v>98</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -21481,13 +21481,13 @@
     </row>
     <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>74</v>
@@ -21499,13 +21499,13 @@
     </row>
     <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -21517,13 +21517,13 @@
     </row>
     <row r="48" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>74</v>
@@ -21535,13 +21535,13 @@
     </row>
     <row r="49" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>74</v>
@@ -21553,13 +21553,13 @@
     </row>
     <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>74</v>
@@ -21571,13 +21571,13 @@
     </row>
     <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>74</v>
@@ -21589,13 +21589,13 @@
     </row>
     <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>74</v>
@@ -21607,13 +21607,13 @@
     </row>
     <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>74</v>
@@ -21625,13 +21625,13 @@
     </row>
     <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>74</v>
@@ -21643,13 +21643,13 @@
     </row>
     <row r="55" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>74</v>
@@ -21661,13 +21661,13 @@
     </row>
     <row r="56" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>74</v>
@@ -21679,11 +21679,11 @@
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="177" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>90</v>
@@ -21700,10 +21700,10 @@
         <v>93</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>74</v>
@@ -21718,10 +21718,10 @@
         <v>93</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>74</v>
@@ -21736,10 +21736,10 @@
         <v>96</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>74</v>
@@ -21754,10 +21754,10 @@
         <v>96</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>74</v>
@@ -21772,10 +21772,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>74</v>
@@ -21790,10 +21790,10 @@
         <v>110</v>
       </c>
       <c r="B63" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="C63" s="60" t="s">
         <v>851</v>
-      </c>
-      <c r="C63" s="60" t="s">
-        <v>852</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>74</v>
@@ -21808,10 +21808,10 @@
         <v>110</v>
       </c>
       <c r="B64" s="60" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" s="60" t="s">
         <v>801</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>802</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>74</v>
@@ -21826,10 +21826,10 @@
         <v>98</v>
       </c>
       <c r="B65" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="C65" s="60" t="s">
         <v>846</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>847</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>74</v>
@@ -21844,10 +21844,10 @@
         <v>98</v>
       </c>
       <c r="B66" s="60" t="s">
+        <v>847</v>
+      </c>
+      <c r="C66" s="60" t="s">
         <v>848</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>849</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>74</v>
@@ -21862,10 +21862,10 @@
         <v>98</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>74</v>
@@ -21880,10 +21880,10 @@
         <v>98</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>74</v>
@@ -21898,10 +21898,10 @@
         <v>98</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>74</v>
@@ -21916,10 +21916,10 @@
         <v>98</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>74</v>
@@ -21934,10 +21934,10 @@
         <v>98</v>
       </c>
       <c r="B71" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="C71" s="60" t="s">
         <v>803</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>804</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>74</v>
@@ -21949,13 +21949,13 @@
     </row>
     <row r="72" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>74</v>
@@ -21967,13 +21967,13 @@
     </row>
     <row r="73" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>74</v>
@@ -21985,13 +21985,13 @@
     </row>
     <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>74</v>
@@ -22003,13 +22003,13 @@
     </row>
     <row r="75" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="C75" s="60" t="s">
         <v>844</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>845</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>74</v>
@@ -22021,13 +22021,13 @@
     </row>
     <row r="76" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="C76" s="60" t="s">
         <v>805</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>806</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>74</v>
@@ -22039,13 +22039,13 @@
     </row>
     <row r="77" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>74</v>
@@ -22057,7 +22057,7 @@
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="177" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
@@ -22078,10 +22078,10 @@
         <v>93</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>74</v>
@@ -22096,10 +22096,10 @@
         <v>96</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C80" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>74</v>
@@ -22114,10 +22114,10 @@
         <v>96</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C81" s="60" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>74</v>
@@ -22132,10 +22132,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>74</v>
@@ -22150,10 +22150,10 @@
         <v>110</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>74</v>
@@ -22168,10 +22168,10 @@
         <v>98</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C84" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>74</v>
@@ -22186,10 +22186,10 @@
         <v>98</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C85" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>74</v>
@@ -22204,10 +22204,10 @@
         <v>98</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C86" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>74</v>
@@ -22222,10 +22222,10 @@
         <v>98</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>74</v>
@@ -22237,13 +22237,13 @@
     </row>
     <row r="88" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>74</v>
@@ -22255,13 +22255,13 @@
     </row>
     <row r="89" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>74</v>
@@ -22273,13 +22273,13 @@
     </row>
     <row r="90" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>74</v>
@@ -22291,13 +22291,13 @@
     </row>
     <row r="91" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B91" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>74</v>
@@ -22309,13 +22309,13 @@
     </row>
     <row r="92" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>74</v>
@@ -22327,13 +22327,13 @@
     </row>
     <row r="93" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B93" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>74</v>
@@ -22345,13 +22345,13 @@
     </row>
     <row r="94" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>74</v>
@@ -22363,13 +22363,13 @@
     </row>
     <row r="95" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>74</v>
@@ -23021,8 +23021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23043,18 +23043,18 @@
         <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$177,$A$2)&amp;" "&amp;$A$2</f>
-        <v>35 Untested</v>
+        <v>26 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$177,$A$2)&amp;" "&amp;$A$2</f>
         <v>39 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23065,11 +23065,11 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Required")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Required")*(D$10:D$177="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Required")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Required")*(E$10:E$177="Partial"))</f>
@@ -23111,7 +23111,7 @@
       <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Partial"))</f>
@@ -23132,7 +23132,7 @@
       <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Partial"))</f>
@@ -23153,7 +23153,7 @@
       <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(E$10:E$177="Partial"))</f>
@@ -23227,7 +23227,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
@@ -23248,10 +23248,10 @@
         <v>93</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>80</v>
@@ -23266,13 +23266,13 @@
         <v>93</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -23284,10 +23284,10 @@
         <v>96</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>80</v>
@@ -23302,10 +23302,10 @@
         <v>96</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>80</v>
@@ -23320,10 +23320,10 @@
         <v>96</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>80</v>
@@ -23338,13 +23338,13 @@
         <v>110</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -23356,13 +23356,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -23374,13 +23374,13 @@
         <v>98</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -23392,13 +23392,13 @@
         <v>98</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -23407,16 +23407,16 @@
     </row>
     <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -23425,16 +23425,16 @@
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -23443,7 +23443,7 @@
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
@@ -23464,13 +23464,13 @@
         <v>93</v>
       </c>
       <c r="B23" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>536</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>537</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -23482,13 +23482,13 @@
         <v>96</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>539</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -23500,10 +23500,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>540</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>541</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
@@ -23518,10 +23518,10 @@
         <v>98</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>542</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>543</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
@@ -23536,10 +23536,10 @@
         <v>98</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>74</v>
@@ -23551,13 +23551,13 @@
     </row>
     <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>545</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>546</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>74</v>
@@ -23569,13 +23569,13 @@
     </row>
     <row r="29" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="60" t="s">
         <v>547</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>548</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>74</v>
@@ -23587,13 +23587,13 @@
     </row>
     <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>549</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>550</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>74</v>
@@ -23605,7 +23605,7 @@
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="177" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
@@ -23626,10 +23626,10 @@
         <v>93</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>552</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>553</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -23644,10 +23644,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>554</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>555</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>74</v>
@@ -23662,10 +23662,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C34" s="60" t="s">
         <v>556</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>557</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>74</v>
@@ -23680,10 +23680,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="60" t="s">
         <v>558</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>559</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>74</v>
@@ -23698,10 +23698,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>560</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>561</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -23716,10 +23716,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="C37" s="60" t="s">
         <v>562</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>563</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>74</v>
@@ -23734,10 +23734,10 @@
         <v>98</v>
       </c>
       <c r="B38" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="60" t="s">
         <v>564</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>565</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -23752,10 +23752,10 @@
         <v>98</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="60" t="s">
         <v>566</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>567</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
@@ -23767,13 +23767,13 @@
     </row>
     <row r="40" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>568</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>569</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
@@ -23785,13 +23785,13 @@
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="60" t="s">
         <v>570</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>571</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>74</v>
@@ -23803,13 +23803,13 @@
     </row>
     <row r="42" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="C42" s="60" t="s">
         <v>572</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>573</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
@@ -23821,7 +23821,7 @@
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="177" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
@@ -23842,10 +23842,10 @@
         <v>93</v>
       </c>
       <c r="B44" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C44" s="60" t="s">
         <v>663</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>664</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>74</v>
@@ -23860,10 +23860,10 @@
         <v>96</v>
       </c>
       <c r="B45" s="60" t="s">
+        <v>664</v>
+      </c>
+      <c r="C45" s="60" t="s">
         <v>665</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>666</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -23878,10 +23878,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="60" t="s">
+        <v>666</v>
+      </c>
+      <c r="C46" s="60" t="s">
         <v>667</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>668</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>74</v>
@@ -23896,10 +23896,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="60" t="s">
+        <v>668</v>
+      </c>
+      <c r="C47" s="60" t="s">
         <v>669</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>670</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -23914,10 +23914,10 @@
         <v>98</v>
       </c>
       <c r="B48" s="60" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" s="60" t="s">
         <v>671</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>672</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>74</v>
@@ -23932,10 +23932,10 @@
         <v>98</v>
       </c>
       <c r="B49" s="60" t="s">
+        <v>672</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>673</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>674</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>74</v>
@@ -23947,13 +23947,13 @@
     </row>
     <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>675</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>676</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>74</v>
@@ -23965,13 +23965,13 @@
     </row>
     <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>677</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>678</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>74</v>
@@ -23983,13 +23983,13 @@
     </row>
     <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="60" t="s">
+        <v>678</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>679</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>680</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>74</v>
@@ -24091,7 +24091,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$248,$A$2)&amp;" "&amp;$A$2</f>
@@ -24102,7 +24102,7 @@
         <v>40 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24113,7 +24113,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Required")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Required")*(D$10:D$248="Partial"))</f>
@@ -24275,7 +24275,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
@@ -24296,10 +24296,10 @@
         <v>96</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>387</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>388</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>74</v>
@@ -24314,10 +24314,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>389</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>390</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>74</v>
@@ -24332,10 +24332,10 @@
         <v>98</v>
       </c>
       <c r="B13" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>391</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>392</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>74</v>
@@ -24347,13 +24347,13 @@
     </row>
     <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>393</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>394</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>74</v>
@@ -24365,13 +24365,13 @@
     </row>
     <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>395</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>396</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>74</v>
@@ -24383,7 +24383,7 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="177" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
@@ -24404,10 +24404,10 @@
         <v>93</v>
       </c>
       <c r="B17" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>398</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>399</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>74</v>
@@ -24422,10 +24422,10 @@
         <v>96</v>
       </c>
       <c r="B18" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="65" t="s">
         <v>400</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>401</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>74</v>
@@ -24440,10 +24440,10 @@
         <v>98</v>
       </c>
       <c r="B19" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="65" t="s">
         <v>402</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>403</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>74</v>
@@ -24455,13 +24455,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>404</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>405</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>74</v>
@@ -24473,13 +24473,13 @@
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>406</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>407</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>74</v>
@@ -24491,11 +24491,11 @@
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>90</v>
@@ -24512,10 +24512,10 @@
         <v>93</v>
       </c>
       <c r="B23" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>409</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>410</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>74</v>
@@ -24530,10 +24530,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>412</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>74</v>
@@ -24548,10 +24548,10 @@
         <v>98</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>413</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>414</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
@@ -24563,13 +24563,13 @@
     </row>
     <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>415</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>416</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
@@ -24581,13 +24581,13 @@
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>417</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>418</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>74</v>
@@ -24599,13 +24599,13 @@
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>419</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>420</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>74</v>
@@ -24617,11 +24617,11 @@
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>90</v>
@@ -24638,10 +24638,10 @@
         <v>93</v>
       </c>
       <c r="B30" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>422</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>423</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>74</v>
@@ -24656,10 +24656,10 @@
         <v>96</v>
       </c>
       <c r="B31" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>424</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>425</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>74</v>
@@ -24674,10 +24674,10 @@
         <v>98</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>426</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>427</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -24689,13 +24689,13 @@
     </row>
     <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="65" t="s">
         <v>428</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>429</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>74</v>
@@ -24707,13 +24707,13 @@
     </row>
     <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="60" t="s">
         <v>430</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>431</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>74</v>
@@ -24725,13 +24725,13 @@
     </row>
     <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="60" t="s">
         <v>432</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>433</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>74</v>
@@ -24743,13 +24743,13 @@
     </row>
     <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>434</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>435</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -24761,11 +24761,11 @@
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>90</v>
@@ -24782,10 +24782,10 @@
         <v>93</v>
       </c>
       <c r="B38" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>437</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>438</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -24800,10 +24800,10 @@
         <v>96</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C39" s="65" t="s">
         <v>439</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>440</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
@@ -24818,10 +24818,10 @@
         <v>98</v>
       </c>
       <c r="B40" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="65" t="s">
         <v>441</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>442</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
@@ -24833,13 +24833,13 @@
     </row>
     <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="65" t="s">
         <v>443</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>444</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>74</v>
@@ -24851,13 +24851,13 @@
     </row>
     <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="C42" s="60" t="s">
         <v>445</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>446</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
@@ -24869,13 +24869,13 @@
     </row>
     <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="65" t="s">
         <v>447</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>448</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>74</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
@@ -24908,10 +24908,10 @@
         <v>93</v>
       </c>
       <c r="B45" s="60" t="s">
+        <v>449</v>
+      </c>
+      <c r="C45" s="65" t="s">
         <v>450</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>451</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -24926,10 +24926,10 @@
         <v>96</v>
       </c>
       <c r="B46" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="C46" s="65" t="s">
         <v>452</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>453</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>74</v>
@@ -24944,10 +24944,10 @@
         <v>98</v>
       </c>
       <c r="B47" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47" s="65" t="s">
         <v>454</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>455</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -24962,10 +24962,10 @@
         <v>98</v>
       </c>
       <c r="B48" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>456</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>457</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>74</v>
@@ -24980,10 +24980,10 @@
         <v>98</v>
       </c>
       <c r="B49" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="C49" s="65" t="s">
         <v>458</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>459</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>74</v>
@@ -24995,13 +24995,13 @@
     </row>
     <row r="50" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" s="65" t="s">
         <v>460</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>461</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>74</v>
@@ -25013,13 +25013,13 @@
     </row>
     <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51" s="65" t="s">
         <v>462</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>463</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>74</v>
@@ -25031,13 +25031,13 @@
     </row>
     <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="C52" s="65" t="s">
         <v>464</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>465</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>74</v>
@@ -25049,13 +25049,13 @@
     </row>
     <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>466</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>467</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>74</v>
@@ -25067,13 +25067,13 @@
     </row>
     <row r="54" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="60" t="s">
         <v>468</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>469</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>74</v>
@@ -25085,13 +25085,13 @@
     </row>
     <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" s="60" t="s">
         <v>470</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>471</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>74</v>
@@ -25552,7 +25552,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$227,$A$2)&amp;" "&amp;$A$2</f>
@@ -25563,7 +25563,7 @@
         <v>46 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -25574,7 +25574,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Required")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Required")*(D$10:D$227="Partial"))</f>
@@ -25736,7 +25736,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
@@ -25757,10 +25757,10 @@
         <v>93</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>476</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>477</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>74</v>
@@ -25775,10 +25775,10 @@
         <v>93</v>
       </c>
       <c r="B12" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>480</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>481</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>74</v>
@@ -25793,10 +25793,10 @@
         <v>96</v>
       </c>
       <c r="B13" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>478</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>479</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>74</v>
@@ -25811,10 +25811,10 @@
         <v>96</v>
       </c>
       <c r="B14" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>484</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>485</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>74</v>
@@ -25829,10 +25829,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>482</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>483</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>74</v>
@@ -25847,10 +25847,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>486</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>487</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>74</v>
@@ -25865,10 +25865,10 @@
         <v>110</v>
       </c>
       <c r="B17" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>488</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>489</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>74</v>
@@ -25883,10 +25883,10 @@
         <v>110</v>
       </c>
       <c r="B18" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>490</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>491</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>74</v>
@@ -25901,10 +25901,10 @@
         <v>110</v>
       </c>
       <c r="B19" s="60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>492</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>493</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>74</v>
@@ -25919,10 +25919,10 @@
         <v>98</v>
       </c>
       <c r="B20" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>494</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>495</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>74</v>
@@ -25937,10 +25937,10 @@
         <v>98</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>496</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>497</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>74</v>
@@ -25955,10 +25955,10 @@
         <v>98</v>
       </c>
       <c r="B22" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>498</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>499</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>74</v>
@@ -25973,10 +25973,10 @@
         <v>98</v>
       </c>
       <c r="B23" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>500</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>501</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>74</v>
@@ -25988,13 +25988,13 @@
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>502</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>503</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>74</v>
@@ -26006,13 +26006,13 @@
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>504</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>505</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
@@ -26024,13 +26024,13 @@
     </row>
     <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>506</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>507</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
@@ -26042,13 +26042,13 @@
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>508</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>509</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>74</v>
@@ -26060,13 +26060,13 @@
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>510</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>511</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>74</v>
@@ -26078,11 +26078,11 @@
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="177" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>90</v>
@@ -26099,10 +26099,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>513</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>514</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>74</v>
@@ -26117,10 +26117,10 @@
         <v>110</v>
       </c>
       <c r="B31" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>515</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>516</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>74</v>
@@ -26135,10 +26135,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>519</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>520</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -26153,10 +26153,10 @@
         <v>98</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>517</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>518</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>74</v>
@@ -26171,10 +26171,10 @@
         <v>98</v>
       </c>
       <c r="B34" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C34" s="60" t="s">
         <v>521</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>522</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>74</v>
@@ -26189,10 +26189,10 @@
         <v>98</v>
       </c>
       <c r="B35" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="60" t="s">
         <v>525</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>526</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>74</v>
@@ -26204,13 +26204,13 @@
     </row>
     <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>523</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>524</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -26222,13 +26222,13 @@
     </row>
     <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="60" t="s">
         <v>527</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>528</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>74</v>
@@ -26240,13 +26240,13 @@
     </row>
     <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C38" s="60" t="s">
         <v>529</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>530</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -26258,13 +26258,13 @@
     </row>
     <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="C39" s="60" t="s">
         <v>531</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>532</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
@@ -26276,13 +26276,13 @@
     </row>
     <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>533</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>534</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
@@ -26315,10 +26315,10 @@
         <v>96</v>
       </c>
       <c r="B42" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="C42" s="60" t="s">
         <v>574</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>575</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
@@ -26333,10 +26333,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="C43" s="60" t="s">
         <v>576</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>577</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>74</v>
@@ -26351,10 +26351,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="C44" s="60" t="s">
         <v>580</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>581</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>74</v>
@@ -26369,10 +26369,10 @@
         <v>98</v>
       </c>
       <c r="B45" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="C45" s="60" t="s">
         <v>578</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>579</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -26387,10 +26387,10 @@
         <v>98</v>
       </c>
       <c r="B46" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="C46" s="60" t="s">
         <v>582</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>583</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>74</v>
@@ -26405,10 +26405,10 @@
         <v>98</v>
       </c>
       <c r="B47" s="60" t="s">
+        <v>583</v>
+      </c>
+      <c r="C47" s="60" t="s">
         <v>584</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>585</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -26420,13 +26420,13 @@
     </row>
     <row r="48" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="60" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48" s="60" t="s">
         <v>586</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>587</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>74</v>
@@ -26438,13 +26438,13 @@
     </row>
     <row r="49" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="60" t="s">
+        <v>587</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>588</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>589</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>74</v>
@@ -26456,11 +26456,11 @@
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="177" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>90</v>
@@ -26477,10 +26477,10 @@
         <v>96</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>590</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>591</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>592</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>74</v>
@@ -26495,10 +26495,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="60" t="s">
+        <v>592</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>593</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>594</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>74</v>
@@ -26513,10 +26513,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="60" t="s">
+        <v>596</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>597</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>598</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>74</v>
@@ -26531,10 +26531,10 @@
         <v>98</v>
       </c>
       <c r="B54" s="60" t="s">
+        <v>594</v>
+      </c>
+      <c r="C54" s="60" t="s">
         <v>595</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>596</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>74</v>
@@ -26549,10 +26549,10 @@
         <v>98</v>
       </c>
       <c r="B55" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="C55" s="60" t="s">
         <v>599</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>600</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>74</v>
@@ -26567,10 +26567,10 @@
         <v>98</v>
       </c>
       <c r="B56" s="60" t="s">
+        <v>600</v>
+      </c>
+      <c r="C56" s="60" t="s">
         <v>601</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>602</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>74</v>
@@ -26585,10 +26585,10 @@
         <v>98</v>
       </c>
       <c r="B57" s="60" t="s">
+        <v>602</v>
+      </c>
+      <c r="C57" s="60" t="s">
         <v>603</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>604</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>74</v>
@@ -26600,13 +26600,13 @@
     </row>
     <row r="58" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="C58" s="60" t="s">
         <v>605</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>606</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>74</v>
@@ -26618,13 +26618,13 @@
     </row>
     <row r="59" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="60" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="60" t="s">
         <v>607</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>608</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>74</v>
@@ -27006,7 +27006,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$240,$A$2)&amp;" "&amp;$A$2</f>
@@ -27017,7 +27017,7 @@
         <v>32 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27028,7 +27028,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="172" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Partial"))</f>
@@ -27190,11 +27190,11 @@
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="177" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>90</v>
@@ -27211,10 +27211,10 @@
         <v>93</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>613</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>614</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>74</v>
@@ -27229,10 +27229,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="60" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>615</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>616</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>74</v>
@@ -27247,10 +27247,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>617</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>618</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>74</v>
@@ -27265,10 +27265,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>619</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>620</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>74</v>
@@ -27283,10 +27283,10 @@
         <v>98</v>
       </c>
       <c r="B15" s="60" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>621</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>622</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>74</v>
@@ -27301,10 +27301,10 @@
         <v>98</v>
       </c>
       <c r="B16" s="60" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>623</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>624</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>74</v>
@@ -27319,10 +27319,10 @@
         <v>98</v>
       </c>
       <c r="B17" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>625</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>626</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>74</v>
@@ -27334,13 +27334,13 @@
     </row>
     <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>627</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>628</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>74</v>
@@ -27352,13 +27352,13 @@
     </row>
     <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>629</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>630</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>74</v>
@@ -27370,13 +27370,13 @@
     </row>
     <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="60" t="s">
+        <v>630</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>631</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>632</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>74</v>
@@ -27388,13 +27388,13 @@
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>633</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>634</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>74</v>
@@ -27406,7 +27406,7 @@
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="177" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
@@ -27427,10 +27427,10 @@
         <v>93</v>
       </c>
       <c r="B23" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>636</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>637</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>74</v>
@@ -27445,10 +27445,10 @@
         <v>93</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>638</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>639</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>74</v>
@@ -27463,10 +27463,10 @@
         <v>96</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>640</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>641</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
@@ -27481,10 +27481,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>642</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>643</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>74</v>
@@ -27499,10 +27499,10 @@
         <v>98</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>645</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>646</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>74</v>
@@ -27517,10 +27517,10 @@
         <v>98</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>647</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>648</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>74</v>
@@ -27535,10 +27535,10 @@
         <v>98</v>
       </c>
       <c r="B29" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="C29" s="60" t="s">
         <v>649</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>650</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>74</v>
@@ -27553,10 +27553,10 @@
         <v>98</v>
       </c>
       <c r="B30" s="60" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" s="60" t="s">
         <v>651</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>652</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>74</v>
@@ -27568,13 +27568,13 @@
     </row>
     <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="60" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>654</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>655</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>74</v>
@@ -27586,13 +27586,13 @@
     </row>
     <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>656</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>657</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -27604,13 +27604,13 @@
     </row>
     <row r="33" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>658</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>659</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>660</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>74</v>
@@ -27622,11 +27622,11 @@
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="177" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>90</v>
@@ -27643,10 +27643,10 @@
         <v>93</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>74</v>
@@ -27661,10 +27661,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>814</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>815</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
@@ -27679,10 +27679,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>74</v>
@@ -27697,10 +27697,10 @@
         <v>98</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -27712,13 +27712,13 @@
     </row>
     <row r="39" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
@@ -27730,13 +27730,13 @@
     </row>
     <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
@@ -27748,7 +27748,7 @@
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="177" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
@@ -27769,10 +27769,10 @@
         <v>93</v>
       </c>
       <c r="B42" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="C42" s="60" t="s">
         <v>682</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>683</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
@@ -27787,10 +27787,10 @@
         <v>96</v>
       </c>
       <c r="B43" s="60" t="s">
+        <v>683</v>
+      </c>
+      <c r="C43" s="74" t="s">
         <v>684</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>685</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>74</v>
@@ -27805,10 +27805,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="C44" s="60" t="s">
         <v>686</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>687</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>74</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -28162,7 +28162,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28179,19 +28179,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="189" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="179" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1" s="180"/>
       <c r="E1" s="179" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F1" s="180"/>
       <c r="G1" s="179" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1" s="180"/>
     </row>
@@ -28199,19 +28199,19 @@
       <c r="A2" s="190"/>
       <c r="B2" s="75"/>
       <c r="C2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" s="182"/>
       <c r="E2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F2" s="182"/>
       <c r="G2" s="181" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2" s="182"/>
       <c r="J2" s="192" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K2" s="193"/>
       <c r="L2" s="194"/>
@@ -28221,17 +28221,17 @@
       <c r="B3" s="76"/>
       <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="D3" s="184"/>
       <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="F3" s="184"/>
       <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="H3" s="184"/>
       <c r="J3" s="195"/>
@@ -28250,27 +28250,27 @@
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="118" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D5" s="120"/>
       <c r="E5" s="118" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="118" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H5" s="120"/>
       <c r="J5" s="127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="102" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28281,67 +28281,67 @@
       <c r="B6" s="11"/>
       <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.17499999999999999</v>
+        <v>-0.22999999999999998</v>
       </c>
       <c r="D6" s="187"/>
       <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.08</v>
+        <v>-0.19</v>
       </c>
       <c r="F6" s="187"/>
       <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-3.2500000000000001E-2</v>
+        <v>-8.7499999999999994E-2</v>
       </c>
       <c r="H6" s="187"/>
       <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="188" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D7" s="188"/>
       <c r="E7" s="188" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F7" s="188"/>
       <c r="G7" s="188" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H7" s="188"/>
       <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>34</v>
@@ -28349,7 +28349,7 @@
       <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28385,7 +28385,7 @@
       <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28421,7 +28421,7 @@
       <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28457,7 +28457,7 @@
       <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -28493,7 +28493,7 @@
       <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28587,39 +28587,39 @@
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D16" s="185"/>
       <c r="E16" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F16" s="185"/>
       <c r="G16" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H16" s="185"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>34</v>
@@ -28840,39 +28840,39 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D25" s="185"/>
       <c r="E25" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F25" s="185"/>
       <c r="G25" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>34</v>
@@ -28885,28 +28885,28 @@
       </c>
       <c r="B27" s="57">
         <f>ICRs!$D$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="112">
         <v>-0.05</v>
       </c>
       <c r="D27" s="96">
         <f t="shared" ref="D27:D32" si="6">B27*C27</f>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E27" s="82">
         <v>-0.1</v>
       </c>
       <c r="F27" s="96">
         <f t="shared" ref="F27:F32" si="7">B27*E27</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G27" s="83">
         <v>-0.05</v>
       </c>
       <c r="H27" s="96">
         <f t="shared" ref="H27:H32" si="8">B27*G27</f>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28947,28 +28947,28 @@
       </c>
       <c r="B29" s="11">
         <f>ICRs!$D$4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="114">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D29" s="97">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E29" s="82">
         <v>-0.01</v>
       </c>
       <c r="F29" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G29" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H29" s="97">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29072,60 +29072,60 @@
       </c>
       <c r="D33" s="99">
         <f>SUM(D27:D32)</f>
-        <v>0</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="99">
         <f>SUM(F27:F32)</f>
-        <v>0</v>
+        <v>-0.11</v>
       </c>
       <c r="G33" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="99">
         <f>SUM(H27:H32)</f>
-        <v>0</v>
+        <v>-5.5E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D34" s="185"/>
       <c r="E34" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F34" s="185"/>
       <c r="G34" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>34</v>
@@ -29346,39 +29346,39 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D43" s="185"/>
       <c r="E43" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F43" s="185"/>
       <c r="G43" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>34</v>
@@ -29599,39 +29599,39 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="185" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D52" s="185"/>
       <c r="E52" s="185" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F52" s="185"/>
       <c r="G52" s="185" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>34</v>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-Project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="887">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3320,6 +3320,9 @@
   </si>
   <si>
     <t>The quit game option on the pause menu must be labeled "Quit Game". It must use this exact wording. The “Quit Game” option must actually quit the game (i.e., shut down the application), not just return you to the main menu (you can have another option to do that, but a main menu is not even required). Note that not having a confirmation when quitting the game will cause you to fail the "Confirmation of Destructive Action" TCR, not this one.</t>
+  </si>
+  <si>
+    <t>Game is supposed to have a "pixel-y" look</t>
   </si>
 </sst>
 </file>
@@ -4318,6 +4321,87 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4345,94 +4429,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4442,6 +4448,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4465,20 +4480,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4493,42 +4502,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4557,6 +4530,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14579,47 +14582,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14639,35 +14642,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14678,42 +14681,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="128"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="128"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="129"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14731,17 +14734,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14780,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="139" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14804,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="128"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14825,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="129"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14867,10 +14870,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14888,16 +14891,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="139" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14911,16 +14914,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="136"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="129"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14948,7 +14951,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="151" t="s">
+      <c r="F21" s="136" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14964,17 +14967,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="152"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="118">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="139" t="s">
+      <c r="K22" s="120" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14985,14 +14988,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="152"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="140"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15001,7 +15004,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15029,12 +15032,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15045,12 +15048,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="133" t="s">
+      <c r="F27" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="134"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15061,10 +15064,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15075,10 +15078,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15089,26 +15092,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="136"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15129,13 +15132,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15151,12 +15153,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15213,65 +15216,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15291,18 +15294,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15317,24 +15320,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15345,18 +15348,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
+      <c r="H7" s="191"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15530,7 +15533,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15568,7 +15571,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="128"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15604,7 +15607,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="128"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15634,7 +15637,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15643,19 +15646,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="J16" s="128"/>
+      <c r="H16" s="188"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15686,7 +15689,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15722,7 +15725,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="128"/>
+      <c r="J18" s="140"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15758,7 +15761,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15916,18 +15919,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16169,18 +16172,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16422,18 +16425,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16675,18 +16678,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16927,6 +16930,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16943,27 +16967,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16990,54 +16993,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="161" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17066,10 +17069,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17085,10 +17088,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17104,10 +17107,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="169"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17123,10 +17126,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="169"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17142,10 +17145,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="169"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17161,10 +17164,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17180,10 +17183,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17199,10 +17202,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="171"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17219,11 +17222,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17242,93 +17245,88 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17345,6 +17343,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17355,8 +17358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17398,7 +17401,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17421,7 +17424,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>6</v>
@@ -17442,10 +17445,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17463,10 +17466,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17484,7 +17487,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3</v>
@@ -17505,7 +17508,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3</v>
@@ -17526,7 +17529,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17541,11 +17544,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17560,10 +17563,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17686,10 +17689,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="172" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="178"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17904,10 +17907,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18390,10 +18393,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="178"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18562,7 +18565,7 @@
         <v>127</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>74</v>
@@ -18580,7 +18583,7 @@
         <v>129</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>74</v>
@@ -18624,10 +18627,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18788,10 +18791,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18896,10 +18899,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="177" t="s">
+      <c r="A84" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="178"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19130,10 +19133,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="177" t="s">
+      <c r="A97" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="178"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19220,10 +19223,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="177" t="s">
+      <c r="A102" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19366,10 +19369,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="177" t="s">
+      <c r="A110" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19438,10 +19441,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="178"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19510,10 +19513,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="177" t="s">
+      <c r="A118" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="178"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19673,6 +19676,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19682,11 +19690,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20670,7 +20673,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20693,7 +20696,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20714,7 +20717,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20735,7 +20738,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20756,7 +20759,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20777,7 +20780,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20798,7 +20801,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20813,11 +20816,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20832,10 +20835,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20922,10 +20925,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21066,10 +21069,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="178"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21210,10 +21213,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21678,10 +21681,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="178"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -22056,10 +22059,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23021,8 +23024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23064,7 +23067,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23087,7 +23090,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23108,7 +23111,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23129,7 +23132,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23150,7 +23153,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23171,7 +23174,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23192,7 +23195,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23207,11 +23210,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23226,10 +23229,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23442,10 +23445,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23604,10 +23607,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23711,7 +23714,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" s="26" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="26" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
         <v>110</v>
       </c>
@@ -23820,10 +23823,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="172" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="178"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24112,7 +24115,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24135,7 +24138,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24156,7 +24159,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24177,7 +24180,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24198,7 +24201,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24219,7 +24222,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24240,7 +24243,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24255,11 +24258,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24274,10 +24277,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24382,10 +24385,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="172" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24490,10 +24493,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24616,10 +24619,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24760,10 +24763,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24886,10 +24889,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25530,8 +25533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25556,7 +25559,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$227,$A$2)&amp;" "&amp;$A$2</f>
-        <v>46 Untested</v>
+        <v>40 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$227,$A$2)&amp;" "&amp;$A$2</f>
@@ -25573,7 +25576,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25596,7 +25599,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25617,7 +25620,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25638,10 +25641,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
@@ -25659,7 +25662,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25680,7 +25683,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25701,7 +25704,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25716,11 +25719,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25735,10 +25738,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -25763,7 +25766,7 @@
         <v>476</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -25781,7 +25784,7 @@
         <v>480</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -25799,14 +25802,14 @@
         <v>478</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>96</v>
       </c>
@@ -25817,12 +25820,14 @@
         <v>484</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="60" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
@@ -25853,7 +25858,7 @@
         <v>486</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -25871,7 +25876,7 @@
         <v>488</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -26077,10 +26082,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26293,10 +26298,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26455,10 +26460,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="177" t="s">
+      <c r="A50" s="172" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="178"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26544,7 +26549,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -27027,7 +27032,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27050,7 +27055,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27071,7 +27076,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27092,7 +27097,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27113,7 +27118,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27134,7 +27139,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27155,7 +27160,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27170,11 +27175,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27189,10 +27194,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27405,10 +27410,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27621,10 +27626,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="172" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="178"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27747,10 +27752,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28162,7 +28167,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28178,65 +28183,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.62</v>
-      </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+        <v>0.64</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.66</v>
-      </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.76</v>
-      </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+        <v>0.77</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28253,19 +28258,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="J5" s="127" t="s">
+      <c r="H5" s="147"/>
+      <c r="J5" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28279,22 +28284,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.22999999999999998</v>
-      </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+        <v>-0.20999999999999996</v>
+      </c>
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.19</v>
-      </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+        <v>-0.18</v>
+      </c>
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-8.7499999999999994E-2</v>
-      </c>
-      <c r="H6" s="187"/>
-      <c r="J6" s="128"/>
+        <v>-8.249999999999999E-2</v>
+      </c>
+      <c r="H6" s="190"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28303,19 +28308,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="191"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28346,7 +28351,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="128"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28382,7 +28387,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="128"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28418,7 +28423,7 @@
         <f t="shared" si="2"/>
         <v>-0.03</v>
       </c>
-      <c r="J10" s="128"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28431,30 +28436,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-1.7500000000000002E-2</v>
-      </c>
-      <c r="J11" s="128"/>
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="J11" s="140"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28490,7 +28495,7 @@
         <f t="shared" si="2"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J12" s="129"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28566,38 +28571,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.17499999999999999</v>
+        <v>-0.15499999999999997</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-0.08</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-3.2500000000000001E-2</v>
+        <v>-2.7499999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28839,18 +28844,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29092,18 +29097,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29345,18 +29350,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29598,18 +29603,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29850,6 +29855,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29866,26 +29891,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-Project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="888">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3323,6 +3323,9 @@
   </si>
   <si>
     <t>Game is supposed to have a "pixel-y" look</t>
+  </si>
+  <si>
+    <t>Game doesn't display any message that the player lost or one, it just dumps them to the main menu. Hopefully we can fix this before we turn it in.</t>
   </si>
 </sst>
 </file>
@@ -4321,87 +4324,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4429,16 +4351,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4448,15 +4448,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4480,14 +4471,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4502,6 +4499,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4530,36 +4563,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14582,47 +14585,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14642,35 +14645,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="127" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14681,42 +14684,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="141"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14734,17 +14737,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="127" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14807,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14828,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="141"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14870,10 +14873,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14891,16 +14894,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="125"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="127" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14914,16 +14917,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="141"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14951,7 +14954,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="151" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14967,17 +14970,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="137">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="139" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14988,14 +14991,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="121"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15004,7 +15007,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15032,12 +15035,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15048,12 +15051,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15064,10 +15067,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15078,10 +15081,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15092,26 +15095,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15132,12 +15135,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15153,13 +15157,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15216,65 +15219,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15294,18 +15297,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15320,24 +15323,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="190"/>
+      <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.125</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15348,18 +15351,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="188"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15533,7 +15536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15571,7 +15574,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15607,7 +15610,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15637,7 +15640,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15646,19 +15649,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="J16" s="140"/>
+      <c r="H16" s="185"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15689,7 +15692,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15725,7 +15728,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15761,7 +15764,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15919,18 +15922,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16172,18 +16175,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16425,18 +16428,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16678,18 +16681,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16930,27 +16933,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16967,6 +16949,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16993,54 +16996,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="154" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17069,10 +17072,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17088,10 +17091,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17107,10 +17110,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17126,10 +17129,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17145,10 +17148,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17164,10 +17167,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17183,10 +17186,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17202,10 +17205,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17222,11 +17225,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17245,88 +17248,93 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17343,11 +17351,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17358,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17401,7 +17404,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17424,7 +17427,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>6</v>
@@ -17445,10 +17448,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17466,10 +17469,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17487,10 +17490,10 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -17508,10 +17511,10 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -17529,7 +17532,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17544,11 +17547,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17563,10 +17566,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17689,10 +17692,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="177" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17907,10 +17910,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18393,10 +18396,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="173"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18547,7 +18550,7 @@
         <v>125</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>74</v>
@@ -18601,12 +18604,14 @@
         <v>131</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="60"/>
+      <c r="F67" s="60" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="69" t="s">
@@ -18627,10 +18632,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18791,10 +18796,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18899,10 +18904,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="172" t="s">
+      <c r="A84" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="173"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19133,10 +19138,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="173"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19223,10 +19228,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="172" t="s">
+      <c r="A102" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="173"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19369,10 +19374,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="172" t="s">
+      <c r="A110" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="173"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19441,10 +19446,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="173"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19513,10 +19518,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="172" t="s">
+      <c r="A118" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="173"/>
+      <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19676,11 +19681,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19690,6 +19690,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20673,7 +20678,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20696,7 +20701,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20717,7 +20722,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20738,7 +20743,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20759,7 +20764,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20780,7 +20785,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20801,7 +20806,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20816,11 +20821,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20835,10 +20840,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20925,10 +20930,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="173"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21069,10 +21074,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="173"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21213,10 +21218,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21681,10 +21686,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="173"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -22059,10 +22064,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23067,7 +23072,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23090,7 +23095,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23111,7 +23116,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23132,7 +23137,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23153,7 +23158,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23174,7 +23179,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23195,7 +23200,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23210,11 +23215,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23229,10 +23234,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23445,10 +23450,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23607,10 +23612,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23750,7 +23755,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69" t="s">
         <v>98</v>
       </c>
@@ -23823,10 +23828,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="177" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="173"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24115,7 +24120,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24138,7 +24143,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24159,7 +24164,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24180,7 +24185,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24201,7 +24206,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24222,7 +24227,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24243,7 +24248,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24258,11 +24263,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24277,10 +24282,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24385,10 +24390,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="177" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="173"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24493,10 +24498,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24619,10 +24624,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24763,10 +24768,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="177" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="173"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24889,10 +24894,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25576,7 +25581,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25599,7 +25604,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25620,7 +25625,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25641,7 +25646,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25662,7 +25667,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25683,7 +25688,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25704,7 +25709,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25719,11 +25724,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25738,10 +25743,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26082,10 +26087,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26298,10 +26303,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26460,10 +26465,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="177" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -27032,7 +27037,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27055,7 +27060,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27076,7 +27081,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27097,7 +27102,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27118,7 +27123,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27139,7 +27144,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27160,7 +27165,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27175,11 +27180,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27194,10 +27199,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27410,10 +27415,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27626,10 +27631,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="177" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27752,10 +27757,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28166,8 +28171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28183,65 +28188,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.64</v>
-      </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.67</v>
-      </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+        <v>0.68</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
         <v>0.77</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28258,19 +28263,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="J5" s="139" t="s">
+      <c r="H5" s="120"/>
+      <c r="J5" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28284,22 +28289,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.20999999999999996</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+        <v>-0.19750000000000001</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.18</v>
-      </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+        <v>-0.17249999999999999</v>
+      </c>
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-8.249999999999999E-2</v>
-      </c>
-      <c r="H6" s="190"/>
-      <c r="J6" s="140"/>
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="H6" s="187"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28308,19 +28313,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="188"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28351,7 +28356,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28387,7 +28392,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="140"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28423,7 +28428,7 @@
         <f t="shared" si="2"/>
         <v>-0.03</v>
       </c>
-      <c r="J10" s="140"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28436,30 +28441,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-1.2500000000000001E-2</v>
-      </c>
-      <c r="J11" s="140"/>
+        <v>-0.01</v>
+      </c>
+      <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28472,30 +28477,30 @@
       </c>
       <c r="B12" s="11">
         <f>TCRs!$D$7</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="97">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="E12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="97">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="G12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="97">
         <f t="shared" si="2"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J12" s="141"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28571,38 +28576,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.15499999999999997</v>
+        <v>-0.14250000000000002</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-6.9999999999999993E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-2.7499999999999997E-2</v>
+        <v>-2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="185"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28844,18 +28849,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29097,18 +29102,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29350,18 +29355,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29603,18 +29608,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29855,26 +29860,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29891,6 +29876,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-Project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -4324,6 +4324,87 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4351,94 +4432,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4448,6 +4451,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4471,20 +4483,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4499,42 +4505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4563,6 +4533,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14585,47 +14585,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14645,35 +14645,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14684,42 +14684,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="128"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="128"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="129"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14737,17 +14737,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="139" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="128"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="129"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14873,10 +14873,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14894,16 +14894,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="139" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14917,16 +14917,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="136"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="129"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14954,7 +14954,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="151" t="s">
+      <c r="F21" s="136" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14970,17 +14970,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="152"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="118">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="139" t="s">
+      <c r="K22" s="120" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14991,14 +14991,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="152"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="140"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15007,7 +15007,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15035,12 +15035,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15051,12 +15051,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="133" t="s">
+      <c r="F27" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="134"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15067,10 +15067,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15081,10 +15081,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15095,26 +15095,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="136"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15135,13 +15135,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15157,12 +15156,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15219,65 +15219,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15297,18 +15297,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15323,24 +15323,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.11749999999999999</v>
+        <v>0.65250000000000008</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15351,18 +15351,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
+      <c r="H7" s="191"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15536,7 +15536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15574,7 +15574,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="128"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15610,7 +15610,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="128"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15640,7 +15640,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15649,19 +15649,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="J16" s="128"/>
+      <c r="H16" s="188"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15692,7 +15692,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15728,7 +15728,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="128"/>
+      <c r="J18" s="140"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15764,7 +15764,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15922,18 +15922,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16175,18 +16175,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16428,18 +16428,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16681,18 +16681,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16933,6 +16933,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16949,27 +16970,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16980,7 +16980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
@@ -16996,54 +16996,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="161" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17072,10 +17072,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17091,10 +17091,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17110,10 +17110,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="169"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17129,10 +17129,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="169"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17148,10 +17148,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="169"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17167,10 +17167,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17186,10 +17186,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17205,10 +17205,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="171"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17225,11 +17225,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17248,93 +17248,88 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17351,6 +17346,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17361,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17404,7 +17404,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17427,7 +17427,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>6</v>
@@ -17448,7 +17448,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>4</v>
@@ -17469,7 +17469,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>12</v>
@@ -17490,7 +17490,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17511,7 +17511,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17532,7 +17532,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17547,11 +17547,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17566,10 +17566,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17692,10 +17692,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="172" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="178"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17910,10 +17910,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18396,10 +18396,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="178"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18632,10 +18632,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18796,10 +18796,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18904,10 +18904,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="177" t="s">
+      <c r="A84" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="178"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19138,10 +19138,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="177" t="s">
+      <c r="A97" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="178"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19228,10 +19228,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="177" t="s">
+      <c r="A102" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19374,10 +19374,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="177" t="s">
+      <c r="A110" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19446,10 +19446,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="178"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19518,10 +19518,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="177" t="s">
+      <c r="A118" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="178"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19681,6 +19681,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19690,11 +19695,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20635,8 +20635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$241,$A$2)&amp;" "&amp;$A$2</f>
-        <v>80 Untested</v>
+        <v>41 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$241,$A$2)&amp;" "&amp;$A$2</f>
@@ -20678,12 +20678,12 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Required")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Required")*(D$10:D$241="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Required")*(E$10:E$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Required")*(E$10:E$241="Partial"))</f>
@@ -20701,10 +20701,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(E$10:E$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(E$10:E$241="Partial"))</f>
@@ -20722,10 +20722,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(E$10:E$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(E$10:E$241="Partial"))</f>
@@ -20743,7 +20743,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20764,10 +20764,10 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(E$10:E$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(E$10:E$241="Partial"))</f>
@@ -20785,10 +20785,10 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(E$10:E$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(E$10:E$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(E$10:E$241="Partial"))</f>
@@ -20806,7 +20806,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20821,11 +20821,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20840,10 +20840,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>865</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -20886,7 +20886,7 @@
         <v>864</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -20904,7 +20904,7 @@
         <v>866</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
@@ -20922,7 +20922,7 @@
         <v>867</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>74</v>
@@ -20930,10 +20930,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>858</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -20976,7 +20976,7 @@
         <v>859</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -20994,7 +20994,7 @@
         <v>330</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -21012,7 +21012,7 @@
         <v>331</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -21030,7 +21030,7 @@
         <v>332</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -21048,7 +21048,7 @@
         <v>860</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -21066,7 +21066,7 @@
         <v>861</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -21074,10 +21074,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="178"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>333</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -21120,7 +21120,7 @@
         <v>857</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -21138,7 +21138,7 @@
         <v>855</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>74</v>
@@ -21156,7 +21156,7 @@
         <v>334</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>74</v>
@@ -21174,7 +21174,7 @@
         <v>335</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>74</v>
@@ -21192,7 +21192,7 @@
         <v>336</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>74</v>
@@ -21210,7 +21210,7 @@
         <v>337</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
@@ -21218,10 +21218,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>338</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>74</v>
@@ -21264,7 +21264,7 @@
         <v>339</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>74</v>
@@ -21282,7 +21282,7 @@
         <v>340</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>74</v>
@@ -21300,7 +21300,7 @@
         <v>341</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>74</v>
@@ -21318,7 +21318,7 @@
         <v>342</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>74</v>
@@ -21336,7 +21336,7 @@
         <v>343</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>74</v>
@@ -21354,7 +21354,7 @@
         <v>344</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>74</v>
@@ -21372,7 +21372,7 @@
         <v>345</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>74</v>
@@ -21390,7 +21390,7 @@
         <v>852</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>74</v>
@@ -21686,10 +21686,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="178"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>362</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>74</v>
@@ -21732,7 +21732,7 @@
         <v>363</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>74</v>
@@ -21750,7 +21750,7 @@
         <v>364</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>74</v>
@@ -21768,7 +21768,7 @@
         <v>849</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>74</v>
@@ -21786,7 +21786,7 @@
         <v>365</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>74</v>
@@ -21804,7 +21804,7 @@
         <v>851</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>74</v>
@@ -21822,7 +21822,7 @@
         <v>801</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>74</v>
@@ -22064,10 +22064,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>371</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>74</v>
@@ -22110,7 +22110,7 @@
         <v>372</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>74</v>
@@ -22128,7 +22128,7 @@
         <v>834</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>74</v>
@@ -22146,7 +22146,7 @@
         <v>373</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>74</v>
@@ -22164,7 +22164,7 @@
         <v>374</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>74</v>
@@ -23029,8 +23029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$177,$A$2)&amp;" "&amp;$A$2</f>
-        <v>26 Untested</v>
+        <v>25 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$177,$A$2)&amp;" "&amp;$A$2</f>
@@ -23072,12 +23072,12 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Required")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Required")*(D$10:D$177="Partial"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Required")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Required")*(E$10:E$177="Partial"))</f>
@@ -23095,10 +23095,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(E$10:E$177="Partial"))</f>
@@ -23116,10 +23116,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(E$10:E$177="Partial"))</f>
@@ -23137,7 +23137,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23158,10 +23158,10 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(E$10:E$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(E$10:E$177="Partial"))</f>
@@ -23179,7 +23179,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23200,7 +23200,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23215,11 +23215,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23234,10 +23234,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>326</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -23406,7 +23406,7 @@
         <v>327</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -23424,7 +23424,7 @@
         <v>328</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -23442,7 +23442,7 @@
         <v>329</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -23450,10 +23450,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>540</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -23612,10 +23612,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>552</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>74</v>
@@ -23658,7 +23658,7 @@
         <v>554</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>74</v>
@@ -23828,10 +23828,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="172" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="178"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>663</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>74</v>
@@ -23874,7 +23874,7 @@
         <v>665</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>74</v>
@@ -24077,8 +24077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24103,7 +24103,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$248,$A$2)&amp;" "&amp;$A$2</f>
-        <v>40 Untested</v>
+        <v>24 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$248,$A$2)&amp;" "&amp;$A$2</f>
@@ -24120,7 +24120,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24143,7 +24143,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24164,7 +24164,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24185,10 +24185,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(E$10:E$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(E$10:E$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(E$10:E$248="Partial"))</f>
@@ -24206,7 +24206,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24227,7 +24227,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24248,7 +24248,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24263,11 +24263,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24282,10 +24282,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>387</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -24328,7 +24328,7 @@
         <v>389</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -24390,10 +24390,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="172" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>398</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -24436,7 +24436,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -24498,10 +24498,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24526,7 +24526,7 @@
         <v>409</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -24544,7 +24544,7 @@
         <v>411</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -24624,10 +24624,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>422</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
@@ -24670,7 +24670,7 @@
         <v>424</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>74</v>
@@ -24768,10 +24768,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>437</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>74</v>
@@ -24814,7 +24814,7 @@
         <v>439</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>74</v>
@@ -24832,7 +24832,7 @@
         <v>441</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>74</v>
@@ -24850,7 +24850,7 @@
         <v>443</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>74</v>
@@ -24868,7 +24868,7 @@
         <v>445</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>74</v>
@@ -24886,7 +24886,7 @@
         <v>447</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>74</v>
@@ -24894,10 +24894,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>450</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>74</v>
@@ -24940,7 +24940,7 @@
         <v>452</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>74</v>
@@ -25538,8 +25538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25564,7 +25564,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$227,$A$2)&amp;" "&amp;$A$2</f>
-        <v>40 Untested</v>
+        <v>31 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$227,$A$2)&amp;" "&amp;$A$2</f>
@@ -25581,7 +25581,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25604,10 +25604,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Partial"))</f>
@@ -25625,10 +25625,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
@@ -25646,10 +25646,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
@@ -25667,7 +25667,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25688,7 +25688,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25709,7 +25709,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25724,11 +25724,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25743,10 +25743,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26087,10 +26087,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26115,7 +26115,7 @@
         <v>513</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
@@ -26133,7 +26133,7 @@
         <v>515</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>74</v>
@@ -26151,7 +26151,7 @@
         <v>519</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>74</v>
@@ -26303,10 +26303,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>574</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>74</v>
@@ -26349,7 +26349,7 @@
         <v>576</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>74</v>
@@ -26367,7 +26367,7 @@
         <v>580</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>74</v>
@@ -26465,10 +26465,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="177" t="s">
+      <c r="A50" s="172" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="178"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>591</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>74</v>
@@ -26511,7 +26511,7 @@
         <v>593</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>74</v>
@@ -26529,7 +26529,7 @@
         <v>597</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>74</v>
@@ -26994,8 +26994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27020,7 +27020,7 @@
       </c>
       <c r="D1" s="7" t="str">
         <f>""&amp;COUNTIF(D$10:D$240,$A$2)&amp;" "&amp;$A$2</f>
-        <v>32 Untested</v>
+        <v>19 Untested</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$240,$A$2)&amp;" "&amp;$A$2</f>
@@ -27037,12 +27037,12 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Partial"))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Required")*(E$10:E$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Required")*(E$10:E$240="Partial"))</f>
@@ -27060,10 +27060,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(E$10:E$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(E$10:E$240="Partial"))</f>
@@ -27081,10 +27081,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(E$10:E$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(E$10:E$240="Partial"))</f>
@@ -27102,7 +27102,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27123,7 +27123,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27144,7 +27144,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27165,7 +27165,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27180,11 +27180,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27199,10 +27199,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27227,7 +27227,7 @@
         <v>613</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
@@ -27245,7 +27245,7 @@
         <v>615</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -27263,7 +27263,7 @@
         <v>617</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>74</v>
@@ -27281,7 +27281,7 @@
         <v>619</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>74</v>
@@ -27415,10 +27415,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27443,7 +27443,7 @@
         <v>636</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -27461,7 +27461,7 @@
         <v>638</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -27479,7 +27479,7 @@
         <v>640</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -27497,7 +27497,7 @@
         <v>642</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>74</v>
@@ -27631,10 +27631,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="172" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="178"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27659,7 +27659,7 @@
         <v>812</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>74</v>
@@ -27677,7 +27677,7 @@
         <v>814</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>74</v>
@@ -27695,7 +27695,7 @@
         <v>817</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>74</v>
@@ -27757,10 +27757,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>682</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>74</v>
@@ -27803,7 +27803,7 @@
         <v>684</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>74</v>
@@ -28171,8 +28171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28188,65 +28188,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.65</v>
-      </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
-        <v>0.68</v>
-      </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+        <v>0</v>
+      </c>
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.77</v>
-      </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28263,19 +28263,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="J5" s="127" t="s">
+      <c r="H5" s="147"/>
+      <c r="J5" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28289,22 +28289,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.19750000000000001</v>
-      </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+        <v>-0.73250000000000004</v>
+      </c>
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.17249999999999999</v>
-      </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+        <v>-0.98250000000000004</v>
+      </c>
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-7.7499999999999999E-2</v>
-      </c>
-      <c r="H6" s="187"/>
-      <c r="J6" s="128"/>
+        <v>-0.63250000000000006</v>
+      </c>
+      <c r="H6" s="190"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28313,19 +28313,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="191"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28356,7 +28356,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="128"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28392,7 +28392,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="128"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28428,7 +28428,7 @@
         <f t="shared" si="2"/>
         <v>-0.03</v>
       </c>
-      <c r="J10" s="128"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28464,7 +28464,7 @@
         <f t="shared" si="2"/>
         <v>-0.01</v>
       </c>
-      <c r="J11" s="128"/>
+      <c r="J11" s="140"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28500,7 +28500,7 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="129"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28596,18 +28596,18 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28642,28 +28642,28 @@
       </c>
       <c r="B18" s="57">
         <f>DCRs!$D$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="112">
         <v>-0.05</v>
       </c>
       <c r="D18" s="96">
         <f t="shared" ref="D18:D23" si="3">B18*C18</f>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E18" s="82">
         <v>-0.1</v>
       </c>
       <c r="F18" s="96">
         <f t="shared" ref="F18:F23" si="4">B18*E18</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G18" s="83">
         <v>-0.05</v>
       </c>
       <c r="H18" s="96">
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28673,28 +28673,28 @@
       </c>
       <c r="B19" s="11">
         <f>DCRs!$D$3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C19" s="113">
         <v>-0.01</v>
       </c>
       <c r="D19" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E19" s="82">
         <v>-0.02</v>
       </c>
       <c r="F19" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G19" s="84">
         <v>-0.01</v>
       </c>
       <c r="H19" s="97">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28704,28 +28704,28 @@
       </c>
       <c r="B20" s="11">
         <f>DCRs!$D$4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="114">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D20" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E20" s="82">
         <v>-0.01</v>
       </c>
       <c r="F20" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G20" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H20" s="97">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28735,28 +28735,28 @@
       </c>
       <c r="B21" s="11">
         <f>DCRs!$D$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G21" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H21" s="97">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28829,38 +28829,38 @@
       </c>
       <c r="D24" s="99">
         <f>SUM(D18:D23)</f>
-        <v>0</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="99">
         <f>SUM(F18:F23)</f>
-        <v>0</v>
+        <v>-0.39500000000000002</v>
       </c>
       <c r="G24" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="99">
         <f>SUM(H18:H23)</f>
-        <v>0</v>
+        <v>-0.19500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -28895,28 +28895,28 @@
       </c>
       <c r="B27" s="57">
         <f>ICRs!$D$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="112">
         <v>-0.05</v>
       </c>
       <c r="D27" s="96">
         <f t="shared" ref="D27:D32" si="6">B27*C27</f>
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="E27" s="82">
         <v>-0.1</v>
       </c>
       <c r="F27" s="96">
         <f t="shared" ref="F27:F32" si="7">B27*E27</f>
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G27" s="83">
         <v>-0.05</v>
       </c>
       <c r="H27" s="96">
         <f t="shared" ref="H27:H32" si="8">B27*G27</f>
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28926,28 +28926,28 @@
       </c>
       <c r="B28" s="11">
         <f>ICRs!$D$3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="113">
         <v>-0.01</v>
       </c>
       <c r="D28" s="97">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E28" s="82">
         <v>-0.02</v>
       </c>
       <c r="F28" s="97">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="G28" s="84">
         <v>-0.01</v>
       </c>
       <c r="H28" s="97">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -28957,28 +28957,28 @@
       </c>
       <c r="B29" s="11">
         <f>ICRs!$D$4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="114">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D29" s="97">
         <f t="shared" si="6"/>
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="E29" s="82">
         <v>-0.01</v>
       </c>
       <c r="F29" s="97">
         <f t="shared" si="7"/>
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G29" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H29" s="97">
         <f t="shared" si="8"/>
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29082,38 +29082,38 @@
       </c>
       <c r="D33" s="99">
         <f>SUM(D27:D32)</f>
-        <v>-5.5E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="99">
         <f>SUM(F27:F32)</f>
-        <v>-0.11</v>
+        <v>-0.26</v>
       </c>
       <c r="G33" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="99">
         <f>SUM(H27:H32)</f>
-        <v>-5.5E-2</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29355,18 +29355,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29432,28 +29432,28 @@
       </c>
       <c r="B46" s="11">
         <f>VCRs!$D$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="82">
         <v>-0.01</v>
       </c>
       <c r="D46" s="97">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E46" s="84">
         <v>-0.01</v>
       </c>
       <c r="F46" s="97">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G46" s="82">
         <v>-0.02</v>
       </c>
       <c r="H46" s="97">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29463,28 +29463,28 @@
       </c>
       <c r="B47" s="11">
         <f>VCRs!$D$4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="101">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D47" s="97">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E47" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F47" s="97">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G47" s="82">
         <v>-0.01</v>
       </c>
       <c r="H47" s="97">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29588,38 +29588,38 @@
       </c>
       <c r="D51" s="99">
         <f>SUM(D45:D50)</f>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E51" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="99">
         <f>SUM(F45:F50)</f>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="G51" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="99">
         <f>SUM(H45:H50)</f>
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29654,28 +29654,28 @@
       </c>
       <c r="B54" s="57">
         <f>ACRs!$D$2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C54" s="81">
         <v>-0.05</v>
       </c>
       <c r="D54" s="96">
         <f t="shared" ref="D54:D59" si="15">B54*C54</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E54" s="83">
         <v>-0.05</v>
       </c>
       <c r="F54" s="96">
         <f t="shared" ref="F54:F59" si="16">B54*E54</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G54" s="83">
         <v>-0.05</v>
       </c>
       <c r="H54" s="96">
         <f t="shared" ref="H54:H59" si="17">B54*G54</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29685,28 +29685,28 @@
       </c>
       <c r="B55" s="11">
         <f>ACRs!$D$3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" s="82">
         <v>-0.01</v>
       </c>
       <c r="D55" s="97">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="E55" s="84">
         <v>-0.01</v>
       </c>
       <c r="F55" s="97">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="G55" s="84">
         <v>-0.01</v>
       </c>
       <c r="H55" s="97">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29716,28 +29716,28 @@
       </c>
       <c r="B56" s="11">
         <f>ACRs!$D$4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" s="101">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D56" s="97">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E56" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F56" s="97">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G56" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H56" s="97">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29841,25 +29841,45 @@
       </c>
       <c r="D60" s="99">
         <f>SUM(D54:D59)</f>
-        <v>0</v>
+        <v>-0.245</v>
       </c>
       <c r="E60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="99">
         <f>SUM(F54:F59)</f>
-        <v>0</v>
+        <v>-0.245</v>
       </c>
       <c r="G60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="99">
         <f>SUM(H54:H59)</f>
-        <v>0</v>
+        <v>-0.245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29876,26 +29896,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -4324,87 +4324,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4432,16 +4351,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4451,15 +4448,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4483,14 +4471,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4505,6 +4499,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4533,36 +4563,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14585,47 +14585,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14645,35 +14645,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="127" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14684,42 +14684,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="141"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14737,17 +14737,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="127" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="141"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14873,10 +14873,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14894,16 +14894,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="125"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="127" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14917,16 +14917,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="141"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14954,7 +14954,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="151" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14970,17 +14970,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="137">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="139" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14991,14 +14991,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="121"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15007,7 +15007,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15035,12 +15035,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15051,12 +15051,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15067,10 +15067,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15081,10 +15081,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15095,26 +15095,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15135,12 +15135,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15156,13 +15157,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15219,65 +15219,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15297,18 +15297,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15323,24 +15323,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="190"/>
+      <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.65250000000000008</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15351,18 +15351,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="188"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15536,7 +15536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15574,7 +15574,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15610,7 +15610,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15640,7 +15640,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15649,19 +15649,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="J16" s="140"/>
+      <c r="H16" s="185"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15692,7 +15692,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15728,7 +15728,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15764,7 +15764,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15922,18 +15922,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16175,18 +16175,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16428,18 +16428,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16681,18 +16681,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16933,27 +16933,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16970,6 +16949,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16996,54 +16996,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="154" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17072,10 +17072,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17091,10 +17091,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17110,10 +17110,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17129,10 +17129,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17148,10 +17148,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17167,10 +17167,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17186,10 +17186,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17205,10 +17205,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17225,11 +17225,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17248,88 +17248,93 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17346,11 +17351,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17361,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17404,7 +17404,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17427,7 +17427,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>6</v>
@@ -17448,10 +17448,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17469,10 +17469,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17490,7 +17490,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17511,7 +17511,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17532,7 +17532,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17547,11 +17547,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17566,10 +17566,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17692,10 +17692,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="177" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17910,10 +17910,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18396,10 +18396,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="173"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18632,10 +18632,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18796,10 +18796,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18904,10 +18904,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="172" t="s">
+      <c r="A84" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="173"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19138,10 +19138,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="173"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>193</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>74</v>
@@ -19228,10 +19228,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="172" t="s">
+      <c r="A102" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="173"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19374,10 +19374,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="172" t="s">
+      <c r="A110" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="173"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19446,10 +19446,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="173"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19518,10 +19518,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="172" t="s">
+      <c r="A118" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="173"/>
+      <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19681,11 +19681,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19695,6 +19690,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20678,7 +20678,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20701,7 +20701,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20722,7 +20722,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20743,7 +20743,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20764,7 +20764,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -20785,7 +20785,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -20806,7 +20806,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20821,11 +20821,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20840,10 +20840,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20930,10 +20930,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="173"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21074,10 +21074,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="173"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21218,10 +21218,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21686,10 +21686,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="173"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -22064,10 +22064,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23029,7 +23029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -23072,7 +23072,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23095,7 +23095,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23116,7 +23116,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23137,7 +23137,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23158,7 +23158,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23179,7 +23179,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23200,7 +23200,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23215,11 +23215,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23234,10 +23234,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23450,10 +23450,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23612,10 +23612,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23828,10 +23828,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="177" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="173"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24120,7 +24120,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24143,7 +24143,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24164,7 +24164,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24185,7 +24185,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24206,7 +24206,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24227,7 +24227,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24248,7 +24248,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24263,11 +24263,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24282,10 +24282,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24390,10 +24390,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="177" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="173"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24498,10 +24498,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24624,10 +24624,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24768,10 +24768,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="177" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="173"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24894,10 +24894,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25581,7 +25581,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25604,7 +25604,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -25625,7 +25625,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25646,7 +25646,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -25667,7 +25667,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25688,7 +25688,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25709,7 +25709,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25724,11 +25724,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25743,10 +25743,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26087,10 +26087,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26303,10 +26303,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26465,10 +26465,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="177" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26554,7 +26554,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -27037,7 +27037,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27060,7 +27060,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27081,7 +27081,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27102,7 +27102,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27123,7 +27123,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27144,7 +27144,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27165,7 +27165,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27180,11 +27180,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27199,10 +27199,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27415,10 +27415,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27631,10 +27631,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="177" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27757,10 +27757,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28188,65 +28188,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.12</v>
-      </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+        <v>0.13</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
         <v>0.22</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28263,19 +28263,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="J5" s="139" t="s">
+      <c r="H5" s="120"/>
+      <c r="J5" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28289,22 +28289,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.73250000000000004</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+        <v>-0.72250000000000003</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.98250000000000004</v>
-      </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+        <v>-0.97750000000000004</v>
+      </c>
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-0.63250000000000006</v>
-      </c>
-      <c r="H6" s="190"/>
-      <c r="J6" s="140"/>
+        <v>-0.62999999999999989</v>
+      </c>
+      <c r="H6" s="187"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28313,19 +28313,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="188"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28356,7 +28356,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28392,7 +28392,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="140"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28428,7 +28428,7 @@
         <f t="shared" si="2"/>
         <v>-0.03</v>
       </c>
-      <c r="J10" s="140"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28441,30 +28441,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-0.02</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-0.01</v>
-      </c>
-      <c r="J11" s="140"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28500,7 +28500,7 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28576,38 +28576,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.14250000000000002</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-6.25E-2</v>
+        <v>-5.7499999999999996E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-2.2499999999999999E-2</v>
+        <v>-1.9999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="185"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28849,18 +28849,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29102,18 +29102,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29355,18 +29355,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29608,18 +29608,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29860,26 +29860,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29896,6 +29876,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-Project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4324,6 +4324,87 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4351,94 +4432,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4448,6 +4451,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4471,20 +4483,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4499,42 +4505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4563,6 +4533,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14585,47 +14585,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14645,35 +14645,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14684,42 +14684,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="128"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="128"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="129"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14737,17 +14737,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="139" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="128"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="129"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14873,10 +14873,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14894,16 +14894,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="139" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14917,16 +14917,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="136"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="129"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14954,7 +14954,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="151" t="s">
+      <c r="F21" s="136" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14970,17 +14970,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="152"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="118">
         <f>I20+I15</f>
         <v>0.85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="139" t="s">
+      <c r="K22" s="120" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14991,14 +14991,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="152"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="140"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15007,7 +15007,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15035,12 +15035,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15051,12 +15051,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="133" t="s">
+      <c r="F27" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="134"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15067,10 +15067,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15081,10 +15081,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15095,26 +15095,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="136"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15135,13 +15135,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15157,12 +15156,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15219,65 +15219,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.85</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15297,18 +15297,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15323,24 +15323,24 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.64749999999999996</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15351,18 +15351,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
+      <c r="H7" s="191"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15536,7 +15536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15574,7 +15574,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="128"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15610,7 +15610,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="128"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15640,7 +15640,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15649,19 +15649,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="J16" s="128"/>
+      <c r="H16" s="188"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15692,7 +15692,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15728,7 +15728,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="128"/>
+      <c r="J18" s="140"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15764,7 +15764,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15922,18 +15922,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16175,18 +16175,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16428,18 +16428,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16681,18 +16681,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16933,6 +16933,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16949,27 +16970,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16996,54 +16996,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="161" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17072,10 +17072,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17091,10 +17091,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17110,10 +17110,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="169"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17129,10 +17129,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="169"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17148,10 +17148,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="169"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17167,10 +17167,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17186,10 +17186,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17205,10 +17205,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="171"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17225,11 +17225,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17248,93 +17248,88 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17351,6 +17346,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17361,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17404,7 +17404,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17427,10 +17427,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -17448,10 +17448,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17469,10 +17469,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17490,7 +17490,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17511,7 +17511,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17532,7 +17532,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17547,11 +17547,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17566,10 +17566,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17692,10 +17692,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="172" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="178"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17910,10 +17910,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18396,10 +18396,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="178"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18632,10 +18632,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="177" t="s">
+      <c r="A69" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18796,10 +18796,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18904,10 +18904,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="177" t="s">
+      <c r="A84" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="178"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>165</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>74</v>
@@ -18950,7 +18950,7 @@
         <v>169</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>74</v>
@@ -19076,7 +19076,7 @@
         <v>180</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>74</v>
@@ -19138,10 +19138,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="177" t="s">
+      <c r="A97" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="178"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19228,10 +19228,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="177" t="s">
+      <c r="A102" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19374,10 +19374,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="177" t="s">
+      <c r="A110" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19446,10 +19446,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="178"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19518,10 +19518,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="177" t="s">
+      <c r="A118" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="178"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19681,6 +19681,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19690,11 +19695,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20678,7 +20678,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20701,7 +20701,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20722,7 +20722,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20743,7 +20743,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20764,7 +20764,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -20785,7 +20785,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -20806,7 +20806,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20821,11 +20821,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20840,10 +20840,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20930,10 +20930,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21074,10 +21074,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="178"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21218,10 +21218,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21686,10 +21686,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="178"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -22064,10 +22064,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+      <c r="A78" s="172" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23072,7 +23072,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23095,7 +23095,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23116,7 +23116,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23137,7 +23137,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23158,7 +23158,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23179,7 +23179,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23200,7 +23200,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23215,11 +23215,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23234,10 +23234,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23450,10 +23450,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23612,10 +23612,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23828,10 +23828,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="172" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="178"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24120,7 +24120,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24143,7 +24143,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24164,7 +24164,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24185,7 +24185,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24206,7 +24206,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24227,7 +24227,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24248,7 +24248,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24263,11 +24263,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24282,10 +24282,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24390,10 +24390,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="172" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24498,10 +24498,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24624,10 +24624,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24768,10 +24768,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24894,10 +24894,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25581,7 +25581,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25604,7 +25604,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -25625,7 +25625,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25646,7 +25646,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -25667,7 +25667,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25688,7 +25688,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25709,7 +25709,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25724,11 +25724,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25743,10 +25743,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26087,10 +26087,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="172" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26303,10 +26303,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26465,10 +26465,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="177" t="s">
+      <c r="A50" s="172" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="178"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26554,7 +26554,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -27037,7 +27037,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27060,7 +27060,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27081,7 +27081,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27102,7 +27102,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27123,7 +27123,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27144,7 +27144,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27165,7 +27165,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27180,11 +27180,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27199,10 +27199,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="172" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27415,10 +27415,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="172" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27631,10 +27631,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="172" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="178"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27757,10 +27757,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="172" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28188,65 +28188,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="179" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.13</v>
-      </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+        <v>0.18</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.22</v>
-      </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
+        <v>0.23</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28263,19 +28263,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="J5" s="127" t="s">
+      <c r="H5" s="147"/>
+      <c r="J5" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28289,22 +28289,22 @@
         <v>0.85</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.72250000000000003</v>
-      </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+        <v>-0.6725000000000001</v>
+      </c>
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.97750000000000004</v>
-      </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+        <v>-0.95250000000000001</v>
+      </c>
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-0.62999999999999989</v>
-      </c>
-      <c r="H6" s="187"/>
-      <c r="J6" s="128"/>
+        <v>-0.61749999999999994</v>
+      </c>
+      <c r="H6" s="190"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28313,19 +28313,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="191"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28356,7 +28356,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="128"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28392,7 +28392,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="128"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28405,30 +28405,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>-0.12</v>
+        <v>-0.08</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
         <f t="shared" si="2"/>
-        <v>-0.03</v>
-      </c>
-      <c r="J10" s="128"/>
+        <v>-0.02</v>
+      </c>
+      <c r="J10" s="140"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28441,30 +28441,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J11" s="128"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="140"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28500,7 +28500,7 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="129"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28576,38 +28576,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-0.13250000000000001</v>
+        <v>-8.2500000000000004E-2</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-5.7499999999999996E-2</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-1.9999999999999997E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
+      <c r="H16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28849,18 +28849,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
+      <c r="H25" s="188"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29102,18 +29102,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="188"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29355,18 +29355,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29608,18 +29608,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
+      <c r="H52" s="188"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29860,6 +29860,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29876,26 +29896,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\Game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="896">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3326,6 +3326,30 @@
   </si>
   <si>
     <t>Game doesn't display any message that the player lost or one, it just dumps them to the main menu. Hopefully we can fix this before we turn it in.</t>
+  </si>
+  <si>
+    <t>GAM 200</t>
+  </si>
+  <si>
+    <t>RTIS</t>
+  </si>
+  <si>
+    <t>BSGD</t>
+  </si>
+  <si>
+    <t>Connor Hilarides</t>
+  </si>
+  <si>
+    <t>Claire (Jake) Robsahm</t>
+  </si>
+  <si>
+    <t>Leonardo Saikali</t>
+  </si>
+  <si>
+    <t>Enrique Rodriguez</t>
+  </si>
+  <si>
+    <t>Troy K. B. de Magro</t>
   </si>
 </sst>
 </file>
@@ -4324,87 +4348,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4432,16 +4375,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4451,15 +4472,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4483,14 +4495,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4505,6 +4523,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4533,36 +4587,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14566,8 +14590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14585,47 +14609,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -14645,35 +14669,35 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="127" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
@@ -14684,42 +14708,42 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="141"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14737,17 +14761,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14779,22 +14803,28 @@
       <c r="G12" s="6"/>
       <c r="H12" s="13">
         <f>SUMPRODUCT(($A$13:$A$30="GAM 200")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 205")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 250")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 255")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 300")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 302")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 350")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 352")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 400")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 450")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 541")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 550")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 551")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="PRJ 402")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="PRJ 452")*($D$13:$D$30=""))+SUMPRODUCT(($A$13:$A$30="GAM 200")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 205")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 250")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 255")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 300")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 302")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 350")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 352")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 400")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 450")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 541")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 550")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="GAM 551")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="PRJ 402")*($D$13:$D$30="(full)"))+SUMPRODUCT(($A$13:$A$30="PRJ 452")*($D$13:$D$30="(full)"))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="43">
         <f>-H12*0.02</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="127" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>891</v>
+      </c>
       <c r="D13" s="46"/>
       <c r="E13" s="6"/>
       <c r="F13" s="42" t="s">
@@ -14810,13 +14840,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>892</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="6"/>
       <c r="F14" s="49" t="s">
@@ -14831,13 +14867,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="141"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>893</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -14847,16 +14889,22 @@
       </c>
       <c r="I15" s="53">
         <f>SUM(I11:I14)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>894</v>
+      </c>
       <c r="D16" s="46"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -14868,15 +14916,21 @@
       <c r="L16" s="52"/>
     </row>
     <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>895</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14894,16 +14948,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="125"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="127" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -14917,16 +14971,16 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="141"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14954,7 +15008,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="151" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14970,17 +15024,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="137">
         <f>I20+I15</f>
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="139" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
@@ -14991,14 +15045,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="121"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15007,7 +15061,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15035,12 +15089,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15051,12 +15105,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15067,10 +15121,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15081,10 +15135,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15095,26 +15149,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15135,12 +15189,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15156,13 +15211,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15219,65 +15273,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
-        <v>0.85</v>
-      </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
-        <v>0.85</v>
-      </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -15297,18 +15351,18 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15320,27 +15374,27 @@
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="190"/>
+      <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.62250000000000005</v>
+        <v>0.49750000000000005</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -15351,18 +15405,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="188"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15536,7 +15590,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15574,7 +15628,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
@@ -15610,7 +15664,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
@@ -15640,7 +15694,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
@@ -15649,19 +15703,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="J16" s="140"/>
+      <c r="H16" s="185"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
@@ -15692,7 +15746,7 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
@@ -15728,7 +15782,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
@@ -15764,7 +15818,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
@@ -15922,18 +15976,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -16175,18 +16229,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -16428,18 +16482,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -16681,18 +16735,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -16933,27 +16987,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16970,6 +17003,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16996,54 +17050,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="154" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -17072,10 +17126,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17091,10 +17145,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17110,10 +17164,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17129,10 +17183,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17148,10 +17202,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17167,10 +17221,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17186,10 +17240,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17205,10 +17259,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17225,11 +17279,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17248,88 +17302,93 @@
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
     </row>
     <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17346,11 +17405,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17361,8 +17415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17404,7 +17458,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17427,10 +17481,10 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -17448,10 +17502,10 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17469,10 +17523,10 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -17490,7 +17544,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17511,7 +17565,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17532,7 +17586,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17547,11 +17601,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17566,10 +17620,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17692,10 +17746,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="177" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17848,7 +17902,7 @@
         <v>733</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -17884,7 +17938,7 @@
         <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>74</v>
@@ -17910,10 +17964,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -18396,10 +18450,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="173"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18514,7 +18568,7 @@
         <v>878</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>74</v>
@@ -18632,10 +18686,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18796,10 +18850,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18904,10 +18958,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="172" t="s">
+      <c r="A84" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="173"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -19138,10 +19192,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="173"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19228,10 +19282,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="172" t="s">
+      <c r="A102" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="173"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19374,10 +19428,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="172" t="s">
+      <c r="A110" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="173"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19446,10 +19500,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="173"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19518,10 +19572,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="172" t="s">
+      <c r="A118" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="173"/>
+      <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19681,11 +19735,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19695,6 +19744,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20678,7 +20732,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20701,7 +20755,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20722,7 +20776,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20743,7 +20797,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20764,7 +20818,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -20785,7 +20839,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -20806,7 +20860,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20821,11 +20875,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20840,10 +20894,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20930,10 +20984,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="173"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21074,10 +21128,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="173"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21218,10 +21272,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21686,10 +21740,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="173"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -22064,10 +22118,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -23072,7 +23126,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23095,7 +23149,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23116,7 +23170,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23137,7 +23191,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23158,7 +23212,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23179,7 +23233,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23200,7 +23254,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23215,11 +23269,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23234,10 +23288,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23450,10 +23504,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23612,10 +23666,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23828,10 +23882,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="177" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="173"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -24120,7 +24174,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24143,7 +24197,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24164,7 +24218,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24185,7 +24239,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24206,7 +24260,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24227,7 +24281,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24248,7 +24302,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24263,11 +24317,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24282,10 +24336,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24390,10 +24444,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="177" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="173"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24498,10 +24552,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24624,10 +24678,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24768,10 +24822,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="177" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="173"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24894,10 +24948,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -25581,7 +25635,7 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25604,7 +25658,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -25625,7 +25679,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25646,7 +25700,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -25667,7 +25721,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25688,7 +25742,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25709,7 +25763,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25724,11 +25778,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25743,10 +25797,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -26087,10 +26141,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="177" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26303,10 +26357,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26465,10 +26519,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="177" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26554,7 +26608,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -26994,8 +27048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27037,12 +27091,12 @@
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Required")*(D$10:D$240="Partial"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Required")*(E$10:E$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Required")*(E$10:E$240="Partial"))</f>
@@ -27060,7 +27114,7 @@
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27081,7 +27135,7 @@
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27102,7 +27156,7 @@
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27123,7 +27177,7 @@
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27144,7 +27198,7 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27165,7 +27219,7 @@
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27180,11 +27234,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27199,10 +27253,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27415,10 +27469,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27443,7 +27497,7 @@
         <v>636</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -27461,7 +27515,7 @@
         <v>638</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -27631,10 +27685,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="177" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27757,10 +27811,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="177" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -28171,8 +28225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28188,65 +28242,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="181"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
-        <v>0.18</v>
-      </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+        <v>0.23</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
-        <v>0.23</v>
-      </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -28263,19 +28317,19 @@
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="J5" s="139" t="s">
+      <c r="H5" s="120"/>
+      <c r="J5" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28286,25 +28340,25 @@
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.6725000000000001</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+        <v>-0.52250000000000008</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>-0.95250000000000001</v>
-      </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+        <v>-0.82750000000000012</v>
+      </c>
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>-0.61749999999999994</v>
-      </c>
-      <c r="H6" s="190"/>
-      <c r="J6" s="140"/>
+        <v>-0.505</v>
+      </c>
+      <c r="H6" s="187"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
@@ -28313,19 +28367,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="188"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
@@ -28356,7 +28410,7 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
@@ -28392,7 +28446,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="140"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
@@ -28405,30 +28459,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
         <f t="shared" si="2"/>
-        <v>-0.02</v>
-      </c>
-      <c r="J10" s="140"/>
+        <v>-0.01</v>
+      </c>
+      <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
@@ -28441,30 +28495,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="140"/>
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
@@ -28500,7 +28554,7 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
@@ -28576,38 +28630,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-8.2500000000000004E-2</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-3.2500000000000001E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-7.4999999999999997E-3</v>
+        <v>5.000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="185"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -28849,18 +28903,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
+      <c r="H25" s="185"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -29102,18 +29156,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
+      <c r="H34" s="185"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -29355,18 +29409,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
+      <c r="H43" s="185"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -29608,18 +29662,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
+      <c r="H52" s="185"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -29654,28 +29708,28 @@
       </c>
       <c r="B54" s="57">
         <f>ACRs!$D$2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="81">
         <v>-0.05</v>
       </c>
       <c r="D54" s="96">
         <f t="shared" ref="D54:D59" si="15">B54*C54</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E54" s="83">
         <v>-0.05</v>
       </c>
       <c r="F54" s="96">
         <f t="shared" ref="F54:F59" si="16">B54*E54</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G54" s="83">
         <v>-0.05</v>
       </c>
       <c r="H54" s="96">
         <f t="shared" ref="H54:H59" si="17">B54*G54</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29841,45 +29895,25 @@
       </c>
       <c r="D60" s="99">
         <f>SUM(D54:D59)</f>
-        <v>-0.245</v>
+        <v>-0.14500000000000002</v>
       </c>
       <c r="E60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="99">
         <f>SUM(F54:F59)</f>
-        <v>-0.245</v>
+        <v>-0.14500000000000002</v>
       </c>
       <c r="G60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="99">
         <f>SUM(H54:H59)</f>
-        <v>-0.245</v>
+        <v>-0.14500000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29896,6 +29930,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DigiPen\game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -3290,32 +3290,6 @@
     <t>The game can be played entirely on a touch screen tablet running Windows x64. This has been primarily tested on a Microsoft Surface Pro 2.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Open Debug Console (Shift+PauseBrk), type in (without quotes) "enable_cheat_codes" and press enter. God mode: "cheat.god :on" or "cheat.god :off". Get an awesome weapon: "cheat.givewep level: 9000.01". Kill all nearby enemies: "cheat.diediedie radius: 10". Skip a level: "cheat.gemmeoutahere". Note that the debug console </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the mruby scripting environment, just using Kernel#eval</t>
-    </r>
-  </si>
-  <si>
     <t>Tested on DIT2426US (the lab machine in our teamspace)</t>
   </si>
   <si>
@@ -3350,6 +3324,9 @@
   </si>
   <si>
     <t>Troy K. B. de Magro</t>
+  </si>
+  <si>
+    <t>Open Debug Console ("`", backtick), and type one of the following commands, followed by enter: cheat.god = :on;</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3338,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0%;[Red]\-0%"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3533,14 +3510,6 @@
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4342,11 +4311,92 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4375,94 +4425,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4472,6 +4444,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4495,20 +4476,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4523,42 +4498,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4587,6 +4526,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14590,71 +14559,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.796875" style="36"/>
-    <col min="3" max="3" width="26.296875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="3.69921875" style="36" customWidth="1"/>
-    <col min="6" max="6" width="25.19921875" style="36" customWidth="1"/>
+    <col min="1" max="2" width="10.75" style="36"/>
+    <col min="3" max="3" width="26.25" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="36" customWidth="1"/>
+    <col min="5" max="5" width="3.75" style="36" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="36" customWidth="1"/>
     <col min="7" max="7" width="18" style="36" customWidth="1"/>
-    <col min="8" max="9" width="7.19921875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="3.69921875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="31.19921875" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="36"/>
+    <col min="8" max="9" width="7.25" style="36" customWidth="1"/>
+    <col min="10" max="10" width="3.75" style="36" customWidth="1"/>
+    <col min="11" max="11" width="31.25" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
+    <row r="1" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+    <row r="2" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
-    <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+    <row r="3" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14668,85 +14637,85 @@
       <c r="K4" s="6"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="118" t="s">
+    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
+    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="128"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118" t="s">
+    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="128"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
+    <row r="9" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="129"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14760,18 +14729,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14783,7 +14752,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>9</v>
       </c>
@@ -14810,20 +14779,20 @@
         <v>-0.1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="139" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>888</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>889</v>
-      </c>
       <c r="C13" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="6"/>
@@ -14840,18 +14809,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="128"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="6"/>
@@ -14867,18 +14836,18 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="129"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="6"/>
@@ -14895,15 +14864,15 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="6"/>
@@ -14915,22 +14884,22 @@
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="120"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14939,7 +14908,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
@@ -14948,21 +14917,21 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="139" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
@@ -14971,19 +14940,19 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="136"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="129"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
@@ -15002,13 +14971,13 @@
       <c r="K20" s="6"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="151" t="s">
+      <c r="F21" s="136" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -15018,50 +14987,50 @@
       <c r="K21" s="6"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="152"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="118">
         <f>I20+I15</f>
         <v>0.75</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="139" t="s">
+      <c r="K22" s="120" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="152"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="140"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15069,7 +15038,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
@@ -15083,97 +15052,97 @@
       <c r="K25" s="6"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="133" t="s">
+      <c r="F27" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="134"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="147" t="s">
+    <row r="31" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="136"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15189,13 +15158,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15211,12 +15179,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15260,80 +15229,80 @@
       <selection activeCell="C36" sqref="C36:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="36" customWidth="1"/>
     <col min="2" max="2" width="5" style="36" customWidth="1"/>
-    <col min="3" max="8" width="9.69921875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="3.69921875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="26.296875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="26.296875" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="36"/>
+    <col min="3" max="8" width="9.75" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="36" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="36" customWidth="1"/>
+    <col min="12" max="12" width="26.25" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="179" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="H1" s="195"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -15346,23 +15315,23 @@
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
     </row>
-    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="147"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15371,27 +15340,27 @@
         <v>709</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="190"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
         <v>0.49750000000000005</v>
@@ -15402,26 +15371,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
+      <c r="H7" s="191"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>699</v>
       </c>
@@ -15454,7 +15423,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="str">
         <f>"Missing Required TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Required")&amp;")"</f>
         <v>Missing Required TCRs (out of 20)</v>
@@ -15490,7 +15459,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
         <f>"Missing Basic TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Basic")&amp;")"</f>
         <v>Missing Basic TCRs (out of 33)</v>
@@ -15526,7 +15495,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="str">
         <f>"Missing Intermediate TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate TCRs (out of 18)</v>
@@ -15560,7 +15529,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f>"Completed Advanced TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Advanced")&amp;")"</f>
         <v>Completed Advanced TCRs (out of 16)</v>
@@ -15590,7 +15559,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15598,7 +15567,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f>"Completed Professional TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Professional")&amp;")"</f>
         <v>Completed Professional TCRs (out of 8)</v>
@@ -15628,13 +15597,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="128"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="str">
         <f>"Completed Innovative TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Innovative")&amp;")"</f>
         <v>Completed Innovative TCRs (out of 9)</v>
@@ -15664,13 +15633,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="128"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="11"/>
       <c r="C15" s="79" t="s">
@@ -15694,34 +15663,34 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="128"/>
+      <c r="J15" s="140"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="J16" s="128"/>
+      <c r="H16" s="188"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>701</v>
       </c>
@@ -15746,13 +15715,13 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="str">
         <f>"Missing Required DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required DCRs (out of 8)</v>
@@ -15782,13 +15751,13 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="128"/>
+      <c r="J18" s="140"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="str">
         <f>"Missing Basic DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic DCRs (out of 12)</v>
@@ -15818,13 +15787,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f>"Missing Intermediate DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate DCRs (out of 10)</v>
@@ -15855,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>"Completed Advanced DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced DCRs (out of 19)</v>
@@ -15886,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f>"Completed Professional DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional DCRs (out of 15)</v>
@@ -15917,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
         <f>"Completed Innovative DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative DCRs (out of 16)</v>
@@ -15948,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="79" t="s">
@@ -15973,23 +15942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="188"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>879</v>
       </c>
@@ -16015,7 +15984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="str">
         <f>"Missing Required ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required ICRs (out of 5)</v>
@@ -16046,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f>"Missing Basic ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic ICRs (out of 6)</v>
@@ -16077,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f>"Missing Intermediate ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ICRs (out of 9)</v>
@@ -16108,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f>"Completed Advanced ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced ICRs (out of 8)</v>
@@ -16139,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f>"Completed Professional ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional ICRs (out of 7)</v>
@@ -16170,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="str">
         <f>"Completed Innovative ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative ICRs (out of 4)</v>
@@ -16201,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="11"/>
       <c r="C33" s="79" t="s">
@@ -16226,23 +16195,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="188"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>702</v>
       </c>
@@ -16268,7 +16237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="str">
         <f>"Missing Required NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Required")&amp;")"</f>
         <v>Missing Required NCRs (out of 5)</v>
@@ -16299,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f>"Missing Basic NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Basic")&amp;")"</f>
         <v>Missing Basic NCRs (out of 6)</v>
@@ -16330,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f>"Missing Intermediate NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate NCRs (out of 1)</v>
@@ -16361,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f>"Completed Advanced NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Advanced")&amp;")"</f>
         <v>Completed Advanced NCRs (out of 8)</v>
@@ -16392,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f>"Completed Professional NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Professional")&amp;")"</f>
         <v>Completed Professional NCRs (out of 9)</v>
@@ -16423,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="str">
         <f>"Completed Innovative NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Innovative")&amp;")"</f>
         <v>Completed Innovative NCRs (out of 11)</v>
@@ -16454,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="79" t="s">
@@ -16479,23 +16448,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="188"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>703</v>
       </c>
@@ -16521,7 +16490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="str">
         <f>"Missing Required VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Required")&amp;")"</f>
         <v>Missing Required VCRs (out of 2)</v>
@@ -16552,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>"Missing Basic VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Basic")&amp;")"</f>
         <v>Missing Basic VCRs (out of 5)</v>
@@ -16583,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>"Missing Intermediate VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate VCRs (out of 11)</v>
@@ -16614,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>"Completed Advanced VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Advanced")&amp;")"</f>
         <v>Completed Advanced VCRs (out of 14)</v>
@@ -16645,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>"Completed Professional VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Professional")&amp;")"</f>
         <v>Completed Professional VCRs (out of 10)</v>
@@ -16676,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="str">
         <f>"Completed Innovative VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Innovative")&amp;")"</f>
         <v>Completed Innovative VCRs (out of 4)</v>
@@ -16707,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="79" t="s">
@@ -16732,23 +16701,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="188"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>704</v>
       </c>
@@ -16774,7 +16743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="str">
         <f>"Missing Required ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Required")&amp;")"</f>
         <v>Missing Required ACRs (out of 5)</v>
@@ -16805,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>"Missing Basic ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Basic")&amp;")"</f>
         <v>Missing Basic ACRs (out of 4)</v>
@@ -16836,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>"Missing Intermediate ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ACRs (out of 4)</v>
@@ -16867,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>"Completed Advanced ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Advanced")&amp;")"</f>
         <v>Completed Advanced ACRs (out of 9)</v>
@@ -16898,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f>"Completed Professional ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Professional")&amp;")"</f>
         <v>Completed Professional ACRs (out of 6)</v>
@@ -16929,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="str">
         <f>"Completed Innovative ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Innovative")&amp;")"</f>
         <v>Completed Innovative ACRs (out of 4)</v>
@@ -16960,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
       <c r="C60" s="79" t="s">
@@ -16987,6 +16956,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -17003,27 +16993,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17038,68 +17007,68 @@
       <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="61" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="61" customWidth="1"/>
     <col min="4" max="4" width="8" style="61" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="61" customWidth="1"/>
-    <col min="6" max="6" width="94.296875" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="61"/>
+    <col min="5" max="5" width="7.75" style="61" customWidth="1"/>
+    <col min="6" max="6" width="94.25" style="61" customWidth="1"/>
+    <col min="7" max="16384" width="10.75" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="159"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="154" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="161" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="163" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -17107,7 +17076,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -17125,11 +17094,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160" t="s">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17144,11 +17113,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17163,11 +17132,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="169"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17182,11 +17151,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169" t="s">
+    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="169"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17201,11 +17170,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="169" t="s">
+    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="169"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17220,11 +17189,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167" t="s">
+    <row r="13" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17239,11 +17208,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17258,11 +17227,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="170" t="s">
+    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="171"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17277,20 +17246,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -17298,97 +17267,92 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
-    </row>
-    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+    </row>
+    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17405,6 +17369,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17415,21 +17384,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -17451,14 +17420,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17474,14 +17443,14 @@
         <v>Required TCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>2</v>
@@ -17495,14 +17464,14 @@
         <v>Basic TCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -17516,14 +17485,14 @@
         <v>Intermediate TCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>15</v>
@@ -17537,14 +17506,14 @@
         <v>Intermediate TCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17558,14 +17527,14 @@
         <v>Advanced TCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17579,14 +17548,14 @@
         <v>Advanced TCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17600,12 +17569,12 @@
         <v>Professional TCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17619,11 +17588,11 @@
         <v>Innovative TCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17637,7 +17606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -17655,7 +17624,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>96</v>
       </c>
@@ -17673,7 +17642,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>96</v>
       </c>
@@ -17691,7 +17660,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>98</v>
       </c>
@@ -17709,7 +17678,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>134</v>
       </c>
@@ -17727,7 +17696,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>218</v>
       </c>
@@ -17745,11 +17714,11 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="177" t="s">
+    <row r="17" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="172" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="178"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17763,7 +17732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>93</v>
       </c>
@@ -17780,10 +17749,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>93</v>
       </c>
@@ -17801,7 +17770,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>93</v>
       </c>
@@ -17819,7 +17788,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>93</v>
       </c>
@@ -17837,7 +17806,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -17855,7 +17824,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>96</v>
       </c>
@@ -17873,7 +17842,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
         <v>96</v>
       </c>
@@ -17891,7 +17860,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -17909,7 +17878,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
         <v>110</v>
       </c>
@@ -17927,7 +17896,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
         <v>110</v>
       </c>
@@ -17945,7 +17914,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -17963,11 +17932,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -17981,7 +17950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
         <v>93</v>
       </c>
@@ -17999,7 +17968,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
         <v>93</v>
       </c>
@@ -18017,7 +17986,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -18035,7 +18004,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>93</v>
       </c>
@@ -18053,7 +18022,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
         <v>96</v>
       </c>
@@ -18071,7 +18040,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="68" t="s">
         <v>759</v>
       </c>
@@ -18089,7 +18058,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>96</v>
       </c>
@@ -18107,7 +18076,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="67" t="s">
         <v>96</v>
       </c>
@@ -18125,7 +18094,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="68" t="s">
         <v>96</v>
       </c>
@@ -18143,7 +18112,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
         <v>96</v>
       </c>
@@ -18161,7 +18130,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="68" t="s">
         <v>98</v>
       </c>
@@ -18179,7 +18148,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="70" t="s">
         <v>98</v>
       </c>
@@ -18197,7 +18166,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>98</v>
       </c>
@@ -18215,7 +18184,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
         <v>98</v>
       </c>
@@ -18233,7 +18202,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="68" t="s">
         <v>98</v>
       </c>
@@ -18251,7 +18220,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="70" t="s">
         <v>134</v>
       </c>
@@ -18269,7 +18238,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>134</v>
       </c>
@@ -18287,7 +18256,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>134</v>
       </c>
@@ -18305,7 +18274,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68" t="s">
         <v>134</v>
       </c>
@@ -18323,7 +18292,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="68" t="s">
         <v>134</v>
       </c>
@@ -18341,7 +18310,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="70" t="s">
         <v>218</v>
       </c>
@@ -18359,7 +18328,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>218</v>
       </c>
@@ -18377,7 +18346,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
         <v>218</v>
       </c>
@@ -18395,7 +18364,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="69" t="s">
         <v>218</v>
       </c>
@@ -18413,7 +18382,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68" t="s">
         <v>218</v>
       </c>
@@ -18431,7 +18400,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>218</v>
       </c>
@@ -18449,11 +18418,11 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="177" t="s">
+    <row r="56" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="178"/>
+      <c r="B56" s="173"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18467,7 +18436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67" t="s">
         <v>93</v>
       </c>
@@ -18485,7 +18454,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="67" t="s">
         <v>93</v>
       </c>
@@ -18503,7 +18472,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>96</v>
       </c>
@@ -18511,7 +18480,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>80</v>
@@ -18521,7 +18490,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
         <v>96</v>
       </c>
@@ -18539,7 +18508,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>96</v>
       </c>
@@ -18557,7 +18526,7 @@
       </c>
       <c r="F61" s="60"/>
     </row>
-    <row r="62" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
         <v>96</v>
       </c>
@@ -18575,7 +18544,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
         <v>96</v>
       </c>
@@ -18593,7 +18562,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
         <v>110</v>
       </c>
@@ -18611,7 +18580,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>110</v>
       </c>
@@ -18629,7 +18598,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="70" t="s">
         <v>110</v>
       </c>
@@ -18647,7 +18616,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="70" t="s">
         <v>98</v>
       </c>
@@ -18664,10 +18633,10 @@
         <v>74</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
         <v>98</v>
       </c>
@@ -18685,11 +18654,11 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="177" t="s">
+    <row r="69" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18703,7 +18672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
@@ -18721,7 +18690,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>96</v>
       </c>
@@ -18739,7 +18708,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
         <v>96</v>
       </c>
@@ -18759,7 +18728,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>96</v>
       </c>
@@ -18777,7 +18746,7 @@
       </c>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
         <v>110</v>
       </c>
@@ -18795,7 +18764,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69" t="s">
         <v>98</v>
       </c>
@@ -18813,7 +18782,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
         <v>98</v>
       </c>
@@ -18831,7 +18800,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
         <v>98</v>
       </c>
@@ -18849,11 +18818,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18867,7 +18836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67" t="s">
         <v>93</v>
       </c>
@@ -18885,7 +18854,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="67" t="s">
         <v>93</v>
       </c>
@@ -18903,7 +18872,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
         <v>96</v>
       </c>
@@ -18921,7 +18890,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
         <v>110</v>
       </c>
@@ -18939,7 +18908,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>98</v>
       </c>
@@ -18957,11 +18926,11 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="177" t="s">
+    <row r="84" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="178"/>
+      <c r="B84" s="173"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -18975,7 +18944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="68" t="s">
         <v>96</v>
       </c>
@@ -18993,7 +18962,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="68" t="s">
         <v>96</v>
       </c>
@@ -19011,7 +18980,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="68" t="s">
         <v>96</v>
       </c>
@@ -19029,7 +18998,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="68" t="s">
         <v>96</v>
       </c>
@@ -19047,7 +19016,7 @@
       </c>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="68" t="s">
         <v>96</v>
       </c>
@@ -19065,7 +19034,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="68" t="s">
         <v>96</v>
       </c>
@@ -19083,7 +19052,7 @@
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="68" t="s">
         <v>96</v>
       </c>
@@ -19101,7 +19070,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="68" t="s">
         <v>96</v>
       </c>
@@ -19119,7 +19088,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="109" t="s">
         <v>110</v>
       </c>
@@ -19137,7 +19106,7 @@
       </c>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="109" t="s">
         <v>110</v>
       </c>
@@ -19155,7 +19124,7 @@
       </c>
       <c r="F94" s="60"/>
     </row>
-    <row r="95" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="70" t="s">
         <v>110</v>
       </c>
@@ -19173,7 +19142,7 @@
       </c>
       <c r="F95" s="60"/>
     </row>
-    <row r="96" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="70" t="s">
         <v>110</v>
       </c>
@@ -19191,11 +19160,11 @@
       </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="177" t="s">
+    <row r="97" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="178"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19209,7 +19178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67" t="s">
         <v>96</v>
       </c>
@@ -19227,7 +19196,7 @@
       </c>
       <c r="F98" s="60"/>
     </row>
-    <row r="99" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="68" t="s">
         <v>110</v>
       </c>
@@ -19245,7 +19214,7 @@
       </c>
       <c r="F99" s="60"/>
     </row>
-    <row r="100" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="70" t="s">
         <v>110</v>
       </c>
@@ -19263,7 +19232,7 @@
       </c>
       <c r="F100" s="60"/>
     </row>
-    <row r="101" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="70" t="s">
         <v>110</v>
       </c>
@@ -19281,11 +19250,11 @@
       </c>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="177" t="s">
+    <row r="102" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="173"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19299,7 +19268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="67" t="s">
         <v>93</v>
       </c>
@@ -19317,7 +19286,7 @@
       </c>
       <c r="F103" s="60"/>
     </row>
-    <row r="104" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="67" t="s">
         <v>93</v>
       </c>
@@ -19335,7 +19304,7 @@
       </c>
       <c r="F104" s="60"/>
     </row>
-    <row r="105" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="68" t="s">
         <v>96</v>
       </c>
@@ -19352,10 +19321,10 @@
         <v>74</v>
       </c>
       <c r="F105" s="116" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="68" t="s">
         <v>110</v>
       </c>
@@ -19373,7 +19342,7 @@
       </c>
       <c r="F106" s="60"/>
     </row>
-    <row r="107" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="69" t="s">
         <v>98</v>
       </c>
@@ -19391,7 +19360,7 @@
       </c>
       <c r="F107" s="60"/>
     </row>
-    <row r="108" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="71" t="s">
         <v>134</v>
       </c>
@@ -19409,7 +19378,7 @@
       </c>
       <c r="F108" s="60"/>
     </row>
-    <row r="109" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="71" t="s">
         <v>218</v>
       </c>
@@ -19427,11 +19396,11 @@
       </c>
       <c r="F109" s="60"/>
     </row>
-    <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="177" t="s">
+    <row r="110" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="173"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19445,7 +19414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="67" t="s">
         <v>93</v>
       </c>
@@ -19463,7 +19432,7 @@
       </c>
       <c r="F111" s="60"/>
     </row>
-    <row r="112" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="68" t="s">
         <v>96</v>
       </c>
@@ -19481,7 +19450,7 @@
       </c>
       <c r="F112" s="60"/>
     </row>
-    <row r="113" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="70" t="s">
         <v>110</v>
       </c>
@@ -19499,11 +19468,11 @@
       </c>
       <c r="F113" s="60"/>
     </row>
-    <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="177" t="s">
+    <row r="114" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="178"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19517,7 +19486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="67" t="s">
         <v>93</v>
       </c>
@@ -19535,7 +19504,7 @@
       </c>
       <c r="F115" s="60"/>
     </row>
-    <row r="116" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="68" t="s">
         <v>96</v>
       </c>
@@ -19553,7 +19522,7 @@
       </c>
       <c r="F116" s="60"/>
     </row>
-    <row r="117" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>110</v>
       </c>
@@ -19571,11 +19540,11 @@
       </c>
       <c r="F117" s="60"/>
     </row>
-    <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="177" t="s">
+    <row r="118" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="172" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="178"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19589,7 +19558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="67" t="s">
         <v>93</v>
       </c>
@@ -19607,7 +19576,7 @@
       </c>
       <c r="F119" s="60"/>
     </row>
-    <row r="120" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="68" t="s">
         <v>96</v>
       </c>
@@ -19625,7 +19594,7 @@
       </c>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="68" t="s">
         <v>96</v>
       </c>
@@ -19643,7 +19612,7 @@
       </c>
       <c r="F121" s="60"/>
     </row>
-    <row r="122" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
         <v>110</v>
       </c>
@@ -19661,7 +19630,7 @@
       </c>
       <c r="F122" s="60"/>
     </row>
-    <row r="123" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="69" t="s">
         <v>98</v>
       </c>
@@ -19679,7 +19648,7 @@
       </c>
       <c r="F123" s="60"/>
     </row>
-    <row r="124" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="69" t="s">
         <v>98</v>
       </c>
@@ -19697,7 +19666,7 @@
       </c>
       <c r="F124" s="60"/>
     </row>
-    <row r="125" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="71" t="s">
         <v>134</v>
       </c>
@@ -19715,7 +19684,7 @@
       </c>
       <c r="F125" s="60"/>
     </row>
-    <row r="126" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="72" t="s">
         <v>218</v>
       </c>
@@ -19735,6 +19704,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19744,11 +19718,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20693,17 +20662,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -20725,14 +20694,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20748,14 +20717,14 @@
         <v>Required DCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20769,14 +20738,14 @@
         <v>Basic DCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20790,14 +20759,14 @@
         <v>Intermediate DCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20811,14 +20780,14 @@
         <v>Intermediate DCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -20832,14 +20801,14 @@
         <v>Advanced DCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -20853,14 +20822,14 @@
         <v>Advanced DCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20874,12 +20843,12 @@
         <v>Professional DCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20893,11 +20862,11 @@
         <v>Innovative DCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20911,7 +20880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
         <v>96</v>
       </c>
@@ -20929,7 +20898,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>98</v>
       </c>
@@ -20947,7 +20916,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>134</v>
       </c>
@@ -20965,7 +20934,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
         <v>218</v>
       </c>
@@ -20983,11 +20952,11 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="177" t="s">
+    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="172" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -21001,7 +20970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>93</v>
       </c>
@@ -21019,7 +20988,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
         <v>96</v>
       </c>
@@ -21037,7 +21006,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
@@ -21055,7 +21024,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>110</v>
       </c>
@@ -21073,7 +21042,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>98</v>
       </c>
@@ -21091,7 +21060,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>134</v>
       </c>
@@ -21109,7 +21078,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="72" t="s">
         <v>218</v>
       </c>
@@ -21127,11 +21096,11 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="177" t="s">
+    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="178"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21145,7 +21114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
         <v>93</v>
       </c>
@@ -21163,7 +21132,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -21181,7 +21150,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>110</v>
       </c>
@@ -21199,7 +21168,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
         <v>110</v>
       </c>
@@ -21217,7 +21186,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -21235,7 +21204,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
@@ -21253,7 +21222,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="72" t="s">
         <v>218</v>
       </c>
@@ -21271,11 +21240,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21289,7 +21258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -21307,7 +21276,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>93</v>
       </c>
@@ -21325,7 +21294,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
         <v>93</v>
       </c>
@@ -21343,7 +21312,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="68" t="s">
         <v>96</v>
       </c>
@@ -21361,7 +21330,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="68" t="s">
         <v>96</v>
       </c>
@@ -21379,7 +21348,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="68" t="s">
         <v>96</v>
       </c>
@@ -21397,7 +21366,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="68" t="s">
         <v>96</v>
       </c>
@@ -21415,7 +21384,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
         <v>110</v>
       </c>
@@ -21433,7 +21402,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="70" t="s">
         <v>110</v>
       </c>
@@ -21451,7 +21420,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>98</v>
       </c>
@@ -21469,7 +21438,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>98</v>
       </c>
@@ -21487,7 +21456,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>98</v>
       </c>
@@ -21505,7 +21474,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>98</v>
       </c>
@@ -21523,7 +21492,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>98</v>
       </c>
@@ -21541,7 +21510,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>134</v>
       </c>
@@ -21559,7 +21528,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>134</v>
       </c>
@@ -21577,7 +21546,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
         <v>134</v>
       </c>
@@ -21595,7 +21564,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>134</v>
       </c>
@@ -21613,7 +21582,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -21631,7 +21600,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="72" t="s">
         <v>218</v>
       </c>
@@ -21649,7 +21618,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="72" t="s">
         <v>218</v>
       </c>
@@ -21667,7 +21636,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="72" t="s">
         <v>218</v>
       </c>
@@ -21685,7 +21654,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="72" t="s">
         <v>218</v>
       </c>
@@ -21703,7 +21672,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="72" t="s">
         <v>218</v>
       </c>
@@ -21721,7 +21690,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="72" t="s">
         <v>218</v>
       </c>
@@ -21739,11 +21708,11 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="177" t="s">
+    <row r="57" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="178"/>
+      <c r="B57" s="173"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -21757,7 +21726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="67" t="s">
         <v>93</v>
       </c>
@@ -21775,7 +21744,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="67" t="s">
         <v>93</v>
       </c>
@@ -21793,7 +21762,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
         <v>96</v>
       </c>
@@ -21811,7 +21780,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>96</v>
       </c>
@@ -21829,7 +21798,7 @@
       </c>
       <c r="F61" s="60"/>
     </row>
-    <row r="62" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="70" t="s">
         <v>110</v>
       </c>
@@ -21847,7 +21816,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="70" t="s">
         <v>110</v>
       </c>
@@ -21865,7 +21834,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="70" t="s">
         <v>110</v>
       </c>
@@ -21883,7 +21852,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="69" t="s">
         <v>98</v>
       </c>
@@ -21901,7 +21870,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
         <v>98</v>
       </c>
@@ -21919,7 +21888,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
         <v>98</v>
       </c>
@@ -21937,7 +21906,7 @@
       </c>
       <c r="F67" s="60"/>
     </row>
-    <row r="68" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
         <v>98</v>
       </c>
@@ -21955,7 +21924,7 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
         <v>98</v>
       </c>
@@ -21973,7 +21942,7 @@
       </c>
       <c r="F69" s="60"/>
     </row>
-    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
         <v>98</v>
       </c>
@@ -21991,7 +21960,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="69" t="s">
         <v>98</v>
       </c>
@@ -22009,7 +21978,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="71" t="s">
         <v>134</v>
       </c>
@@ -22027,7 +21996,7 @@
       </c>
       <c r="F72" s="60"/>
     </row>
-    <row r="73" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="71" t="s">
         <v>134</v>
       </c>
@@ -22045,7 +22014,7 @@
       </c>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="71" t="s">
         <v>134</v>
       </c>
@@ -22063,7 +22032,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
         <v>134</v>
       </c>
@@ -22081,7 +22050,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="71" t="s">
         <v>134</v>
       </c>
@@ -22099,7 +22068,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="72" t="s">
         <v>218</v>
       </c>
@@ -22117,11 +22086,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="177" t="s">
+    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="172" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="178"/>
+      <c r="B78" s="173"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -22135,7 +22104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67" t="s">
         <v>93</v>
       </c>
@@ -22153,7 +22122,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="68" t="s">
         <v>96</v>
       </c>
@@ -22171,7 +22140,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
         <v>96</v>
       </c>
@@ -22189,7 +22158,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
         <v>110</v>
       </c>
@@ -22207,7 +22176,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="70" t="s">
         <v>110</v>
       </c>
@@ -22225,7 +22194,7 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>98</v>
       </c>
@@ -22243,7 +22212,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="69" t="s">
         <v>98</v>
       </c>
@@ -22261,7 +22230,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="69" t="s">
         <v>98</v>
       </c>
@@ -22279,7 +22248,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="69" t="s">
         <v>98</v>
       </c>
@@ -22297,7 +22266,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="71" t="s">
         <v>134</v>
       </c>
@@ -22315,7 +22284,7 @@
       </c>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="71" t="s">
         <v>134</v>
       </c>
@@ -22333,7 +22302,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="72" t="s">
         <v>218</v>
       </c>
@@ -22351,7 +22320,7 @@
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="72" t="s">
         <v>218</v>
       </c>
@@ -22369,7 +22338,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="72" t="s">
         <v>218</v>
       </c>
@@ -22387,7 +22356,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
         <v>218</v>
       </c>
@@ -22405,7 +22374,7 @@
       </c>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="72" t="s">
         <v>218</v>
       </c>
@@ -22423,7 +22392,7 @@
       </c>
       <c r="F94" s="60"/>
     </row>
-    <row r="95" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="72" t="s">
         <v>218</v>
       </c>
@@ -22441,28 +22410,28 @@
       </c>
       <c r="F95" s="60"/>
     </row>
-    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="100" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="104" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="107" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="108" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="109" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="111" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="116" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="117" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="100" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="104" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="107" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="108" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="109" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="111" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="116" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="117" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A31:B31"/>
@@ -23087,17 +23056,17 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -23119,14 +23088,14 @@
         <v>827</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23142,14 +23111,14 @@
         <v>Required ICRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23163,14 +23132,14 @@
         <v>Basic ICRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23184,14 +23153,14 @@
         <v>Intermediate ICRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23205,14 +23174,14 @@
         <v>Intermediate ICRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23226,14 +23195,14 @@
         <v>Advanced ICRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23247,14 +23216,14 @@
         <v>Advanced ICRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23268,12 +23237,12 @@
         <v>Professional ICRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23287,11 +23256,11 @@
         <v>Innovative ICRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23305,7 +23274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -23323,7 +23292,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>93</v>
       </c>
@@ -23341,7 +23310,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>96</v>
       </c>
@@ -23359,7 +23328,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>96</v>
       </c>
@@ -23377,7 +23346,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>96</v>
       </c>
@@ -23395,7 +23364,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>110</v>
       </c>
@@ -23413,7 +23382,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -23431,7 +23400,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
         <v>98</v>
       </c>
@@ -23449,7 +23418,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
         <v>98</v>
       </c>
@@ -23467,7 +23436,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
         <v>134</v>
       </c>
@@ -23485,7 +23454,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -23503,11 +23472,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="172" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23521,7 +23490,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -23539,7 +23508,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="68" t="s">
         <v>96</v>
       </c>
@@ -23557,7 +23526,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>110</v>
       </c>
@@ -23575,7 +23544,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69" t="s">
         <v>98</v>
       </c>
@@ -23593,7 +23562,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
         <v>98</v>
       </c>
@@ -23611,7 +23580,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
         <v>134</v>
       </c>
@@ -23629,7 +23598,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
@@ -23647,7 +23616,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="72" t="s">
         <v>218</v>
       </c>
@@ -23665,11 +23634,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="177" t="s">
+    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23683,7 +23652,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -23701,7 +23670,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="68" t="s">
         <v>96</v>
       </c>
@@ -23719,7 +23688,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70" t="s">
         <v>110</v>
       </c>
@@ -23737,7 +23706,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
         <v>110</v>
       </c>
@@ -23755,7 +23724,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="70" t="s">
         <v>110</v>
       </c>
@@ -23773,7 +23742,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" s="26" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="26" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
         <v>110</v>
       </c>
@@ -23791,7 +23760,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>98</v>
       </c>
@@ -23809,7 +23778,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>98</v>
       </c>
@@ -23827,7 +23796,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>134</v>
       </c>
@@ -23845,7 +23814,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>134</v>
       </c>
@@ -23863,7 +23832,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="72" t="s">
         <v>218</v>
       </c>
@@ -23881,11 +23850,11 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="177" t="s">
+    <row r="43" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="172" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="178"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -23899,7 +23868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
         <v>93</v>
       </c>
@@ -23917,7 +23886,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="68" t="s">
         <v>96</v>
       </c>
@@ -23935,7 +23904,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="70" t="s">
         <v>110</v>
       </c>
@@ -23953,7 +23922,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70" t="s">
         <v>110</v>
       </c>
@@ -23971,7 +23940,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>98</v>
       </c>
@@ -23989,7 +23958,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>98</v>
       </c>
@@ -24007,7 +23976,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -24025,7 +23994,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
         <v>134</v>
       </c>
@@ -24043,7 +24012,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="72" t="s">
         <v>218</v>
       </c>
@@ -24061,7 +24030,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A43:B43"/>
@@ -24135,17 +24104,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -24167,14 +24136,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24190,14 +24159,14 @@
         <v>Required NCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24211,14 +24180,14 @@
         <v>Basic NCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24232,14 +24201,14 @@
         <v>Intermediate NCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24253,14 +24222,14 @@
         <v>Intermediate NCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24274,14 +24243,14 @@
         <v>Advanced NCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24295,14 +24264,14 @@
         <v>Advanced NCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24316,12 +24285,12 @@
         <v>Professional NCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24335,11 +24304,11 @@
         <v>Innovative NCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24353,7 +24322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
         <v>96</v>
       </c>
@@ -24371,7 +24340,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>110</v>
       </c>
@@ -24389,7 +24358,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
         <v>98</v>
       </c>
@@ -24407,7 +24376,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>134</v>
       </c>
@@ -24425,7 +24394,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="72" t="s">
         <v>218</v>
       </c>
@@ -24443,11 +24412,11 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="177" t="s">
+    <row r="16" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="172" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24461,7 +24430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>93</v>
       </c>
@@ -24479,7 +24448,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
@@ -24497,7 +24466,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
         <v>98</v>
       </c>
@@ -24515,7 +24484,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
         <v>134</v>
       </c>
@@ -24533,7 +24502,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -24551,11 +24520,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24569,7 +24538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -24587,7 +24556,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="68" t="s">
         <v>96</v>
       </c>
@@ -24605,7 +24574,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="69" t="s">
         <v>98</v>
       </c>
@@ -24623,7 +24592,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
         <v>134</v>
       </c>
@@ -24641,7 +24610,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72" t="s">
         <v>218</v>
       </c>
@@ -24659,7 +24628,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
         <v>218</v>
       </c>
@@ -24677,11 +24646,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24695,7 +24664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
         <v>93</v>
       </c>
@@ -24713,7 +24682,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="68" t="s">
         <v>96</v>
       </c>
@@ -24731,7 +24700,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
         <v>98</v>
       </c>
@@ -24749,7 +24718,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>134</v>
       </c>
@@ -24767,7 +24736,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="72" t="s">
         <v>218</v>
       </c>
@@ -24785,7 +24754,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="72" t="s">
         <v>218</v>
       </c>
@@ -24803,7 +24772,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="72" t="s">
         <v>218</v>
       </c>
@@ -24821,11 +24790,11 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="177" t="s">
+    <row r="37" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24839,7 +24808,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>93</v>
       </c>
@@ -24857,7 +24826,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
         <v>96</v>
       </c>
@@ -24875,7 +24844,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>98</v>
       </c>
@@ -24893,7 +24862,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>134</v>
       </c>
@@ -24911,7 +24880,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
         <v>134</v>
       </c>
@@ -24929,7 +24898,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="72" t="s">
         <v>218</v>
       </c>
@@ -24947,11 +24916,11 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="177" t="s">
+    <row r="44" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="173"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -24965,7 +24934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
         <v>93</v>
       </c>
@@ -24983,7 +24952,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="68" t="s">
         <v>96</v>
       </c>
@@ -25001,7 +24970,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>98</v>
       </c>
@@ -25019,7 +24988,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>98</v>
       </c>
@@ -25037,7 +25006,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>98</v>
       </c>
@@ -25055,7 +25024,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -25073,7 +25042,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
         <v>134</v>
       </c>
@@ -25091,7 +25060,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
         <v>134</v>
       </c>
@@ -25109,7 +25078,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="72" t="s">
         <v>218</v>
       </c>
@@ -25127,7 +25096,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="72" t="s">
         <v>218</v>
       </c>
@@ -25145,7 +25114,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="72" t="s">
         <v>218</v>
       </c>
@@ -25163,75 +25132,75 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="65" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="67" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="71" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="74" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="80" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="81" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="86" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="87" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="88" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="90" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="94" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="95" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="102" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="104" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="107" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="109" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="111" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="116" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="118" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="119" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="120" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="121" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="122" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="123" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="124" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="65" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="67" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="71" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="74" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="80" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="81" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="86" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="87" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="88" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="90" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="94" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="95" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="104" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="107" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="109" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="111" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="116" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="118" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="119" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="120" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="121" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="122" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="123" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="124" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A29:B29"/>
@@ -25596,17 +25565,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -25628,14 +25597,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25651,14 +25620,14 @@
         <v>Required VCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -25672,14 +25641,14 @@
         <v>Basic VCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25693,14 +25662,14 @@
         <v>Intermediate VCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -25714,14 +25683,14 @@
         <v>Intermediate VCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25735,14 +25704,14 @@
         <v>Advanced VCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25756,14 +25725,14 @@
         <v>Advanced VCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25777,12 +25746,12 @@
         <v>Professional VCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25796,11 +25765,11 @@
         <v>Innovative VCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -25814,7 +25783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -25832,7 +25801,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>93</v>
       </c>
@@ -25850,7 +25819,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>96</v>
       </c>
@@ -25868,7 +25837,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>96</v>
       </c>
@@ -25885,10 +25854,10 @@
         <v>74</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>110</v>
       </c>
@@ -25906,7 +25875,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>110</v>
       </c>
@@ -25924,7 +25893,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -25942,7 +25911,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
         <v>110</v>
       </c>
@@ -25960,7 +25929,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="115" t="s">
         <v>110</v>
       </c>
@@ -25978,7 +25947,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>98</v>
       </c>
@@ -25996,7 +25965,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69" t="s">
         <v>98</v>
       </c>
@@ -26014,7 +25983,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69" t="s">
         <v>98</v>
       </c>
@@ -26032,7 +26001,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
         <v>98</v>
       </c>
@@ -26050,7 +26019,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
         <v>134</v>
       </c>
@@ -26068,7 +26037,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>134</v>
       </c>
@@ -26086,7 +26055,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
         <v>134</v>
       </c>
@@ -26104,7 +26073,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72" t="s">
         <v>218</v>
       </c>
@@ -26122,7 +26091,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
         <v>218</v>
       </c>
@@ -26140,11 +26109,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="172" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26158,7 +26127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68" t="s">
         <v>96</v>
       </c>
@@ -26176,7 +26145,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
         <v>110</v>
       </c>
@@ -26194,7 +26163,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
         <v>110</v>
       </c>
@@ -26212,7 +26181,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
         <v>98</v>
       </c>
@@ -26230,7 +26199,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
         <v>98</v>
       </c>
@@ -26248,7 +26217,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="69" t="s">
         <v>98</v>
       </c>
@@ -26266,7 +26235,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71" t="s">
         <v>134</v>
       </c>
@@ -26284,7 +26253,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
         <v>134</v>
       </c>
@@ -26302,7 +26271,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
         <v>134</v>
       </c>
@@ -26320,7 +26289,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="72" t="s">
         <v>218</v>
       </c>
@@ -26338,7 +26307,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="72" t="s">
         <v>218</v>
       </c>
@@ -26356,11 +26325,11 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26374,7 +26343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
         <v>96</v>
       </c>
@@ -26392,7 +26361,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
         <v>110</v>
       </c>
@@ -26410,7 +26379,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
         <v>110</v>
       </c>
@@ -26428,7 +26397,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>98</v>
       </c>
@@ -26446,7 +26415,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>98</v>
       </c>
@@ -26464,7 +26433,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>98</v>
       </c>
@@ -26482,7 +26451,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
         <v>134</v>
       </c>
@@ -26500,7 +26469,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>134</v>
       </c>
@@ -26518,11 +26487,11 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="177" t="s">
+    <row r="50" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="172" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="178"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26536,7 +26505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="68" t="s">
         <v>96</v>
       </c>
@@ -26554,7 +26523,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" s="26" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" s="26" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="70" t="s">
         <v>110</v>
       </c>
@@ -26572,7 +26541,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="70" t="s">
         <v>110</v>
       </c>
@@ -26590,7 +26559,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69" t="s">
         <v>98</v>
       </c>
@@ -26608,7 +26577,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -26626,7 +26595,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69" t="s">
         <v>98</v>
       </c>
@@ -26644,7 +26613,7 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="69" t="s">
         <v>98</v>
       </c>
@@ -26662,7 +26631,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>134</v>
       </c>
@@ -26680,7 +26649,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
         <v>134</v>
       </c>
@@ -26698,50 +26667,50 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="65" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="67" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="71" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="74" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="80" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="81" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="86" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="88" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="90" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="94" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="95" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="65" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="67" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="71" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="74" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="80" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="81" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="86" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="88" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="90" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="94" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="95" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A50:B50"/>
@@ -27052,17 +27021,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="36"/>
+    <col min="7" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -27084,14 +27053,14 @@
         <v>608</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="174" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27107,14 +27076,14 @@
         <v>Required ACRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27128,14 +27097,14 @@
         <v>Basic ACRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27149,14 +27118,14 @@
         <v>Intermediate ACRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27170,14 +27139,14 @@
         <v>Intermediate ACRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27191,14 +27160,14 @@
         <v>Advanced ACRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27212,14 +27181,14 @@
         <v>Advanced ACRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27233,12 +27202,12 @@
         <v>Professional ACRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27252,11 +27221,11 @@
         <v>Innovative ACRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="172" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27270,7 +27239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -27288,7 +27257,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>96</v>
       </c>
@@ -27306,7 +27275,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>110</v>
       </c>
@@ -27324,7 +27293,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>110</v>
       </c>
@@ -27342,7 +27311,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>98</v>
       </c>
@@ -27360,7 +27329,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>98</v>
       </c>
@@ -27378,7 +27347,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
         <v>98</v>
       </c>
@@ -27396,7 +27365,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71" t="s">
         <v>134</v>
       </c>
@@ -27414,7 +27383,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>134</v>
       </c>
@@ -27432,7 +27401,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
         <v>218</v>
       </c>
@@ -27450,7 +27419,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -27468,11 +27437,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="177" t="s">
+    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="172" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="178"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27486,7 +27455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -27504,7 +27473,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
         <v>93</v>
       </c>
@@ -27522,7 +27491,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -27540,7 +27509,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>110</v>
       </c>
@@ -27558,7 +27527,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
         <v>98</v>
       </c>
@@ -27576,7 +27545,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -27594,7 +27563,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>98</v>
       </c>
@@ -27612,7 +27581,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
         <v>98</v>
       </c>
@@ -27630,7 +27599,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
         <v>134</v>
       </c>
@@ -27648,7 +27617,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71" t="s">
         <v>134</v>
       </c>
@@ -27666,7 +27635,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
         <v>218</v>
       </c>
@@ -27684,11 +27653,11 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="177" t="s">
+    <row r="34" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="172" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="178"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27702,7 +27671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>93</v>
       </c>
@@ -27720,7 +27689,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="68" t="s">
         <v>96</v>
       </c>
@@ -27738,7 +27707,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
         <v>110</v>
       </c>
@@ -27756,7 +27725,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>98</v>
       </c>
@@ -27774,7 +27743,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
         <v>134</v>
       </c>
@@ -27792,7 +27761,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="72" t="s">
         <v>218</v>
       </c>
@@ -27810,11 +27779,11 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="177" t="s">
+    <row r="41" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="172" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -27828,7 +27797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
         <v>93</v>
       </c>
@@ -27846,7 +27815,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
         <v>96</v>
       </c>
@@ -27864,7 +27833,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>98</v>
       </c>
@@ -27882,7 +27851,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
         <v>134</v>
       </c>
@@ -27900,77 +27869,77 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="50" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="51" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="52" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="53" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="54" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="55" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="56" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="57" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="59" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="60" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="61" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="62" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="63" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="65" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="67" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="71" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="74" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="80" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="86" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="87" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="90" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="94" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="99" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="103" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="107" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="108" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="111" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="116" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="50" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="51" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="52" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="53" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="54" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="55" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="56" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="57" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="59" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="60" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="61" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="62" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="63" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="65" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="67" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="71" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="74" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="80" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="86" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="87" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="90" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="94" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="103" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="107" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="108" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="111" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="116" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A34:B34"/>
@@ -28229,80 +28198,80 @@
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="36" customWidth="1"/>
     <col min="2" max="2" width="5" style="36" customWidth="1"/>
-    <col min="3" max="8" width="9.69921875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="3.69921875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="26.296875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="3.69921875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="26.296875" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="36"/>
+    <col min="3" max="8" width="9.75" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="36" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="36" customWidth="1"/>
+    <col min="12" max="12" width="26.25" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="179" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="179" t="s">
+      <c r="C1" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="179" t="s">
+      <c r="F1" s="195"/>
+      <c r="G1" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="180"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
+      <c r="H1" s="195"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="180"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="181" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="196" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="J2" s="192" t="s">
+      <c r="H2" s="197"/>
+      <c r="J2" s="182" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="181"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="183">
+      <c r="C3" s="192">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
         <v>0.23</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="183">
+      <c r="D3" s="193"/>
+      <c r="E3" s="192">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="183">
+      <c r="F3" s="193"/>
+      <c r="G3" s="192">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="193"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="187"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -28312,24 +28281,24 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="145" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="145" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="J5" s="127" t="s">
+      <c r="H5" s="147"/>
+      <c r="J5" s="139" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28337,55 +28306,55 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="186">
+      <c r="C6" s="189">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>-0.52250000000000008</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="186">
+      <c r="D6" s="190"/>
+      <c r="E6" s="189">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>-0.82750000000000012</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="186">
+      <c r="F6" s="190"/>
+      <c r="G6" s="189">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>-0.505</v>
       </c>
-      <c r="H6" s="187"/>
-      <c r="J6" s="128"/>
+      <c r="H6" s="190"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="191" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188" t="s">
+      <c r="D7" s="191"/>
+      <c r="E7" s="191" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188" t="s">
+      <c r="F7" s="191"/>
+      <c r="G7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="191"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>699</v>
       </c>
@@ -28410,13 +28379,13 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="128"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="str">
         <f>"Missing Required TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Required")&amp;")"</f>
         <v>Missing Required TCRs (out of 20)</v>
@@ -28446,13 +28415,13 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="128"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f>"Missing Basic TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Basic")&amp;")"</f>
         <v>Missing Basic TCRs (out of 33)</v>
@@ -28482,13 +28451,13 @@
         <f t="shared" si="2"/>
         <v>-0.01</v>
       </c>
-      <c r="J10" s="128"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f>"Missing Intermediate TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate TCRs (out of 18)</v>
@@ -28518,13 +28487,13 @@
         <f t="shared" si="2"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="J11" s="128"/>
+      <c r="J11" s="140"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="str">
         <f>"Completed Advanced TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Advanced")&amp;")"</f>
         <v>Completed Advanced TCRs (out of 16)</v>
@@ -28554,13 +28523,13 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="129"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f>"Completed Professional TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Professional")&amp;")"</f>
         <v>Completed Professional TCRs (out of 8)</v>
@@ -28591,7 +28560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="str">
         <f>"Completed Innovative TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Innovative")&amp;")"</f>
         <v>Completed Innovative TCRs (out of 9)</v>
@@ -28622,7 +28591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="11"/>
       <c r="C15" s="79" t="s">
@@ -28647,23 +28616,23 @@
         <v>5.000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185" t="s">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="185"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="188"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>701</v>
       </c>
@@ -28689,7 +28658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="str">
         <f>"Missing Required DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required DCRs (out of 8)</v>
@@ -28720,7 +28689,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f>"Missing Basic DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic DCRs (out of 12)</v>
@@ -28751,7 +28720,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f>"Missing Intermediate DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate DCRs (out of 10)</v>
@@ -28782,7 +28751,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>"Completed Advanced DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced DCRs (out of 19)</v>
@@ -28813,7 +28782,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f>"Completed Professional DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional DCRs (out of 15)</v>
@@ -28844,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
         <f>"Completed Innovative DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative DCRs (out of 16)</v>
@@ -28875,7 +28844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="79" t="s">
@@ -28900,23 +28869,23 @@
         <v>-0.19500000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="D25" s="188"/>
+      <c r="E25" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185" t="s">
+      <c r="F25" s="188"/>
+      <c r="G25" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="185"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="188"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>879</v>
       </c>
@@ -28942,7 +28911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="str">
         <f>"Missing Required ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required ICRs (out of 5)</v>
@@ -28973,7 +28942,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f>"Missing Basic ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic ICRs (out of 6)</v>
@@ -29004,7 +28973,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f>"Missing Intermediate ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ICRs (out of 9)</v>
@@ -29035,7 +29004,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f>"Completed Advanced ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced ICRs (out of 8)</v>
@@ -29066,7 +29035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f>"Completed Professional ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional ICRs (out of 7)</v>
@@ -29097,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="str">
         <f>"Completed Innovative ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative ICRs (out of 4)</v>
@@ -29128,7 +29097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="11"/>
       <c r="C33" s="79" t="s">
@@ -29153,23 +29122,23 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="D34" s="188"/>
+      <c r="E34" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="185"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="188"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>702</v>
       </c>
@@ -29195,7 +29164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="str">
         <f>"Missing Required NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Required")&amp;")"</f>
         <v>Missing Required NCRs (out of 5)</v>
@@ -29226,7 +29195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f>"Missing Basic NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Basic")&amp;")"</f>
         <v>Missing Basic NCRs (out of 6)</v>
@@ -29257,7 +29226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f>"Missing Intermediate NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate NCRs (out of 1)</v>
@@ -29288,7 +29257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f>"Completed Advanced NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Advanced")&amp;")"</f>
         <v>Completed Advanced NCRs (out of 8)</v>
@@ -29319,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f>"Completed Professional NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Professional")&amp;")"</f>
         <v>Completed Professional NCRs (out of 9)</v>
@@ -29350,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="str">
         <f>"Completed Innovative NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Innovative")&amp;")"</f>
         <v>Completed Innovative NCRs (out of 11)</v>
@@ -29381,7 +29350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="79" t="s">
@@ -29406,23 +29375,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185" t="s">
+      <c r="D43" s="188"/>
+      <c r="E43" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185" t="s">
+      <c r="F43" s="188"/>
+      <c r="G43" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="185"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="188"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>703</v>
       </c>
@@ -29448,7 +29417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="str">
         <f>"Missing Required VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Required")&amp;")"</f>
         <v>Missing Required VCRs (out of 2)</v>
@@ -29479,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>"Missing Basic VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Basic")&amp;")"</f>
         <v>Missing Basic VCRs (out of 5)</v>
@@ -29510,7 +29479,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>"Missing Intermediate VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate VCRs (out of 11)</v>
@@ -29541,7 +29510,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>"Completed Advanced VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Advanced")&amp;")"</f>
         <v>Completed Advanced VCRs (out of 14)</v>
@@ -29572,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>"Completed Professional VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Professional")&amp;")"</f>
         <v>Completed Professional VCRs (out of 10)</v>
@@ -29603,7 +29572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="str">
         <f>"Completed Innovative VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Innovative")&amp;")"</f>
         <v>Completed Innovative VCRs (out of 4)</v>
@@ -29634,7 +29603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="79" t="s">
@@ -29659,23 +29628,23 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185" t="s">
+      <c r="D52" s="188"/>
+      <c r="E52" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185" t="s">
+      <c r="F52" s="188"/>
+      <c r="G52" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="185"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="188"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>704</v>
       </c>
@@ -29701,7 +29670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="str">
         <f>"Missing Required ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Required")&amp;")"</f>
         <v>Missing Required ACRs (out of 5)</v>
@@ -29732,7 +29701,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>"Missing Basic ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Basic")&amp;")"</f>
         <v>Missing Basic ACRs (out of 4)</v>
@@ -29763,7 +29732,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>"Missing Intermediate ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ACRs (out of 4)</v>
@@ -29794,7 +29763,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>"Completed Advanced ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Advanced")&amp;")"</f>
         <v>Completed Advanced ACRs (out of 9)</v>
@@ -29825,7 +29794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f>"Completed Professional ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Professional")&amp;")"</f>
         <v>Completed Professional ACRs (out of 6)</v>
@@ -29856,7 +29825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="str">
         <f>"Completed Innovative ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Innovative")&amp;")"</f>
         <v>Completed Innovative ACRs (out of 4)</v>
@@ -29887,7 +29856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
       <c r="C60" s="79" t="s">
@@ -29914,6 +29883,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29930,26 +29919,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DigiPen\game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3290,9 +3290,6 @@
     <t>The game can be played entirely on a touch screen tablet running Windows x64. This has been primarily tested on a Microsoft Surface Pro 2.</t>
   </si>
   <si>
-    <t>Tested on DIT2426US (the lab machine in our teamspace)</t>
-  </si>
-  <si>
     <t>The quit game option on the pause menu must be labeled "Quit Game". It must use this exact wording. The “Quit Game” option must actually quit the game (i.e., shut down the application), not just return you to the main menu (you can have another option to do that, but a main menu is not even required). Note that not having a confirmation when quitting the game will cause you to fail the "Confirmation of Destructive Action" TCR, not this one.</t>
   </si>
   <si>
@@ -3327,6 +3324,9 @@
   </si>
   <si>
     <t>Open Debug Console ("`", backtick), and type one of the following commands, followed by enter: cheat.god = :on;</t>
+  </si>
+  <si>
+    <t>Tested on DIT2426US (the lab machine in our teamspace). The game installs on the Clean machines, but does not run because their graphics cards do not support DirectX 11</t>
   </si>
 </sst>
 </file>
@@ -4317,87 +4317,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4425,16 +4344,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4444,15 +4441,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4476,14 +4464,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4498,6 +4492,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4526,36 +4556,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14563,67 +14563,67 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.75" style="36"/>
-    <col min="3" max="3" width="26.25" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="36" customWidth="1"/>
-    <col min="5" max="5" width="3.75" style="36" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="36" customWidth="1"/>
+    <col min="1" max="2" width="10.69921875" style="36"/>
+    <col min="3" max="3" width="26.19921875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="3.69921875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="36" customWidth="1"/>
     <col min="7" max="7" width="18" style="36" customWidth="1"/>
-    <col min="8" max="9" width="7.25" style="36" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="36" customWidth="1"/>
-    <col min="11" max="11" width="31.25" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="36"/>
+    <col min="8" max="9" width="7.19921875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="31.19921875" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+    <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
+    <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
-    <row r="3" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
+    <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14637,85 +14637,85 @@
       <c r="K4" s="6"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="127" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="144"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145" t="s">
+    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="141"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14729,18 +14729,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145" t="s">
+    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -14752,7 +14752,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>9</v>
       </c>
@@ -14779,20 +14779,20 @@
         <v>-0.1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="127" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>887</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>888</v>
-      </c>
       <c r="C13" s="45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="6"/>
@@ -14809,18 +14809,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="6"/>
@@ -14836,18 +14836,18 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="141"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="6"/>
@@ -14864,15 +14864,15 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="6"/>
@@ -14884,22 +14884,22 @@
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -14908,7 +14908,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
@@ -14917,21 +14917,21 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="125"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="127" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
@@ -14940,19 +14940,19 @@
       <c r="F19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="141"/>
+      <c r="K19" s="129"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
@@ -14971,13 +14971,13 @@
       <c r="K20" s="6"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="151" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="55"/>
@@ -14987,50 +14987,50 @@
       <c r="K21" s="6"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="137">
         <f>I20+I15</f>
         <v>0.75</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="139" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="121"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15038,7 +15038,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
@@ -15052,97 +15052,97 @@
       <c r="K25" s="6"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+    <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15158,12 +15158,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15179,13 +15180,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15229,80 +15229,80 @@
       <selection activeCell="C36" sqref="C36:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="36" customWidth="1"/>
     <col min="2" max="2" width="5" style="36" customWidth="1"/>
-    <col min="3" max="8" width="9.75" style="36" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="36" customWidth="1"/>
-    <col min="10" max="10" width="26.25" style="36" customWidth="1"/>
-    <col min="11" max="11" width="3.75" style="36" customWidth="1"/>
-    <col min="12" max="12" width="26.25" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="36"/>
+    <col min="3" max="8" width="9.69921875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.69921875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="26.19921875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="26.19921875" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="189" t="s">
         <v>706</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
+      <c r="H1" s="180"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),2))))</f>
         <v>0.75</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -15315,23 +15315,23 @@
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="120"/>
       <c r="J5" s="77" t="s">
         <v>708</v>
       </c>
@@ -15340,27 +15340,27 @@
         <v>709</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="190"/>
+      <c r="H6" s="187"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
         <v>0.49750000000000005</v>
@@ -15371,26 +15371,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="188"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>699</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="str">
         <f>"Missing Required TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Required")&amp;")"</f>
         <v>Missing Required TCRs (out of 20)</v>
@@ -15459,7 +15459,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="str">
         <f>"Missing Basic TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Basic")&amp;")"</f>
         <v>Missing Basic TCRs (out of 33)</v>
@@ -15495,7 +15495,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="str">
         <f>"Missing Intermediate TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate TCRs (out of 18)</v>
@@ -15529,7 +15529,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="str">
         <f>"Completed Advanced TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Advanced")&amp;")"</f>
         <v>Completed Advanced TCRs (out of 16)</v>
@@ -15559,7 +15559,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K12" s="31"/>
@@ -15567,7 +15567,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="str">
         <f>"Completed Professional TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Professional")&amp;")"</f>
         <v>Completed Professional TCRs (out of 8)</v>
@@ -15597,13 +15597,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="str">
         <f>"Completed Innovative TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Innovative")&amp;")"</f>
         <v>Completed Innovative TCRs (out of 9)</v>
@@ -15633,13 +15633,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="11"/>
       <c r="C15" s="79" t="s">
@@ -15663,34 +15663,34 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="J16" s="140"/>
+      <c r="H16" s="185"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>701</v>
       </c>
@@ -15715,13 +15715,13 @@
       <c r="H17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="140"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="str">
         <f>"Missing Required DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required DCRs (out of 8)</v>
@@ -15751,13 +15751,13 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="str">
         <f>"Missing Basic DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic DCRs (out of 12)</v>
@@ -15787,13 +15787,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="str">
         <f>"Missing Intermediate DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate DCRs (out of 10)</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="str">
         <f>"Completed Advanced DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced DCRs (out of 19)</v>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="str">
         <f>"Completed Professional DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional DCRs (out of 15)</v>
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="str">
         <f>"Completed Innovative DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative DCRs (out of 16)</v>
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="79" t="s">
@@ -15942,23 +15942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="185"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>879</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="str">
         <f>"Missing Required ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required ICRs (out of 5)</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="str">
         <f>"Missing Basic ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic ICRs (out of 6)</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="str">
         <f>"Missing Intermediate ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ICRs (out of 9)</v>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="str">
         <f>"Completed Advanced ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced ICRs (out of 8)</v>
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="str">
         <f>"Completed Professional ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional ICRs (out of 7)</v>
@@ -16139,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="str">
         <f>"Completed Innovative ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative ICRs (out of 4)</v>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="11"/>
       <c r="C33" s="79" t="s">
@@ -16195,23 +16195,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="185"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>702</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="str">
         <f>"Missing Required NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Required")&amp;")"</f>
         <v>Missing Required NCRs (out of 5)</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="str">
         <f>"Missing Basic NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Basic")&amp;")"</f>
         <v>Missing Basic NCRs (out of 6)</v>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="str">
         <f>"Missing Intermediate NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate NCRs (out of 1)</v>
@@ -16330,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="str">
         <f>"Completed Advanced NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Advanced")&amp;")"</f>
         <v>Completed Advanced NCRs (out of 8)</v>
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="str">
         <f>"Completed Professional NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Professional")&amp;")"</f>
         <v>Completed Professional NCRs (out of 9)</v>
@@ -16392,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="str">
         <f>"Completed Innovative NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Innovative")&amp;")"</f>
         <v>Completed Innovative NCRs (out of 11)</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="79" t="s">
@@ -16448,23 +16448,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="185"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>703</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="str">
         <f>"Missing Required VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Required")&amp;")"</f>
         <v>Missing Required VCRs (out of 2)</v>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="str">
         <f>"Missing Basic VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Basic")&amp;")"</f>
         <v>Missing Basic VCRs (out of 5)</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="str">
         <f>"Missing Intermediate VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate VCRs (out of 11)</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="str">
         <f>"Completed Advanced VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Advanced")&amp;")"</f>
         <v>Completed Advanced VCRs (out of 14)</v>
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="str">
         <f>"Completed Professional VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Professional")&amp;")"</f>
         <v>Completed Professional VCRs (out of 10)</v>
@@ -16645,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f>"Completed Innovative VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Innovative")&amp;")"</f>
         <v>Completed Innovative VCRs (out of 4)</v>
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="79" t="s">
@@ -16701,23 +16701,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="185"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>704</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="56" t="str">
         <f>"Missing Required ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Required")&amp;")"</f>
         <v>Missing Required ACRs (out of 5)</v>
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="str">
         <f>"Missing Basic ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Basic")&amp;")"</f>
         <v>Missing Basic ACRs (out of 4)</v>
@@ -16805,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="str">
         <f>"Missing Intermediate ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ACRs (out of 4)</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="str">
         <f>"Completed Advanced ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Advanced")&amp;")"</f>
         <v>Completed Advanced ACRs (out of 9)</v>
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="str">
         <f>"Completed Professional ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Professional")&amp;")"</f>
         <v>Completed Professional ACRs (out of 6)</v>
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="str">
         <f>"Completed Innovative ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Innovative")&amp;")"</f>
         <v>Completed Innovative ACRs (out of 4)</v>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
       <c r="C60" s="79" t="s">
@@ -16956,27 +16956,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -16993,6 +16972,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17007,68 +17007,68 @@
       <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="61" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="61" customWidth="1"/>
     <col min="4" max="4" width="8" style="61" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="61" customWidth="1"/>
-    <col min="6" max="6" width="94.25" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="61"/>
+    <col min="5" max="5" width="7.69921875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="94.19921875" style="61" customWidth="1"/>
+    <col min="7" max="16384" width="10.69921875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="164" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="154" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -17076,7 +17076,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -17094,11 +17094,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17113,11 +17113,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17132,11 +17132,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17151,11 +17151,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17170,11 +17170,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171" t="s">
+    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17189,11 +17189,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+    <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17208,11 +17208,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17227,11 +17227,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156" t="s">
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17246,20 +17246,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -17267,92 +17267,97 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-    </row>
-    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+    </row>
+    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17369,11 +17374,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17384,21 +17384,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -17420,14 +17420,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>881</v>
       </c>
       <c r="D2" s="66">
@@ -17443,14 +17443,14 @@
         <v>Required TCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>2</v>
@@ -17464,14 +17464,14 @@
         <v>Basic TCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -17485,14 +17485,14 @@
         <v>Intermediate TCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>15</v>
@@ -17506,14 +17506,14 @@
         <v>Intermediate TCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2.5</v>
@@ -17527,14 +17527,14 @@
         <v>Advanced TCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>3.5</v>
@@ -17548,14 +17548,14 @@
         <v>Advanced TCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17569,12 +17569,12 @@
         <v>Professional TCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -17588,11 +17588,11 @@
         <v>Innovative TCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>868</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="68" t="s">
         <v>96</v>
       </c>
@@ -17642,7 +17642,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="67" t="s">
         <v>96</v>
       </c>
@@ -17660,7 +17660,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>98</v>
       </c>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>134</v>
       </c>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
         <v>218</v>
       </c>
@@ -17714,11 +17714,11 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172" t="s">
+    <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="177" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="8" t="s">
         <v>870</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="67" t="s">
         <v>93</v>
       </c>
@@ -17749,10 +17749,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
         <v>93</v>
       </c>
@@ -17770,7 +17770,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>93</v>
       </c>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="67" t="s">
         <v>93</v>
       </c>
@@ -17806,7 +17806,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>96</v>
       </c>
@@ -17842,7 +17842,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>96</v>
       </c>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="68" t="s">
         <v>110</v>
       </c>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>110</v>
       </c>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -17932,11 +17932,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="172" t="s">
+    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="177" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>871</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="67" t="s">
         <v>93</v>
       </c>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="67" t="s">
         <v>93</v>
       </c>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="67" t="s">
         <v>93</v>
       </c>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
         <v>96</v>
       </c>
@@ -18040,7 +18040,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
         <v>759</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="67" t="s">
         <v>96</v>
       </c>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="67" t="s">
         <v>96</v>
       </c>
@@ -18094,7 +18094,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
         <v>96</v>
       </c>
@@ -18112,7 +18112,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
         <v>96</v>
       </c>
@@ -18130,7 +18130,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="68" t="s">
         <v>98</v>
       </c>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
         <v>98</v>
       </c>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69" t="s">
         <v>98</v>
       </c>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
         <v>98</v>
       </c>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="68" t="s">
         <v>98</v>
       </c>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
         <v>134</v>
       </c>
@@ -18238,7 +18238,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
         <v>134</v>
       </c>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
         <v>134</v>
       </c>
@@ -18274,7 +18274,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="68" t="s">
         <v>134</v>
       </c>
@@ -18292,7 +18292,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="68" t="s">
         <v>134</v>
       </c>
@@ -18310,7 +18310,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
         <v>218</v>
       </c>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69" t="s">
         <v>218</v>
       </c>
@@ -18346,7 +18346,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69" t="s">
         <v>218</v>
       </c>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69" t="s">
         <v>218</v>
       </c>
@@ -18382,7 +18382,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="68" t="s">
         <v>218</v>
       </c>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
         <v>218</v>
       </c>
@@ -18418,11 +18418,11 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="172" t="s">
+    <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="173"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="67" t="s">
         <v>93</v>
       </c>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="67" t="s">
         <v>93</v>
       </c>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="68" t="s">
         <v>96</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>80</v>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="68" t="s">
         <v>96</v>
       </c>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>96</v>
       </c>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="F61" s="60"/>
     </row>
-    <row r="62" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="68" t="s">
         <v>96</v>
       </c>
@@ -18544,7 +18544,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>96</v>
       </c>
@@ -18562,7 +18562,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="68" t="s">
         <v>110</v>
       </c>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="68" t="s">
         <v>110</v>
       </c>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="70" t="s">
         <v>110</v>
       </c>
@@ -18616,7 +18616,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="70" t="s">
         <v>98</v>
       </c>
@@ -18633,10 +18633,10 @@
         <v>74</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="69" t="s">
         <v>98</v>
       </c>
@@ -18654,11 +18654,11 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="172" t="s">
+    <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="8" t="s">
         <v>89</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="67" t="s">
         <v>93</v>
       </c>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
         <v>96</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="68" t="s">
         <v>96</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
         <v>96</v>
       </c>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="70" t="s">
         <v>110</v>
       </c>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="69" t="s">
         <v>98</v>
       </c>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="69" t="s">
         <v>98</v>
       </c>
@@ -18800,7 +18800,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="69" t="s">
         <v>98</v>
       </c>
@@ -18818,11 +18818,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="172" t="s">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="67" t="s">
         <v>93</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="67" t="s">
         <v>93</v>
       </c>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="68" t="s">
         <v>96</v>
       </c>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="70" t="s">
         <v>110</v>
       </c>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="69" t="s">
         <v>98</v>
       </c>
@@ -18926,11 +18926,11 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="172" t="s">
+    <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="173"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="8" t="s">
         <v>89</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="68" t="s">
         <v>96</v>
       </c>
@@ -18962,7 +18962,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="68" t="s">
         <v>96</v>
       </c>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="68" t="s">
         <v>96</v>
       </c>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="68" t="s">
         <v>96</v>
       </c>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="68" t="s">
         <v>96</v>
       </c>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="68" t="s">
         <v>96</v>
       </c>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="68" t="s">
         <v>96</v>
       </c>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="68" t="s">
         <v>96</v>
       </c>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="109" t="s">
         <v>110</v>
       </c>
@@ -19106,7 +19106,7 @@
       </c>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="109" t="s">
         <v>110</v>
       </c>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="F94" s="60"/>
     </row>
-    <row r="95" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="70" t="s">
         <v>110</v>
       </c>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="F95" s="60"/>
     </row>
-    <row r="96" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="70" t="s">
         <v>110</v>
       </c>
@@ -19160,11 +19160,11 @@
       </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="172" t="s">
+    <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="173"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="8" t="s">
         <v>89</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="67" t="s">
         <v>96</v>
       </c>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="F98" s="60"/>
     </row>
-    <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="68" t="s">
         <v>110</v>
       </c>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="F99" s="60"/>
     </row>
-    <row r="100" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="70" t="s">
         <v>110</v>
       </c>
@@ -19232,7 +19232,7 @@
       </c>
       <c r="F100" s="60"/>
     </row>
-    <row r="101" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="70" t="s">
         <v>110</v>
       </c>
@@ -19250,11 +19250,11 @@
       </c>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="172" t="s">
+    <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="173"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="8" t="s">
         <v>89</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
         <v>93</v>
       </c>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="F103" s="60"/>
     </row>
-    <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
         <v>93</v>
       </c>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="F104" s="60"/>
     </row>
-    <row r="105" spans="1:6" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="68" t="s">
         <v>96</v>
       </c>
@@ -19321,10 +19321,10 @@
         <v>74</v>
       </c>
       <c r="F105" s="116" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="68" t="s">
         <v>110</v>
       </c>
@@ -19342,7 +19342,7 @@
       </c>
       <c r="F106" s="60"/>
     </row>
-    <row r="107" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="69" t="s">
         <v>98</v>
       </c>
@@ -19360,7 +19360,7 @@
       </c>
       <c r="F107" s="60"/>
     </row>
-    <row r="108" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="71" t="s">
         <v>134</v>
       </c>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="F108" s="60"/>
     </row>
-    <row r="109" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="71" t="s">
         <v>218</v>
       </c>
@@ -19396,11 +19396,11 @@
       </c>
       <c r="F109" s="60"/>
     </row>
-    <row r="110" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="172" t="s">
+    <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="173"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="67" t="s">
         <v>93</v>
       </c>
@@ -19432,7 +19432,7 @@
       </c>
       <c r="F111" s="60"/>
     </row>
-    <row r="112" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="68" t="s">
         <v>96</v>
       </c>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="F112" s="60"/>
     </row>
-    <row r="113" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="70" t="s">
         <v>110</v>
       </c>
@@ -19468,11 +19468,11 @@
       </c>
       <c r="F113" s="60"/>
     </row>
-    <row r="114" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="172" t="s">
+    <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="173"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="8" t="s">
         <v>89</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="67" t="s">
         <v>93</v>
       </c>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="F115" s="60"/>
     </row>
-    <row r="116" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="68" t="s">
         <v>96</v>
       </c>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="F116" s="60"/>
     </row>
-    <row r="117" spans="1:6" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="70" t="s">
         <v>110</v>
       </c>
@@ -19540,11 +19540,11 @@
       </c>
       <c r="F117" s="60"/>
     </row>
-    <row r="118" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="172" t="s">
+    <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="173"/>
+      <c r="B118" s="178"/>
       <c r="C118" s="8" t="s">
         <v>823</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="67" t="s">
         <v>93</v>
       </c>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="F119" s="60"/>
     </row>
-    <row r="120" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="68" t="s">
         <v>96</v>
       </c>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="68" t="s">
         <v>96</v>
       </c>
@@ -19612,7 +19612,7 @@
       </c>
       <c r="F121" s="60"/>
     </row>
-    <row r="122" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="70" t="s">
         <v>110</v>
       </c>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="F122" s="60"/>
     </row>
-    <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="69" t="s">
         <v>98</v>
       </c>
@@ -19648,7 +19648,7 @@
       </c>
       <c r="F123" s="60"/>
     </row>
-    <row r="124" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="69" t="s">
         <v>98</v>
       </c>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="F124" s="60"/>
     </row>
-    <row r="125" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="71" t="s">
         <v>134</v>
       </c>
@@ -19684,7 +19684,7 @@
       </c>
       <c r="F125" s="60"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="72" t="s">
         <v>218</v>
       </c>
@@ -19704,11 +19704,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -19718,6 +19713,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A95:A107 A56:A92 A14:A31">
     <cfRule type="beginsWith" dxfId="740" priority="292" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -20662,17 +20662,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -20694,14 +20694,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="66">
@@ -20717,14 +20717,14 @@
         <v>Required DCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20738,14 +20738,14 @@
         <v>Basic DCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -20759,14 +20759,14 @@
         <v>Intermediate DCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20780,14 +20780,14 @@
         <v>Intermediate DCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -20801,14 +20801,14 @@
         <v>Advanced DCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -20822,14 +20822,14 @@
         <v>Advanced DCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20843,12 +20843,12 @@
         <v>Professional DCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -20862,11 +20862,11 @@
         <v>Innovative DCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>810</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>863</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
         <v>96</v>
       </c>
@@ -20898,7 +20898,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="69" t="s">
         <v>98</v>
       </c>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
         <v>134</v>
       </c>
@@ -20934,7 +20934,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="72" t="s">
         <v>218</v>
       </c>
@@ -20952,11 +20952,11 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="172" t="s">
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="173"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="67" t="s">
         <v>93</v>
       </c>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="68" t="s">
         <v>96</v>
       </c>
@@ -21006,7 +21006,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
         <v>110</v>
       </c>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="69" t="s">
         <v>98</v>
       </c>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
         <v>134</v>
       </c>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="72" t="s">
         <v>218</v>
       </c>
@@ -21096,11 +21096,11 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="172" t="s">
+    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="173"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>93</v>
       </c>
@@ -21132,7 +21132,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -21150,7 +21150,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="70" t="s">
         <v>110</v>
       </c>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>110</v>
       </c>
@@ -21186,7 +21186,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -21204,7 +21204,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
         <v>218</v>
       </c>
@@ -21240,11 +21240,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172" t="s">
+    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="67" t="s">
         <v>93</v>
       </c>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
         <v>93</v>
       </c>
@@ -21312,7 +21312,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
         <v>96</v>
       </c>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="68" t="s">
         <v>96</v>
       </c>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="68" t="s">
         <v>96</v>
       </c>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
         <v>96</v>
       </c>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="70" t="s">
         <v>110</v>
       </c>
@@ -21402,7 +21402,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="70" t="s">
         <v>110</v>
       </c>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
         <v>98</v>
       </c>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69" t="s">
         <v>98</v>
       </c>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="69" t="s">
         <v>98</v>
       </c>
@@ -21474,7 +21474,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="69" t="s">
         <v>98</v>
       </c>
@@ -21492,7 +21492,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="69" t="s">
         <v>98</v>
       </c>
@@ -21510,7 +21510,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="71" t="s">
         <v>134</v>
       </c>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="71" t="s">
         <v>134</v>
       </c>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
         <v>134</v>
       </c>
@@ -21564,7 +21564,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="71" t="s">
         <v>134</v>
       </c>
@@ -21582,7 +21582,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="72" t="s">
         <v>218</v>
       </c>
@@ -21618,7 +21618,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="72" t="s">
         <v>218</v>
       </c>
@@ -21636,7 +21636,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="72" t="s">
         <v>218</v>
       </c>
@@ -21654,7 +21654,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
         <v>218</v>
       </c>
@@ -21672,7 +21672,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="72" t="s">
         <v>218</v>
       </c>
@@ -21690,7 +21690,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="72" t="s">
         <v>218</v>
       </c>
@@ -21708,11 +21708,11 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="172" t="s">
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="173"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="73" t="s">
         <v>832</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="67" t="s">
         <v>93</v>
       </c>
@@ -21744,7 +21744,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="67" t="s">
         <v>93</v>
       </c>
@@ -21762,7 +21762,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="68" t="s">
         <v>96</v>
       </c>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>96</v>
       </c>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="F61" s="60"/>
     </row>
-    <row r="62" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="70" t="s">
         <v>110</v>
       </c>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="70" t="s">
         <v>110</v>
       </c>
@@ -21834,7 +21834,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="70" t="s">
         <v>110</v>
       </c>
@@ -21852,7 +21852,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="69" t="s">
         <v>98</v>
       </c>
@@ -21870,7 +21870,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="69" t="s">
         <v>98</v>
       </c>
@@ -21888,7 +21888,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="69" t="s">
         <v>98</v>
       </c>
@@ -21906,7 +21906,7 @@
       </c>
       <c r="F67" s="60"/>
     </row>
-    <row r="68" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="69" t="s">
         <v>98</v>
       </c>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="69" t="s">
         <v>98</v>
       </c>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="F69" s="60"/>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="69" t="s">
         <v>98</v>
       </c>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="69" t="s">
         <v>98</v>
       </c>
@@ -21978,7 +21978,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="71" t="s">
         <v>134</v>
       </c>
@@ -21996,7 +21996,7 @@
       </c>
       <c r="F72" s="60"/>
     </row>
-    <row r="73" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="71" t="s">
         <v>134</v>
       </c>
@@ -22014,7 +22014,7 @@
       </c>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="71" t="s">
         <v>134</v>
       </c>
@@ -22032,7 +22032,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="71" t="s">
         <v>134</v>
       </c>
@@ -22050,7 +22050,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="71" t="s">
         <v>134</v>
       </c>
@@ -22068,7 +22068,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="72" t="s">
         <v>218</v>
       </c>
@@ -22086,11 +22086,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="172" t="s">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="173"/>
+      <c r="B78" s="178"/>
       <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="67" t="s">
         <v>93</v>
       </c>
@@ -22122,7 +22122,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="68" t="s">
         <v>96</v>
       </c>
@@ -22140,7 +22140,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="68" t="s">
         <v>96</v>
       </c>
@@ -22158,7 +22158,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="70" t="s">
         <v>110</v>
       </c>
@@ -22176,7 +22176,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="70" t="s">
         <v>110</v>
       </c>
@@ -22194,7 +22194,7 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="69" t="s">
         <v>98</v>
       </c>
@@ -22212,7 +22212,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="69" t="s">
         <v>98</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="69" t="s">
         <v>98</v>
       </c>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="69" t="s">
         <v>98</v>
       </c>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="71" t="s">
         <v>134</v>
       </c>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="71" t="s">
         <v>134</v>
       </c>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="72" t="s">
         <v>218</v>
       </c>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="72" t="s">
         <v>218</v>
       </c>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="72" t="s">
         <v>218</v>
       </c>
@@ -22356,7 +22356,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="72" t="s">
         <v>218</v>
       </c>
@@ -22374,7 +22374,7 @@
       </c>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="72" t="s">
         <v>218</v>
       </c>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="F94" s="60"/>
     </row>
-    <row r="95" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="72" t="s">
         <v>218</v>
       </c>
@@ -22410,28 +22410,28 @@
       </c>
       <c r="F95" s="60"/>
     </row>
-    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="117" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="100" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="104" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="107" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="108" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="109" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="111" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="116" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="117" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A31:B31"/>
@@ -23056,17 +23056,17 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -23088,14 +23088,14 @@
         <v>827</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>830</v>
       </c>
       <c r="D2" s="66">
@@ -23111,14 +23111,14 @@
         <v>Required ICRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23132,14 +23132,14 @@
         <v>Basic ICRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23153,14 +23153,14 @@
         <v>Intermediate ICRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -23174,14 +23174,14 @@
         <v>Intermediate ICRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23195,14 +23195,14 @@
         <v>Advanced ICRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23216,14 +23216,14 @@
         <v>Advanced ICRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23237,12 +23237,12 @@
         <v>Professional ICRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23256,11 +23256,11 @@
         <v>Innovative ICRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -23292,7 +23292,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="67" t="s">
         <v>93</v>
       </c>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
         <v>96</v>
       </c>
@@ -23328,7 +23328,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>96</v>
       </c>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>96</v>
       </c>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
         <v>110</v>
       </c>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="69" t="s">
         <v>98</v>
       </c>
@@ -23418,7 +23418,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="69" t="s">
         <v>98</v>
       </c>
@@ -23436,7 +23436,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
         <v>134</v>
       </c>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -23472,11 +23472,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172" t="s">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="68" t="s">
         <v>96</v>
       </c>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>110</v>
       </c>
@@ -23544,7 +23544,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
         <v>98</v>
       </c>
@@ -23562,7 +23562,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
         <v>98</v>
       </c>
@@ -23580,7 +23580,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>134</v>
       </c>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
         <v>134</v>
       </c>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
         <v>218</v>
       </c>
@@ -23634,11 +23634,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172" t="s">
+    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="177" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
@@ -23652,7 +23652,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>93</v>
       </c>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
         <v>96</v>
       </c>
@@ -23688,7 +23688,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="70" t="s">
         <v>110</v>
       </c>
@@ -23706,7 +23706,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="70" t="s">
         <v>110</v>
       </c>
@@ -23724,7 +23724,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="70" t="s">
         <v>110</v>
       </c>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" s="26" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="26" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
         <v>110</v>
       </c>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69" t="s">
         <v>98</v>
       </c>
@@ -23778,7 +23778,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69" t="s">
         <v>98</v>
       </c>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="71" t="s">
         <v>134</v>
       </c>
@@ -23814,7 +23814,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
         <v>134</v>
       </c>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="72" t="s">
         <v>218</v>
       </c>
@@ -23850,11 +23850,11 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+    <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="177" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="173"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
@@ -23868,7 +23868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="67" t="s">
         <v>93</v>
       </c>
@@ -23886,7 +23886,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="68" t="s">
         <v>96</v>
       </c>
@@ -23904,7 +23904,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="70" t="s">
         <v>110</v>
       </c>
@@ -23922,7 +23922,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="70" t="s">
         <v>110</v>
       </c>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="69" t="s">
         <v>98</v>
       </c>
@@ -23958,7 +23958,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="69" t="s">
         <v>98</v>
       </c>
@@ -23976,7 +23976,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -23994,7 +23994,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="71" t="s">
         <v>134</v>
       </c>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="72" t="s">
         <v>218</v>
       </c>
@@ -24030,7 +24030,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A43:B43"/>
@@ -24104,17 +24104,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -24136,14 +24136,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>384</v>
       </c>
       <c r="D2" s="66">
@@ -24159,14 +24159,14 @@
         <v>Required NCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24180,14 +24180,14 @@
         <v>Basic NCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24201,14 +24201,14 @@
         <v>Intermediate NCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24222,14 +24222,14 @@
         <v>Intermediate NCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24243,14 +24243,14 @@
         <v>Advanced NCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24264,14 +24264,14 @@
         <v>Advanced NCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24285,12 +24285,12 @@
         <v>Professional NCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24304,11 +24304,11 @@
         <v>Innovative NCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
         <v>96</v>
       </c>
@@ -24340,7 +24340,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="70" t="s">
         <v>110</v>
       </c>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="69" t="s">
         <v>98</v>
       </c>
@@ -24376,7 +24376,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>134</v>
       </c>
@@ -24394,7 +24394,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="72" t="s">
         <v>218</v>
       </c>
@@ -24412,11 +24412,11 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="172" t="s">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="177" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="173"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67" t="s">
         <v>93</v>
       </c>
@@ -24448,7 +24448,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
         <v>96</v>
       </c>
@@ -24466,7 +24466,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="69" t="s">
         <v>98</v>
       </c>
@@ -24484,7 +24484,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
         <v>134</v>
       </c>
@@ -24502,7 +24502,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -24520,11 +24520,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172" t="s">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="177" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>826</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -24556,7 +24556,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="68" t="s">
         <v>96</v>
       </c>
@@ -24574,7 +24574,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
         <v>98</v>
       </c>
@@ -24592,7 +24592,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
         <v>134</v>
       </c>
@@ -24610,7 +24610,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="72" t="s">
         <v>218</v>
       </c>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="72" t="s">
         <v>218</v>
       </c>
@@ -24646,11 +24646,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="172" t="s">
+    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="177" t="s">
         <v>420</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>824</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="67" t="s">
         <v>93</v>
       </c>
@@ -24682,7 +24682,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="68" t="s">
         <v>96</v>
       </c>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
         <v>98</v>
       </c>
@@ -24718,7 +24718,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
         <v>134</v>
       </c>
@@ -24736,7 +24736,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="72" t="s">
         <v>218</v>
       </c>
@@ -24754,7 +24754,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
         <v>218</v>
       </c>
@@ -24772,7 +24772,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="72" t="s">
         <v>218</v>
       </c>
@@ -24790,11 +24790,11 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="172" t="s">
+    <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="177" t="s">
         <v>435</v>
       </c>
-      <c r="B37" s="173"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="8" t="s">
         <v>825</v>
       </c>
@@ -24808,7 +24808,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="67" t="s">
         <v>93</v>
       </c>
@@ -24826,7 +24826,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
         <v>96</v>
       </c>
@@ -24844,7 +24844,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
         <v>98</v>
       </c>
@@ -24862,7 +24862,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
         <v>134</v>
       </c>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71" t="s">
         <v>134</v>
       </c>
@@ -24898,7 +24898,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="72" t="s">
         <v>218</v>
       </c>
@@ -24916,11 +24916,11 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="172" t="s">
+    <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="8" t="s">
         <v>89</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="67" t="s">
         <v>93</v>
       </c>
@@ -24952,7 +24952,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="68" t="s">
         <v>96</v>
       </c>
@@ -24970,7 +24970,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
         <v>98</v>
       </c>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="69" t="s">
         <v>98</v>
       </c>
@@ -25006,7 +25006,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="69" t="s">
         <v>98</v>
       </c>
@@ -25024,7 +25024,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
         <v>134</v>
       </c>
@@ -25042,7 +25042,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="71" t="s">
         <v>134</v>
       </c>
@@ -25060,7 +25060,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="71" t="s">
         <v>134</v>
       </c>
@@ -25078,7 +25078,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="72" t="s">
         <v>218</v>
       </c>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
         <v>218</v>
       </c>
@@ -25114,7 +25114,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="72" t="s">
         <v>218</v>
       </c>
@@ -25132,75 +25132,75 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="118" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="119" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="120" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="121" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="122" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="123" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="124" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="65" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="67" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="71" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="74" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="80" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="81" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="86" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="87" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="88" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="90" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="94" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="95" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="102" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="104" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="107" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="109" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="111" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="116" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="118" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="119" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="120" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="121" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="122" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="123" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="124" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A29:B29"/>
@@ -25565,17 +25565,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -25597,14 +25597,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>473</v>
       </c>
       <c r="D2" s="66">
@@ -25620,14 +25620,14 @@
         <v>Required VCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -25641,14 +25641,14 @@
         <v>Basic VCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -25662,14 +25662,14 @@
         <v>Intermediate VCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -25683,14 +25683,14 @@
         <v>Intermediate VCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25704,14 +25704,14 @@
         <v>Advanced VCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25725,14 +25725,14 @@
         <v>Advanced VCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25746,12 +25746,12 @@
         <v>Professional VCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -25765,11 +25765,11 @@
         <v>Innovative VCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -25801,7 +25801,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="67" t="s">
         <v>93</v>
       </c>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
         <v>96</v>
       </c>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>96</v>
       </c>
@@ -25854,10 +25854,10 @@
         <v>74</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
         <v>110</v>
       </c>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
         <v>110</v>
       </c>
@@ -25893,7 +25893,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>110</v>
       </c>
@@ -25911,7 +25911,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
         <v>110</v>
       </c>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="115" t="s">
         <v>110</v>
       </c>
@@ -25947,7 +25947,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="69" t="s">
         <v>98</v>
       </c>
@@ -25965,7 +25965,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="69" t="s">
         <v>98</v>
       </c>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="69" t="s">
         <v>98</v>
       </c>
@@ -26001,7 +26001,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="69" t="s">
         <v>98</v>
       </c>
@@ -26019,7 +26019,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="71" t="s">
         <v>134</v>
       </c>
@@ -26037,7 +26037,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
         <v>134</v>
       </c>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
         <v>134</v>
       </c>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="72" t="s">
         <v>218</v>
       </c>
@@ -26091,7 +26091,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="72" t="s">
         <v>218</v>
       </c>
@@ -26109,11 +26109,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="172" t="s">
+    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="177" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="8" t="s">
         <v>821</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="68" t="s">
         <v>96</v>
       </c>
@@ -26145,7 +26145,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="70" t="s">
         <v>110</v>
       </c>
@@ -26163,7 +26163,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="70" t="s">
         <v>110</v>
       </c>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="69" t="s">
         <v>98</v>
       </c>
@@ -26199,7 +26199,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
         <v>98</v>
       </c>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="69" t="s">
         <v>98</v>
       </c>
@@ -26235,7 +26235,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="71" t="s">
         <v>134</v>
       </c>
@@ -26253,7 +26253,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
         <v>134</v>
       </c>
@@ -26271,7 +26271,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
         <v>134</v>
       </c>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="72" t="s">
         <v>218</v>
       </c>
@@ -26307,7 +26307,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="72" t="s">
         <v>218</v>
       </c>
@@ -26325,11 +26325,11 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="68" t="s">
         <v>96</v>
       </c>
@@ -26361,7 +26361,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
         <v>110</v>
       </c>
@@ -26379,7 +26379,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="70" t="s">
         <v>110</v>
       </c>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="69" t="s">
         <v>98</v>
       </c>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
         <v>98</v>
       </c>
@@ -26433,7 +26433,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
         <v>98</v>
       </c>
@@ -26451,7 +26451,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
         <v>134</v>
       </c>
@@ -26469,7 +26469,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="71" t="s">
         <v>134</v>
       </c>
@@ -26487,11 +26487,11 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="172" t="s">
+    <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="177" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="73" t="s">
         <v>822</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="68" t="s">
         <v>96</v>
       </c>
@@ -26523,7 +26523,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" s="26" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="26" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="70" t="s">
         <v>110</v>
       </c>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="70" t="s">
         <v>110</v>
       </c>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="69" t="s">
         <v>98</v>
       </c>
@@ -26577,7 +26577,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>98</v>
       </c>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="69" t="s">
         <v>98</v>
       </c>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="69" t="s">
         <v>98</v>
       </c>
@@ -26631,7 +26631,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="71" t="s">
         <v>134</v>
       </c>
@@ -26649,7 +26649,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="71" t="s">
         <v>134</v>
       </c>
@@ -26667,50 +26667,50 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="65" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="67" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="71" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="74" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="80" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="81" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="86" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="88" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="90" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="94" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="95" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A50:B50"/>
@@ -27021,17 +27021,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -27053,14 +27053,14 @@
         <v>608</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="66">
@@ -27076,14 +27076,14 @@
         <v>Required ACRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27097,14 +27097,14 @@
         <v>Basic ACRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27118,14 +27118,14 @@
         <v>Intermediate ACRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27139,14 +27139,14 @@
         <v>Intermediate ACRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27160,14 +27160,14 @@
         <v>Advanced ACRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27181,14 +27181,14 @@
         <v>Advanced ACRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27202,12 +27202,12 @@
         <v>Professional ACRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27221,11 +27221,11 @@
         <v>Innovative ACRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="177" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="73" t="s">
         <v>815</v>
       </c>
@@ -27239,7 +27239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>93</v>
       </c>
@@ -27257,7 +27257,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="68" t="s">
         <v>96</v>
       </c>
@@ -27275,7 +27275,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
         <v>110</v>
       </c>
@@ -27293,7 +27293,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="70" t="s">
         <v>110</v>
       </c>
@@ -27311,7 +27311,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="69" t="s">
         <v>98</v>
       </c>
@@ -27329,7 +27329,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
         <v>98</v>
       </c>
@@ -27347,7 +27347,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="69" t="s">
         <v>98</v>
       </c>
@@ -27365,7 +27365,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71" t="s">
         <v>134</v>
       </c>
@@ -27383,7 +27383,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71" t="s">
         <v>134</v>
       </c>
@@ -27401,7 +27401,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72" t="s">
         <v>218</v>
       </c>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
         <v>218</v>
       </c>
@@ -27437,11 +27437,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172" t="s">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="177" t="s">
         <v>634</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="8" t="s">
         <v>89</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
@@ -27473,7 +27473,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>93</v>
       </c>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>96</v>
       </c>
@@ -27509,7 +27509,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="70" t="s">
         <v>110</v>
       </c>
@@ -27527,7 +27527,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
         <v>98</v>
       </c>
@@ -27545,7 +27545,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
         <v>98</v>
       </c>
@@ -27563,7 +27563,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="69" t="s">
         <v>98</v>
       </c>
@@ -27581,7 +27581,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
         <v>98</v>
       </c>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>134</v>
       </c>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
         <v>134</v>
       </c>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="72" t="s">
         <v>218</v>
       </c>
@@ -27653,11 +27653,11 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="172" t="s">
+    <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="177" t="s">
         <v>811</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="8" t="s">
         <v>816</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="67" t="s">
         <v>93</v>
       </c>
@@ -27689,7 +27689,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="68" t="s">
         <v>96</v>
       </c>
@@ -27707,7 +27707,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
         <v>110</v>
       </c>
@@ -27725,7 +27725,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69" t="s">
         <v>98</v>
       </c>
@@ -27743,7 +27743,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
         <v>134</v>
       </c>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="72" t="s">
         <v>218</v>
       </c>
@@ -27779,11 +27779,11 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+    <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="177" t="s">
         <v>680</v>
       </c>
-      <c r="B41" s="173"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="8" t="s">
         <v>89</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="67" t="s">
         <v>93</v>
       </c>
@@ -27815,7 +27815,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
         <v>96</v>
       </c>
@@ -27833,7 +27833,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="69" t="s">
         <v>98</v>
       </c>
@@ -27851,7 +27851,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="71" t="s">
         <v>134</v>
       </c>
@@ -27869,77 +27869,77 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="50" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="51" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="52" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="53" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="54" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="55" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="56" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="57" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="59" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="60" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="61" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="62" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="63" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="65" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="66" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="67" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="68" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="69" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="70" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="71" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="72" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="73" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="74" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="75" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="76" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="77" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="78" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="79" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="80" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="82" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="83" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="84" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="85" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="86" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="87" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="89" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="90" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="91" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="92" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="93" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="94" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="96" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="99" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="103" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="107" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="108" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="111" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="116" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A34:B34"/>
@@ -28198,80 +28198,80 @@
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="36" customWidth="1"/>
     <col min="2" max="2" width="5" style="36" customWidth="1"/>
-    <col min="3" max="8" width="9.75" style="36" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="36" customWidth="1"/>
-    <col min="10" max="10" width="26.25" style="36" customWidth="1"/>
-    <col min="11" max="11" width="3.75" style="36" customWidth="1"/>
-    <col min="12" max="12" width="26.25" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="36"/>
+    <col min="3" max="8" width="9.69921875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.69921875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="26.19921875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="26.19921875" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="189" t="s">
         <v>705</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="179" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="194" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="195"/>
-      <c r="G1" s="194" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="179" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="195"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
+      <c r="H1" s="180"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="190"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="196" t="s">
+      <c r="D2" s="182"/>
+      <c r="E2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="181" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="182"/>
+      <c r="J2" s="192" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="191"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="192">
+      <c r="C3" s="183">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),2))))</f>
         <v>0.23</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="192">
+      <c r="D3" s="184"/>
+      <c r="E3" s="183">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),2))))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192">
+      <c r="F3" s="184"/>
+      <c r="G3" s="183">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),2))))</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="187"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="184"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -28281,24 +28281,24 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
         <v>692</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="145" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="J5" s="139" t="s">
+      <c r="H5" s="120"/>
+      <c r="J5" s="127" t="s">
         <v>721</v>
       </c>
       <c r="K5" s="31"/>
@@ -28306,55 +28306,55 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>-0.52250000000000008</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="189">
+      <c r="D6" s="187"/>
+      <c r="E6" s="186">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>-0.82750000000000012</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="189">
+      <c r="F6" s="187"/>
+      <c r="G6" s="186">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>-0.505</v>
       </c>
-      <c r="H6" s="190"/>
-      <c r="J6" s="140"/>
+      <c r="H6" s="187"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="188" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188" t="s">
         <v>697</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188" t="s">
         <v>698</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="188"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>699</v>
       </c>
@@ -28379,13 +28379,13 @@
       <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="str">
         <f>"Missing Required TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Required")&amp;")"</f>
         <v>Missing Required TCRs (out of 20)</v>
@@ -28415,13 +28415,13 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="140"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
         <f>"Missing Basic TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Basic")&amp;")"</f>
         <v>Missing Basic TCRs (out of 33)</v>
@@ -28451,13 +28451,13 @@
         <f t="shared" si="2"/>
         <v>-0.01</v>
       </c>
-      <c r="J10" s="140"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="str">
         <f>"Missing Intermediate TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate TCRs (out of 18)</v>
@@ -28487,13 +28487,13 @@
         <f t="shared" si="2"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="J11" s="140"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="str">
         <f>"Completed Advanced TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Advanced")&amp;")"</f>
         <v>Completed Advanced TCRs (out of 16)</v>
@@ -28523,13 +28523,13 @@
         <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="str">
         <f>"Completed Professional TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Professional")&amp;")"</f>
         <v>Completed Professional TCRs (out of 8)</v>
@@ -28560,7 +28560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="str">
         <f>"Completed Innovative TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Innovative")&amp;")"</f>
         <v>Completed Innovative TCRs (out of 9)</v>
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="11"/>
       <c r="C15" s="79" t="s">
@@ -28616,23 +28616,23 @@
         <v>5.000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188" t="s">
+      <c r="D16" s="185"/>
+      <c r="E16" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H16" s="188"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="185"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>701</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="str">
         <f>"Missing Required DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required DCRs (out of 8)</v>
@@ -28689,7 +28689,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="str">
         <f>"Missing Basic DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic DCRs (out of 12)</v>
@@ -28720,7 +28720,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="str">
         <f>"Missing Intermediate DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate DCRs (out of 10)</v>
@@ -28751,7 +28751,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="str">
         <f>"Completed Advanced DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced DCRs (out of 19)</v>
@@ -28782,7 +28782,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="str">
         <f>"Completed Professional DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional DCRs (out of 15)</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="str">
         <f>"Completed Innovative DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative DCRs (out of 16)</v>
@@ -28844,7 +28844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="79" t="s">
@@ -28869,23 +28869,23 @@
         <v>-0.19500000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188" t="s">
+      <c r="F25" s="185"/>
+      <c r="G25" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H25" s="188"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="185"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>879</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="str">
         <f>"Missing Required ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required ICRs (out of 5)</v>
@@ -28942,7 +28942,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="str">
         <f>"Missing Basic ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic ICRs (out of 6)</v>
@@ -28973,7 +28973,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="str">
         <f>"Missing Intermediate ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ICRs (out of 9)</v>
@@ -29004,7 +29004,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="str">
         <f>"Completed Advanced ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced ICRs (out of 8)</v>
@@ -29035,7 +29035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="str">
         <f>"Completed Professional ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional ICRs (out of 7)</v>
@@ -29066,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="str">
         <f>"Completed Innovative ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative ICRs (out of 4)</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="11"/>
       <c r="C33" s="79" t="s">
@@ -29122,23 +29122,23 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H34" s="188"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="185"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>702</v>
       </c>
@@ -29164,7 +29164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="str">
         <f>"Missing Required NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Required")&amp;")"</f>
         <v>Missing Required NCRs (out of 5)</v>
@@ -29195,7 +29195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="str">
         <f>"Missing Basic NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Basic")&amp;")"</f>
         <v>Missing Basic NCRs (out of 6)</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="str">
         <f>"Missing Intermediate NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate NCRs (out of 1)</v>
@@ -29257,7 +29257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="str">
         <f>"Completed Advanced NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Advanced")&amp;")"</f>
         <v>Completed Advanced NCRs (out of 8)</v>
@@ -29288,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="str">
         <f>"Completed Professional NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Professional")&amp;")"</f>
         <v>Completed Professional NCRs (out of 9)</v>
@@ -29319,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="str">
         <f>"Completed Innovative NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Innovative")&amp;")"</f>
         <v>Completed Innovative NCRs (out of 11)</v>
@@ -29350,7 +29350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="79" t="s">
@@ -29375,23 +29375,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="188" t="s">
+      <c r="C43" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188" t="s">
+      <c r="F43" s="185"/>
+      <c r="G43" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H43" s="188"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="185"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>703</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="str">
         <f>"Missing Required VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Required")&amp;")"</f>
         <v>Missing Required VCRs (out of 2)</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="str">
         <f>"Missing Basic VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Basic")&amp;")"</f>
         <v>Missing Basic VCRs (out of 5)</v>
@@ -29479,7 +29479,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="str">
         <f>"Missing Intermediate VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate VCRs (out of 11)</v>
@@ -29510,7 +29510,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="str">
         <f>"Completed Advanced VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Advanced")&amp;")"</f>
         <v>Completed Advanced VCRs (out of 14)</v>
@@ -29541,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="str">
         <f>"Completed Professional VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Professional")&amp;")"</f>
         <v>Completed Professional VCRs (out of 10)</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f>"Completed Innovative VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Innovative")&amp;")"</f>
         <v>Completed Innovative VCRs (out of 4)</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="79" t="s">
@@ -29628,23 +29628,23 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="185" t="s">
         <v>696</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="185"/>
+      <c r="E52" s="185" t="s">
         <v>697</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188" t="s">
+      <c r="F52" s="185"/>
+      <c r="G52" s="185" t="s">
         <v>698</v>
       </c>
-      <c r="H52" s="188"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="185"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>704</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="56" t="str">
         <f>"Missing Required ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Required")&amp;")"</f>
         <v>Missing Required ACRs (out of 5)</v>
@@ -29701,7 +29701,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="str">
         <f>"Missing Basic ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Basic")&amp;")"</f>
         <v>Missing Basic ACRs (out of 4)</v>
@@ -29732,7 +29732,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="str">
         <f>"Missing Intermediate ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ACRs (out of 4)</v>
@@ -29763,7 +29763,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="str">
         <f>"Completed Advanced ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Advanced")&amp;")"</f>
         <v>Completed Advanced ACRs (out of 9)</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="str">
         <f>"Completed Professional ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Professional")&amp;")"</f>
         <v>Completed Professional ACRs (out of 6)</v>
@@ -29825,7 +29825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="str">
         <f>"Completed Innovative ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Innovative")&amp;")"</f>
         <v>Completed Innovative ACRs (out of 4)</v>
@@ -29856,7 +29856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
       <c r="C60" s="79" t="s">
@@ -29883,26 +29883,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -29919,6 +29899,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
+++ b/Rubric/GAM_Project_Rubric_EpisodePrototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.saikali\Source\Repos\game200-project\Rubric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="5670" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="5676" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="920">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3419,6 +3419,24 @@
   </si>
   <si>
     <t>No redistributables to make any noise. We statically link the CRT library.</t>
+  </si>
+  <si>
+    <t>Roguebot</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Accomplishment</t>
+  </si>
+  <si>
+    <t>Single Player</t>
+  </si>
+  <si>
+    <t>Keyboard and Mouse</t>
   </si>
 </sst>
 </file>
@@ -4549,87 +4567,6 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4657,16 +4594,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4676,15 +4691,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4708,20 +4714,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4736,6 +4742,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4764,36 +4812,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18979,73 +18997,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.75" style="36"/>
-    <col min="3" max="3" width="26.25" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="36" customWidth="1"/>
-    <col min="5" max="5" width="3.75" style="36" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="36" customWidth="1"/>
+    <col min="1" max="2" width="10.69921875" style="36"/>
+    <col min="3" max="3" width="26.19921875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="3.69921875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="36" customWidth="1"/>
     <col min="7" max="7" width="18" style="36" customWidth="1"/>
-    <col min="8" max="9" width="7.25" style="36" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="36" customWidth="1"/>
-    <col min="11" max="11" width="31.25" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="36"/>
+    <col min="8" max="9" width="7.19921875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="31.19921875" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+    <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
+        <v>914</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="125" t="s">
         <v>888</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
-    <row r="3" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+    <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -19059,85 +19079,95 @@
       <c r="K4" s="6"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="149" t="s">
+      <c r="F5" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="151"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="134" t="s">
+        <v>919</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
+      <c r="F6" s="134" t="s">
+        <v>916</v>
+      </c>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="131" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
+      <c r="F7" s="134" t="s">
+        <v>915</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="144"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="149" t="s">
+    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
+      <c r="F8" s="134" t="s">
+        <v>917</v>
+      </c>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="144"/>
+      <c r="K8" s="132"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="134" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="145"/>
+      <c r="K9" s="133"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -19151,18 +19181,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149" t="s">
+    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="149" t="s">
+      <c r="F11" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="151"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -19174,7 +19204,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>9</v>
       </c>
@@ -19201,12 +19231,12 @@
         <v>-0.1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="143" t="s">
+      <c r="K12" s="131" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>887</v>
       </c>
@@ -19231,10 +19261,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="144"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>887</v>
       </c>
@@ -19258,10 +19288,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="145"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>887</v>
       </c>
@@ -19286,7 +19316,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>887</v>
       </c>
@@ -19306,7 +19336,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>887</v>
       </c>
@@ -19318,10 +19348,10 @@
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="151"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -19330,7 +19360,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
@@ -19339,21 +19369,21 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="137" t="s">
         <v>889</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="143" t="s">
+      <c r="K18" s="131" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
@@ -19362,19 +19392,19 @@
       <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="139" t="s">
         <v>886</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="140"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="145"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
@@ -19393,13 +19423,13 @@
       <c r="K20" s="6"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="155" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="55"/>
@@ -19409,50 +19439,50 @@
       <c r="K21" s="6"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="141"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="122">
+      <c r="I22" s="141">
         <f>I20+I15</f>
         <v>0.75</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="143" t="s">
         <v>24</v>
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="141"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="123"/>
+      <c r="I23" s="142"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="125"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="142"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -19460,7 +19490,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
@@ -19474,97 +19504,97 @@
       <c r="K25" s="6"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="126" t="s">
+      <c r="F26" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="127" t="s">
+      <c r="F27" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136" t="s">
+    <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="154"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="140"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -19580,12 +19610,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -19601,13 +19632,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -19656,80 +19686,80 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="36" customWidth="1"/>
     <col min="2" max="2" width="5" style="36" customWidth="1"/>
-    <col min="3" max="8" width="9.75" style="36" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="36" customWidth="1"/>
-    <col min="10" max="10" width="26.25" style="36" customWidth="1"/>
-    <col min="11" max="11" width="3.75" style="36" customWidth="1"/>
-    <col min="12" max="12" width="26.25" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="36"/>
+    <col min="3" max="8" width="9.69921875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="3.69921875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="26.19921875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.69921875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="26.19921875" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="195" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="200" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="200" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="H1" s="201"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
+      <c r="H1" s="186"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="196"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="187" t="s">
         <v>681</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="202" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="187" t="s">
         <v>681</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="202" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="187" t="s">
         <v>681</v>
       </c>
-      <c r="H2" s="203"/>
-      <c r="J2" s="188" t="s">
+      <c r="H2" s="188"/>
+      <c r="J2" s="198" t="s">
         <v>700</v>
       </c>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="197"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="198">
+      <c r="C3" s="189">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
         <v>0.68</v>
       </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="198">
+      <c r="D3" s="190"/>
+      <c r="E3" s="189">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
         <v>0.68</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="198">
+      <c r="F3" s="190"/>
+      <c r="G3" s="189">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
         <v>0.69</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="190"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -19742,23 +19772,23 @@
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
     </row>
-    <row r="5" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
         <v>685</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="122" t="s">
         <v>686</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="149" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="124"/>
       <c r="J5" s="77" t="s">
         <v>701</v>
       </c>
@@ -19767,27 +19797,27 @@
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78">
         <f>'Game Data'!$I$22+Submission!$E$16</f>
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="195">
+      <c r="C6" s="192">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>-7.375000000000001E-2</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="195">
+      <c r="D6" s="193"/>
+      <c r="E6" s="192">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>-7.375000000000001E-2</v>
       </c>
-      <c r="F6" s="196"/>
-      <c r="G6" s="195">
+      <c r="F6" s="193"/>
+      <c r="G6" s="192">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>-5.8750000000000004E-2</v>
       </c>
-      <c r="H6" s="196"/>
+      <c r="H6" s="193"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
         <v>0.23625000000000002</v>
@@ -19798,26 +19828,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197" t="s">
+      <c r="F7" s="194"/>
+      <c r="G7" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H7" s="197"/>
+      <c r="H7" s="194"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>692</v>
       </c>
@@ -19850,7 +19880,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="str">
         <f>"Missing Required TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Required")&amp;")"</f>
         <v>Missing Required TCRs (out of 19)</v>
@@ -19886,7 +19916,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="str">
         <f>"Missing Basic TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Basic")&amp;")"</f>
         <v>Missing Basic TCRs (out of 28)</v>
@@ -19922,7 +19952,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="str">
         <f>"Missing Intermediate TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate TCRs (out of 19)</v>
@@ -19956,7 +19986,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="str">
         <f>"Completed Advanced TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Advanced")&amp;")"</f>
         <v>Completed Advanced TCRs (out of 20)</v>
@@ -19986,7 +20016,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="143" t="s">
+      <c r="J12" s="131" t="s">
         <v>714</v>
       </c>
       <c r="K12" s="31"/>
@@ -19994,7 +20024,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="str">
         <f>"Completed Professional TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Professional")&amp;")"</f>
         <v>Completed Professional TCRs (out of 9)</v>
@@ -20024,13 +20054,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="144"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="str">
         <f>"Completed Innovative TCRs (out of "&amp;COUNTIF(TCRs!$A$10:'TCRs'!$A$250,"Innovative")&amp;")"</f>
         <v>Completed Innovative TCRs (out of 9)</v>
@@ -20060,13 +20090,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="144"/>
+      <c r="J14" s="132"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="11"/>
       <c r="C15" s="79" t="s">
@@ -20090,34 +20120,34 @@
         <f>SUM(H9:H14)</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="144"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="191" t="s">
         <v>689</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="J16" s="144"/>
+      <c r="H16" s="191"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>694</v>
       </c>
@@ -20142,13 +20172,13 @@
       <c r="H17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="144"/>
+      <c r="J17" s="132"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="str">
         <f>"Missing Required DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required DCRs (out of 8)</v>
@@ -20178,13 +20208,13 @@
         <f>B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="144"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="str">
         <f>"Missing Basic DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic DCRs (out of 7)</v>
@@ -20214,13 +20244,13 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>-0.01</v>
       </c>
-      <c r="J19" s="145"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="str">
         <f>"Missing Intermediate DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate DCRs (out of 6)</v>
@@ -20251,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="str">
         <f>"Completed Advanced DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced DCRs (out of 15)</v>
@@ -20282,7 +20312,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="str">
         <f>"Completed Professional DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional DCRs (out of 16)</v>
@@ -20313,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="str">
         <f>"Completed Innovative DCRs (out of "&amp;COUNTIF(DCRs!$A$10:'DCRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative DCRs (out of 28)</v>
@@ -20344,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="79" t="s">
@@ -20369,23 +20399,23 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="191" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="194"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="191"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>869</v>
       </c>
@@ -20411,7 +20441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="str">
         <f>"Missing Required ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Required")&amp;")"</f>
         <v>Missing Required ICRs (out of 3)</v>
@@ -20442,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="str">
         <f>"Missing Basic ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Basic")&amp;")"</f>
         <v>Missing Basic ICRs (out of 6)</v>
@@ -20473,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="str">
         <f>"Missing Intermediate ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ICRs (out of 5)</v>
@@ -20504,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="str">
         <f>"Completed Advanced ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Advanced")&amp;")"</f>
         <v>Completed Advanced ICRs (out of 8)</v>
@@ -20535,7 +20565,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="str">
         <f>"Completed Professional ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Professional")&amp;")"</f>
         <v>Completed Professional ICRs (out of 10)</v>
@@ -20566,7 +20596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="str">
         <f>"Completed Innovative ICRs (out of "&amp;COUNTIF(ICRs!$A$10:'ICRs'!$A$241,"Innovative")&amp;")"</f>
         <v>Completed Innovative ICRs (out of 7)</v>
@@ -20597,7 +20627,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="11"/>
       <c r="C33" s="79" t="s">
@@ -20622,23 +20652,23 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="194" t="s">
+      <c r="C34" s="191" t="s">
         <v>689</v>
       </c>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194" t="s">
+      <c r="F34" s="191"/>
+      <c r="G34" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="H34" s="194"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="191"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>695</v>
       </c>
@@ -20664,7 +20694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="str">
         <f>"Missing Required NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Required")&amp;")"</f>
         <v>Missing Required NCRs (out of 5)</v>
@@ -20695,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="str">
         <f>"Missing Basic NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Basic")&amp;")"</f>
         <v>Missing Basic NCRs (out of 6)</v>
@@ -20726,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="str">
         <f>"Missing Intermediate NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate NCRs (out of 1)</v>
@@ -20757,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="str">
         <f>"Completed Advanced NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Advanced")&amp;")"</f>
         <v>Completed Advanced NCRs (out of 8)</v>
@@ -20788,7 +20818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="str">
         <f>"Completed Professional NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Professional")&amp;")"</f>
         <v>Completed Professional NCRs (out of 9)</v>
@@ -20819,7 +20849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="str">
         <f>"Completed Innovative NCRs (out of "&amp;COUNTIF(NCRs!$A$10:'NCRs'!$A$248,"Innovative")&amp;")"</f>
         <v>Completed Innovative NCRs (out of 11)</v>
@@ -20850,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="11"/>
       <c r="C42" s="79" t="s">
@@ -20875,23 +20905,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="191" t="s">
         <v>689</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194" t="s">
+      <c r="D43" s="191"/>
+      <c r="E43" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194" t="s">
+      <c r="F43" s="191"/>
+      <c r="G43" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="H43" s="194"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="191"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>696</v>
       </c>
@@ -20917,7 +20947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="str">
         <f>"Missing Required VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Required")&amp;")"</f>
         <v>Missing Required VCRs (out of 2)</v>
@@ -20948,7 +20978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="str">
         <f>"Missing Basic VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Basic")&amp;")"</f>
         <v>Missing Basic VCRs (out of 5)</v>
@@ -20979,7 +21009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="str">
         <f>"Missing Intermediate VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate VCRs (out of 7)</v>
@@ -21010,7 +21040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="str">
         <f>"Completed Advanced VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Advanced")&amp;")"</f>
         <v>Completed Advanced VCRs (out of 14)</v>
@@ -21041,7 +21071,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="str">
         <f>"Completed Professional VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Professional")&amp;")"</f>
         <v>Completed Professional VCRs (out of 11)</v>
@@ -21072,7 +21102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f>"Completed Innovative VCRs (out of "&amp;COUNTIF(VCRs!$A$10:'VCRs'!$A$227,"Innovative")&amp;")"</f>
         <v>Completed Innovative VCRs (out of 7)</v>
@@ -21103,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="79" t="s">
@@ -21128,23 +21158,23 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="191" t="s">
         <v>689</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="194" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194" t="s">
+      <c r="F52" s="191"/>
+      <c r="G52" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="H52" s="194"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="191"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>697</v>
       </c>
@@ -21170,7 +21200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="56" t="str">
         <f>"Missing Required ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Required")&amp;")"</f>
         <v>Missing Required ACRs (out of 5)</v>
@@ -21201,7 +21231,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="str">
         <f>"Missing Basic ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Basic")&amp;")"</f>
         <v>Missing Basic ACRs (out of 4)</v>
@@ -21232,7 +21262,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="str">
         <f>"Missing Intermediate ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Intermediate")&amp;")"</f>
         <v>Missing Intermediate ACRs (out of 4)</v>
@@ -21263,7 +21293,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="str">
         <f>"Completed Advanced ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Advanced")&amp;")"</f>
         <v>Completed Advanced ACRs (out of 9)</v>
@@ -21294,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="str">
         <f>"Completed Professional ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Professional")&amp;")"</f>
         <v>Completed Professional ACRs (out of 6)</v>
@@ -21325,7 +21355,7 @@
         <v>1.125E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="str">
         <f>"Completed Innovative ACRs (out of "&amp;COUNTIF(ACRs!$A$10:'ACRs'!$A$240,"Innovative")&amp;")"</f>
         <v>Completed Innovative ACRs (out of 4)</v>
@@ -21356,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="11"/>
       <c r="C60" s="79" t="s">
@@ -21383,27 +21413,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -21420,6 +21429,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21435,72 +21465,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F23"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="61" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="61" customWidth="1"/>
     <col min="4" max="4" width="8" style="61" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="61" customWidth="1"/>
-    <col min="6" max="6" width="94.25" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="61"/>
+    <col min="5" max="5" width="7.69921875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="94.19921875" style="61" customWidth="1"/>
+    <col min="7" max="16384" width="10.69921875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="168" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="158" t="s">
         <v>718</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="167"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="171" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="160"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="173"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -21508,7 +21538,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -21526,11 +21556,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="169"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -21545,11 +21575,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="159"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -21564,11 +21594,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -21583,11 +21613,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="175" t="s">
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="175"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -21602,11 +21632,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175" t="s">
+    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -21621,11 +21651,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158" t="s">
+    <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="159"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -21640,11 +21670,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158" t="s">
+    <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="159"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -21659,11 +21689,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="160" t="s">
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="161"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -21678,20 +21708,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -21699,92 +21729,97 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="164"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="165" t="s">
+      <c r="B19" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
-    </row>
-    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="160"/>
+    </row>
+    <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:6" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -21801,11 +21836,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21821,21 +21851,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -21857,14 +21887,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>877</v>
       </c>
       <c r="D2" s="66">
@@ -21880,14 +21910,14 @@
         <v>Required TCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -21901,14 +21931,14 @@
         <v>Basic TCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -21922,14 +21952,14 @@
         <v>Intermediate TCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>17</v>
@@ -21943,14 +21973,14 @@
         <v>Intermediate TCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>4</v>
@@ -21964,14 +21994,14 @@
         <v>Advanced TCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>7</v>
@@ -21985,14 +22015,14 @@
         <v>Advanced TCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -22006,12 +22036,12 @@
         <v>Professional TCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -22025,11 +22055,11 @@
         <v>Innovative TCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="181" t="s">
         <v>717</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>859</v>
       </c>
@@ -22043,7 +22073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>91</v>
       </c>
@@ -22061,7 +22091,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="68" t="s">
         <v>94</v>
       </c>
@@ -22079,7 +22109,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="67" t="s">
         <v>94</v>
       </c>
@@ -22097,7 +22127,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>96</v>
       </c>
@@ -22115,7 +22145,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>133</v>
       </c>
@@ -22133,7 +22163,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
         <v>217</v>
       </c>
@@ -22151,11 +22181,11 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+    <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="181" t="s">
         <v>731</v>
       </c>
-      <c r="B17" s="177"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="8" t="s">
         <v>861</v>
       </c>
@@ -22169,7 +22199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="67" t="s">
         <v>91</v>
       </c>
@@ -22189,7 +22219,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
         <v>91</v>
       </c>
@@ -22207,7 +22237,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>91</v>
       </c>
@@ -22225,7 +22255,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="67" t="s">
         <v>91</v>
       </c>
@@ -22245,7 +22275,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="67" t="s">
         <v>91</v>
       </c>
@@ -22263,7 +22293,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>94</v>
       </c>
@@ -22283,7 +22313,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>94</v>
       </c>
@@ -22303,7 +22333,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>94</v>
       </c>
@@ -22321,7 +22351,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="68" t="s">
         <v>108</v>
       </c>
@@ -22341,7 +22371,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>108</v>
       </c>
@@ -22361,7 +22391,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
         <v>96</v>
       </c>
@@ -22379,11 +22409,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="178" t="s">
+    <row r="29" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="183" t="s">
         <v>732</v>
       </c>
-      <c r="B29" s="179"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="8" t="s">
         <v>885</v>
       </c>
@@ -22397,7 +22427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="67" t="s">
         <v>91</v>
       </c>
@@ -22417,7 +22447,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="67" t="s">
         <v>91</v>
       </c>
@@ -22435,7 +22465,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>91</v>
       </c>
@@ -22453,7 +22483,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="67" t="s">
         <v>91</v>
       </c>
@@ -22471,7 +22501,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
         <v>94</v>
       </c>
@@ -22489,7 +22519,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
         <v>751</v>
       </c>
@@ -22507,7 +22537,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="67" t="s">
         <v>94</v>
       </c>
@@ -22525,7 +22555,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="67" t="s">
         <v>94</v>
       </c>
@@ -22543,7 +22573,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
         <v>94</v>
       </c>
@@ -22561,7 +22591,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
         <v>94</v>
       </c>
@@ -22579,7 +22609,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="68" t="s">
         <v>96</v>
       </c>
@@ -22597,7 +22627,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
         <v>96</v>
       </c>
@@ -22615,7 +22645,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69" t="s">
         <v>96</v>
       </c>
@@ -22633,7 +22663,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
         <v>96</v>
       </c>
@@ -22651,7 +22681,7 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="68" t="s">
         <v>96</v>
       </c>
@@ -22669,7 +22699,7 @@
       </c>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
         <v>133</v>
       </c>
@@ -22687,7 +22717,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
         <v>133</v>
       </c>
@@ -22705,7 +22735,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
         <v>133</v>
       </c>
@@ -22723,7 +22753,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="68" t="s">
         <v>133</v>
       </c>
@@ -22741,7 +22771,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="68" t="s">
         <v>133</v>
       </c>
@@ -22759,7 +22789,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
         <v>217</v>
       </c>
@@ -22777,7 +22807,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69" t="s">
         <v>217</v>
       </c>
@@ -22795,7 +22825,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69" t="s">
         <v>217</v>
       </c>
@@ -22813,7 +22843,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69" t="s">
         <v>217</v>
       </c>
@@ -22831,7 +22861,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="68" t="s">
         <v>217</v>
       </c>
@@ -22849,7 +22879,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
         <v>217</v>
       </c>
@@ -22867,11 +22897,11 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="176" t="s">
+    <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="177"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="8" t="s">
         <v>87</v>
       </c>
@@ -22885,7 +22915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="67" t="s">
         <v>91</v>
       </c>
@@ -22903,7 +22933,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="67" t="s">
         <v>91</v>
       </c>
@@ -22921,7 +22951,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="68" t="s">
         <v>94</v>
       </c>
@@ -22939,7 +22969,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="68" t="s">
         <v>94</v>
       </c>
@@ -22957,7 +22987,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>94</v>
       </c>
@@ -22977,7 +23007,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="68" t="s">
         <v>94</v>
       </c>
@@ -22995,7 +23025,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>94</v>
       </c>
@@ -23015,7 +23045,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="68" t="s">
         <v>108</v>
       </c>
@@ -23035,7 +23065,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="68" t="s">
         <v>108</v>
       </c>
@@ -23055,7 +23085,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="70" t="s">
         <v>108</v>
       </c>
@@ -23073,7 +23103,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="70" t="s">
         <v>96</v>
       </c>
@@ -23091,7 +23121,7 @@
       </c>
       <c r="F67" s="60"/>
     </row>
-    <row r="68" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="69" t="s">
         <v>96</v>
       </c>
@@ -23109,11 +23139,11 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="176" t="s">
+    <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="181" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="177"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="8" t="s">
         <v>87</v>
       </c>
@@ -23127,7 +23157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="67" t="s">
         <v>91</v>
       </c>
@@ -23145,7 +23175,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
         <v>94</v>
       </c>
@@ -23163,7 +23193,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="68" t="s">
         <v>94</v>
       </c>
@@ -23183,7 +23213,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
         <v>94</v>
       </c>
@@ -23201,7 +23231,7 @@
       </c>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="70" t="s">
         <v>108</v>
       </c>
@@ -23219,7 +23249,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="69" t="s">
         <v>96</v>
       </c>
@@ -23237,7 +23267,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="69" t="s">
         <v>96</v>
       </c>
@@ -23257,7 +23287,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="69" t="s">
         <v>96</v>
       </c>
@@ -23275,11 +23305,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176" t="s">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="177"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>87</v>
       </c>
@@ -23293,7 +23323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="67" t="s">
         <v>91</v>
       </c>
@@ -23311,7 +23341,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="68" t="s">
         <v>94</v>
       </c>
@@ -23331,7 +23361,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="109" t="s">
         <v>108</v>
       </c>
@@ -23351,7 +23381,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="69" t="s">
         <v>96</v>
       </c>
@@ -23369,7 +23399,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="69" t="s">
         <v>133</v>
       </c>
@@ -23387,11 +23417,11 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="176" t="s">
+    <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="177"/>
+      <c r="B84" s="182"/>
       <c r="C84" s="8" t="s">
         <v>87</v>
       </c>
@@ -23405,7 +23435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="68" t="s">
         <v>94</v>
       </c>
@@ -23423,7 +23453,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="68" t="s">
         <v>94</v>
       </c>
@@ -23441,7 +23471,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="68" t="s">
         <v>94</v>
       </c>
@@ -23459,7 +23489,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="109" t="s">
         <v>108</v>
       </c>
@@ -23479,7 +23509,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="109" t="s">
         <v>108</v>
       </c>
@@ -23499,7 +23529,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="109" t="s">
         <v>108</v>
       </c>
@@ -23519,7 +23549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="109" t="s">
         <v>108</v>
       </c>
@@ -23539,7 +23569,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="109" t="s">
         <v>108</v>
       </c>
@@ -23559,7 +23589,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="69" t="s">
         <v>96</v>
       </c>
@@ -23579,7 +23609,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="69" t="s">
         <v>96</v>
       </c>
@@ -23599,7 +23629,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="69" t="s">
         <v>96</v>
       </c>
@@ -23619,7 +23649,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="69" t="s">
         <v>96</v>
       </c>
@@ -23637,11 +23667,11 @@
       </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="176" t="s">
+    <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="181" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="177"/>
+      <c r="B97" s="182"/>
       <c r="C97" s="8" t="s">
         <v>87</v>
       </c>
@@ -23655,7 +23685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="67" t="s">
         <v>94</v>
       </c>
@@ -23675,7 +23705,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="68" t="s">
         <v>108</v>
       </c>
@@ -23695,7 +23725,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="70" t="s">
         <v>108</v>
       </c>
@@ -23713,7 +23743,7 @@
       </c>
       <c r="F100" s="60"/>
     </row>
-    <row r="101" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="70" t="s">
         <v>108</v>
       </c>
@@ -23731,11 +23761,11 @@
       </c>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="176" t="s">
+    <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="177"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="8" t="s">
         <v>87</v>
       </c>
@@ -23749,7 +23779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
         <v>91</v>
       </c>
@@ -23767,7 +23797,7 @@
       </c>
       <c r="F103" s="60"/>
     </row>
-    <row r="104" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
         <v>91</v>
       </c>
@@ -23785,7 +23815,7 @@
       </c>
       <c r="F104" s="60"/>
     </row>
-    <row r="105" spans="1:6" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="68" t="s">
         <v>94</v>
       </c>
@@ -23803,7 +23833,7 @@
       </c>
       <c r="F105" s="60"/>
     </row>
-    <row r="106" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="68" t="s">
         <v>108</v>
       </c>
@@ -23823,7 +23853,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="69" t="s">
         <v>96</v>
       </c>
@@ -23841,7 +23871,7 @@
       </c>
       <c r="F107" s="60"/>
     </row>
-    <row r="108" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="71" t="s">
         <v>133</v>
       </c>
@@ -23859,7 +23889,7 @@
       </c>
       <c r="F108" s="60"/>
     </row>
-    <row r="109" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="71" t="s">
         <v>217</v>
       </c>
@@ -23879,11 +23909,11 @@
         <v>876</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="176" t="s">
+    <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="181" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="177"/>
+      <c r="B110" s="182"/>
       <c r="C110" s="8" t="s">
         <v>87</v>
       </c>
@@ -23897,7 +23927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="67" t="s">
         <v>91</v>
       </c>
@@ -23915,7 +23945,7 @@
       </c>
       <c r="F111" s="60"/>
     </row>
-    <row r="112" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="68" t="s">
         <v>94</v>
       </c>
@@ -23933,7 +23963,7 @@
       </c>
       <c r="F112" s="60"/>
     </row>
-    <row r="113" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="70" t="s">
         <v>108</v>
       </c>
@@ -23951,11 +23981,11 @@
       </c>
       <c r="F113" s="60"/>
     </row>
-    <row r="114" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="176" t="s">
+    <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="177"/>
+      <c r="B114" s="182"/>
       <c r="C114" s="8" t="s">
         <v>87</v>
       </c>
@@ -23969,7 +23999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="67" t="s">
         <v>91</v>
       </c>
@@ -23987,7 +24017,7 @@
       </c>
       <c r="F115" s="60"/>
     </row>
-    <row r="116" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="68" t="s">
         <v>94</v>
       </c>
@@ -24005,7 +24035,7 @@
       </c>
       <c r="F116" s="60"/>
     </row>
-    <row r="117" spans="1:6" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="70" t="s">
         <v>108</v>
       </c>
@@ -24023,11 +24053,11 @@
       </c>
       <c r="F117" s="60"/>
     </row>
-    <row r="118" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="176" t="s">
+    <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="177"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="8" t="s">
         <v>815</v>
       </c>
@@ -24041,7 +24071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="67" t="s">
         <v>91</v>
       </c>
@@ -24059,7 +24089,7 @@
       </c>
       <c r="F119" s="60"/>
     </row>
-    <row r="120" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="68" t="s">
         <v>94</v>
       </c>
@@ -24077,7 +24107,7 @@
       </c>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="68" t="s">
         <v>94</v>
       </c>
@@ -24095,7 +24125,7 @@
       </c>
       <c r="F121" s="60"/>
     </row>
-    <row r="122" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="70" t="s">
         <v>108</v>
       </c>
@@ -24113,7 +24143,7 @@
       </c>
       <c r="F122" s="60"/>
     </row>
-    <row r="123" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="69" t="s">
         <v>96</v>
       </c>
@@ -24131,7 +24161,7 @@
       </c>
       <c r="F123" s="60"/>
     </row>
-    <row r="124" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="69" t="s">
         <v>96</v>
       </c>
@@ -24149,7 +24179,7 @@
       </c>
       <c r="F124" s="60"/>
     </row>
-    <row r="125" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="71" t="s">
         <v>133</v>
       </c>
@@ -24167,7 +24197,7 @@
       </c>
       <c r="F125" s="60"/>
     </row>
-    <row r="126" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="72" t="s">
         <v>217</v>
       </c>
@@ -24187,11 +24217,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -24201,6 +24226,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="1042" priority="386" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -25245,21 +25275,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -25281,14 +25311,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>853</v>
       </c>
       <c r="D2" s="66">
@@ -25304,14 +25334,14 @@
         <v>Required DCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -25325,14 +25355,14 @@
         <v>Basic DCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -25346,14 +25376,14 @@
         <v>Intermediate DCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -25367,14 +25397,14 @@
         <v>Intermediate DCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -25388,14 +25418,14 @@
         <v>Advanced DCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>7</v>
@@ -25409,14 +25439,14 @@
         <v>Advanced DCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -25430,12 +25460,12 @@
         <v>Professional DCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -25449,11 +25479,11 @@
         <v>Innovative DCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="181" t="s">
         <v>802</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>854</v>
       </c>
@@ -25467,7 +25497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116" t="s">
         <v>94</v>
       </c>
@@ -25485,7 +25515,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="118" t="s">
         <v>96</v>
       </c>
@@ -25503,7 +25533,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="119" t="s">
         <v>133</v>
       </c>
@@ -25521,7 +25551,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="120" t="s">
         <v>217</v>
       </c>
@@ -25539,11 +25569,11 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+    <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="181" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="8" t="s">
         <v>87</v>
       </c>
@@ -25557,7 +25587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="115" t="s">
         <v>91</v>
       </c>
@@ -25575,7 +25605,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="116" t="s">
         <v>94</v>
       </c>
@@ -25595,7 +25625,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="117" t="s">
         <v>108</v>
       </c>
@@ -25615,7 +25645,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="118" t="s">
         <v>96</v>
       </c>
@@ -25633,7 +25663,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
         <v>133</v>
       </c>
@@ -25653,7 +25683,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="120" t="s">
         <v>217</v>
       </c>
@@ -25673,7 +25703,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="120" t="s">
         <v>217</v>
       </c>
@@ -25691,11 +25721,11 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="176" t="s">
+    <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="8" t="s">
         <v>87</v>
       </c>
@@ -25709,7 +25739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="115" t="s">
         <v>91</v>
       </c>
@@ -25727,7 +25757,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="116" t="s">
         <v>94</v>
       </c>
@@ -25745,7 +25775,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="117" t="s">
         <v>108</v>
       </c>
@@ -25763,7 +25793,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="s">
         <v>96</v>
       </c>
@@ -25781,7 +25811,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="119" t="s">
         <v>133</v>
       </c>
@@ -25801,7 +25831,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="120" t="s">
         <v>217</v>
       </c>
@@ -25821,7 +25851,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="120" t="s">
         <v>217</v>
       </c>
@@ -25839,11 +25869,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="176" t="s">
+    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="181" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="177"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
@@ -25857,7 +25887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="115" t="s">
         <v>91</v>
       </c>
@@ -25875,7 +25905,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="115" t="s">
         <v>91</v>
       </c>
@@ -25893,7 +25923,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="115" t="s">
         <v>91</v>
       </c>
@@ -25911,7 +25941,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="116" t="s">
         <v>94</v>
       </c>
@@ -25929,7 +25959,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="116" t="s">
         <v>94</v>
       </c>
@@ -25947,7 +25977,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="117" t="s">
         <v>108</v>
       </c>
@@ -25967,7 +25997,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>108</v>
       </c>
@@ -25987,7 +26017,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>96</v>
       </c>
@@ -26005,7 +26035,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="118" t="s">
         <v>96</v>
       </c>
@@ -26023,7 +26053,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="118" t="s">
         <v>96</v>
       </c>
@@ -26043,7 +26073,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="118" t="s">
         <v>96</v>
       </c>
@@ -26061,7 +26091,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="119" t="s">
         <v>133</v>
       </c>
@@ -26081,7 +26111,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="119" t="s">
         <v>133</v>
       </c>
@@ -26101,7 +26131,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="119" t="s">
         <v>133</v>
       </c>
@@ -26121,7 +26151,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="119" t="s">
         <v>133</v>
       </c>
@@ -26139,7 +26169,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="119" t="s">
         <v>133</v>
       </c>
@@ -26157,7 +26187,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="120" t="s">
         <v>217</v>
       </c>
@@ -26177,7 +26207,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="120" t="s">
         <v>217</v>
       </c>
@@ -26197,7 +26227,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="120" t="s">
         <v>217</v>
       </c>
@@ -26217,7 +26247,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="120" t="s">
         <v>217</v>
       </c>
@@ -26235,7 +26265,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="120" t="s">
         <v>217</v>
       </c>
@@ -26253,7 +26283,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="120" t="s">
         <v>217</v>
       </c>
@@ -26271,7 +26301,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="120" t="s">
         <v>217</v>
       </c>
@@ -26289,7 +26319,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>217</v>
       </c>
@@ -26307,7 +26337,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="120" t="s">
         <v>217</v>
       </c>
@@ -26325,11 +26355,11 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="176" t="s">
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="177"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="73" t="s">
         <v>824</v>
       </c>
@@ -26343,7 +26373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="115" t="s">
         <v>91</v>
       </c>
@@ -26361,7 +26391,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="115" t="s">
         <v>91</v>
       </c>
@@ -26379,7 +26409,7 @@
       </c>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="116" t="s">
         <v>94</v>
       </c>
@@ -26397,7 +26427,7 @@
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="117" t="s">
         <v>108</v>
       </c>
@@ -26417,7 +26447,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="118" t="s">
         <v>96</v>
       </c>
@@ -26435,7 +26465,7 @@
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="118" t="s">
         <v>96</v>
       </c>
@@ -26453,7 +26483,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="118" t="s">
         <v>96</v>
       </c>
@@ -26471,7 +26501,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="118" t="s">
         <v>96</v>
       </c>
@@ -26489,7 +26519,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="118" t="s">
         <v>96</v>
       </c>
@@ -26507,7 +26537,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="119" t="s">
         <v>133</v>
       </c>
@@ -26527,7 +26557,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="119" t="s">
         <v>133</v>
       </c>
@@ -26547,7 +26577,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="119" t="s">
         <v>133</v>
       </c>
@@ -26567,7 +26597,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="119" t="s">
         <v>133</v>
       </c>
@@ -26587,7 +26617,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="119" t="s">
         <v>133</v>
       </c>
@@ -26607,7 +26637,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="120" t="s">
         <v>217</v>
       </c>
@@ -26627,7 +26657,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="120" t="s">
         <v>217</v>
       </c>
@@ -26647,7 +26677,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="120" t="s">
         <v>217</v>
       </c>
@@ -26667,7 +26697,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="120" t="s">
         <v>217</v>
       </c>
@@ -26687,7 +26717,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="120" t="s">
         <v>217</v>
       </c>
@@ -26707,7 +26737,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="120" t="s">
         <v>217</v>
       </c>
@@ -26725,11 +26755,11 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176" t="s">
+    <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="181" t="s">
         <v>298</v>
       </c>
-      <c r="B78" s="177"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>87</v>
       </c>
@@ -26743,7 +26773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="115" t="s">
         <v>91</v>
       </c>
@@ -26761,7 +26791,7 @@
       </c>
       <c r="F79" s="60"/>
     </row>
-    <row r="80" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="116" t="s">
         <v>94</v>
       </c>
@@ -26779,7 +26809,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="117" t="s">
         <v>108</v>
       </c>
@@ -26797,7 +26827,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="118" t="s">
         <v>96</v>
       </c>
@@ -26815,7 +26845,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="118" t="s">
         <v>96</v>
       </c>
@@ -26835,7 +26865,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="118" t="s">
         <v>96</v>
       </c>
@@ -26853,7 +26883,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="119" t="s">
         <v>133</v>
       </c>
@@ -26873,7 +26903,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="119" t="s">
         <v>133</v>
       </c>
@@ -26893,7 +26923,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="119" t="s">
         <v>133</v>
       </c>
@@ -26913,7 +26943,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="120" t="s">
         <v>217</v>
       </c>
@@ -26933,7 +26963,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="120" t="s">
         <v>217</v>
       </c>
@@ -26953,7 +26983,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="120" t="s">
         <v>217</v>
       </c>
@@ -26971,7 +27001,7 @@
       </c>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="120" t="s">
         <v>217</v>
       </c>
@@ -26989,7 +27019,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="120" t="s">
         <v>217</v>
       </c>
@@ -27007,7 +27037,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="120" t="s">
         <v>217</v>
       </c>
@@ -27025,7 +27055,7 @@
       </c>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="120" t="s">
         <v>217</v>
       </c>
@@ -27043,7 +27073,7 @@
       </c>
       <c r="F94" s="60"/>
     </row>
-    <row r="95" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="120" t="s">
         <v>217</v>
       </c>
@@ -27061,28 +27091,28 @@
       </c>
       <c r="F95" s="60"/>
     </row>
-    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="117" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="97" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="98" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="99" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="100" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="102" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="103" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="104" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="106" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="107" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="108" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="109" s="26" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="111" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="112" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="113" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="114" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="115" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="116" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="117" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A31:B31"/>
@@ -28046,21 +28076,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -28082,14 +28112,14 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>822</v>
       </c>
       <c r="D2" s="66">
@@ -28105,14 +28135,14 @@
         <v>Required ICRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -28126,14 +28156,14 @@
         <v>Basic ICRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -28147,14 +28177,14 @@
         <v>Intermediate ICRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -28168,14 +28198,14 @@
         <v>Intermediate ICRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -28189,14 +28219,14 @@
         <v>Advanced ICRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -28210,14 +28240,14 @@
         <v>Advanced ICRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -28231,12 +28261,12 @@
         <v>Professional ICRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -28250,11 +28280,11 @@
         <v>Innovative ICRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="181" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -28268,7 +28298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>91</v>
       </c>
@@ -28286,7 +28316,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="67" t="s">
         <v>94</v>
       </c>
@@ -28306,7 +28336,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
         <v>94</v>
       </c>
@@ -28324,7 +28354,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>94</v>
       </c>
@@ -28342,7 +28372,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>108</v>
       </c>
@@ -28362,7 +28392,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
         <v>96</v>
       </c>
@@ -28380,7 +28410,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
         <v>96</v>
       </c>
@@ -28398,7 +28428,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71" t="s">
         <v>133</v>
       </c>
@@ -28418,7 +28448,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71" t="s">
         <v>133</v>
       </c>
@@ -28438,7 +28468,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72" t="s">
         <v>217</v>
       </c>
@@ -28458,7 +28488,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="72" t="s">
         <v>217</v>
       </c>
@@ -28476,11 +28506,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="181" t="s">
         <v>527</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>87</v>
       </c>
@@ -28494,7 +28524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="67" t="s">
         <v>91</v>
       </c>
@@ -28512,7 +28542,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="68" t="s">
         <v>94</v>
       </c>
@@ -28530,7 +28560,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>108</v>
       </c>
@@ -28548,7 +28578,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
         <v>96</v>
       </c>
@@ -28566,7 +28596,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
         <v>96</v>
       </c>
@@ -28584,7 +28614,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>133</v>
       </c>
@@ -28602,7 +28632,7 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
         <v>133</v>
       </c>
@@ -28620,7 +28650,7 @@
       </c>
       <c r="F29" s="60"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
         <v>217</v>
       </c>
@@ -28638,11 +28668,11 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="176" t="s">
+    <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="181" t="s">
         <v>543</v>
       </c>
-      <c r="B31" s="177"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
@@ -28656,7 +28686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>91</v>
       </c>
@@ -28674,7 +28704,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
         <v>94</v>
       </c>
@@ -28692,7 +28722,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="70" t="s">
         <v>108</v>
       </c>
@@ -28712,7 +28742,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="70" t="s">
         <v>108</v>
       </c>
@@ -28732,7 +28762,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
         <v>96</v>
       </c>
@@ -28750,7 +28780,7 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" s="26" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="26" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="69" t="s">
         <v>96</v>
       </c>
@@ -28768,7 +28798,7 @@
       </c>
       <c r="F37" s="60"/>
     </row>
-    <row r="38" spans="1:6" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="26" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
         <v>133</v>
       </c>
@@ -28788,7 +28818,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
         <v>133</v>
       </c>
@@ -28808,7 +28838,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="71" t="s">
         <v>133</v>
       </c>
@@ -28826,7 +28856,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="72" t="s">
         <v>217</v>
       </c>
@@ -28846,7 +28876,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="72" t="s">
         <v>217</v>
       </c>
@@ -28864,11 +28894,11 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176" t="s">
+    <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="181" t="s">
         <v>654</v>
       </c>
-      <c r="B43" s="177"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="8" t="s">
         <v>87</v>
       </c>
@@ -28882,7 +28912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="68" t="s">
         <v>94</v>
       </c>
@@ -28902,7 +28932,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
         <v>108</v>
       </c>
@@ -28922,7 +28952,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
         <v>96</v>
       </c>
@@ -28942,7 +28972,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
         <v>96</v>
       </c>
@@ -28962,7 +28992,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
         <v>133</v>
       </c>
@@ -28982,7 +29012,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="71" t="s">
         <v>133</v>
       </c>
@@ -29002,7 +29032,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
         <v>133</v>
       </c>
@@ -29020,7 +29050,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="72" t="s">
         <v>217</v>
       </c>
@@ -29040,7 +29070,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="72" t="s">
         <v>217</v>
       </c>
@@ -29058,7 +29088,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A43:B43"/>
@@ -29133,21 +29163,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="36" customWidth="1"/>
     <col min="3" max="3" width="66" style="36" customWidth="1"/>
     <col min="4" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="6" width="30" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="36"/>
+    <col min="7" max="16384" width="10.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -29169,14 +29199,14 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>378</v>
       </c>
       <c r="D2" s="66">
@@ -29192,14 +29222,14 @@
         <v>Required NCRs Missing</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -29213,14 +29243,14 @@
         <v>Basic NCRs Missing</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -29234,14 +29264,14 @@
         <v>Intermediate NCRs Missing</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -29255,14 +29285,14 @@
         <v>Intermediate NCRs Completed</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>2</v>
@@ -29276,14 +29306,14 @@
         <v>Advanced NCRs Missing</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -29297,14 +29327,14 @@
         <v>Advanced NCRs Completed</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -29318,12 +29348,12 @@
         <v>Professional NCRs Completed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+    <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -29337,11 +29367,11 @@
         <v>Innovative NCRs Completed</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+    <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="181" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -29355,7 +29385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116" t="s">
         <v>94</v>
       </c>
@@ -29375,7 +29405,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="117" t="s">
         <v>108</v>
       </c>
@@ -29395,7 +29425,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="118" t="s">
         <v>96</v>
       </c>
@@ -29413,7 +29443,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="119" t="s">
         <v>133</v>
       </c>
@@ -29431,7 +29461,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="120" t="s">
         <v>217</v>
       </c>
@@ -29449,11 +29479,11 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="176" t="s">
+    <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="181" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="177"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
@@ -29467,7 +29497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="115" t="s">
         <v>91</v>
       </c>
@@ -29485,7 +29515,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="116" t="s">
         <v>94</v>
       </c>
@@ -29503,7 +29533,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="118" t="s">
         <v>96</v>
       </c>
@@ -29521,7 +29551,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
         <v>133</v>
       </c>
@@ -29539,7 +29569,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="120" t="s">
         <v>217</v>
       </c>
@@ -29557,11 +29587,11 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+    <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="181" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>818</v>
       </c>
@@ -29575,7 +29605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="115" t="s">
         <v>91</v>
       </c>
@@ -29593,7 +29623,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="116" t="s">
         <v>94</v>
       </c>
@@ -29611,7 +29641,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="118" t="s">
         <v>96</v>
       </c>
@@ -29629,7 +29659,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="119" t="s">
         <v>133</v>
       </c>
@@ -29647,7 +29677,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="120" t="s">
         <v>217</v>
       </c>
@@ -29665,7 +29695,7 @@
       </c>
       <c r="F27" s="60"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="120" t="s">
         <v>217</v>
       </c>
@@ -29683,11 +29713,11 @@
       </c>
       <c r="F28" s="60"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176" t="s">
+    <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="181" t="s">
         <v>414</v>
       </c>
-      <c r="B29" s="177"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="8" t="s">
         <v>816</v>
       </c>
@@ -29701,7 +29731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="115" t="s">
         <v>91</v>
       </c>
@@ -29719,7 +29749,7 @@
       </c>
       <c r="F30" s="60"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="116" t="s">
         <v>94</v>
       </c>
@@ -29737,7 +29767,7 @@
       </c>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="118" t="s">
         <v>96</v>
       </c>
@@ -29755,7 +29785,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="119" t="s">
         <v>133</v>
       </c>
@@ -29773,7 +29803,7 @@
       </c>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="120" t="s">
         <v>217</v>
       </c>
@@ -29791,7 +29821,7 @@
       </c>
       <c r="F34" s="60"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="120" t="s">
         <v>217</v>
       </c>
@@ -29809,7 +29839,7 @@
       </c>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="120" t="s">
         <v>217</v>
       </c>
@@ -29827,11 +29857,11 @@
       </c>
       <c r="F36" s="60"/>
     </row>
-    <row r="37" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="176" t="s">
+    <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="181" t="s">
         <v>429</v>
       </c>
-      <c r="B37" s="177"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="8" t="s">
         <v>817</v>
       </c>
@@ -29845,7 +29875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="115" t="s">
         <v>91</v>
       </c>
@@ -29863,7 +29893,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="116" t="s">
         <v>94</v>
       </c>
@@ -29881,7 +29911,7 @@
       </c>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="118" t="s">
         <v>96</v>
       </c>
@@ -29899,7 +29929,7 @@
       </c>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="119" t="s">
         <v>133</v>
       </c>
@@ -29917,7 +29947,7 @@
       </c>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="119" t="s">
         <v>133</v>
       </c>
@@ -29935,7 +29965,7 @@
       </c>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="120" t="s">
         <v>217</v>
       </c>
@@ -29953,11 +29983,11 @@
       </c>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="176" t="s">
+    <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="181" t="s">
         <v>442</v>
       </c>
-      <c r="B44" s="177"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="8" t="s">
         <v>87</v>
       </c>
@@ -29971,7 +30001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="115" t="s">
         <v>91</v>
       </c>
@@ -29989,7 +30019,7 @@
       </c>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="116" t="s">
         <v>94</v>
       </c>
@@ -30007,7 +30037,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="118" t="s">
         <v>96</v>
       </c>
@@ -30025,7 +30055,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="118" t="s">
         <v>96</v>
       </c>
@@ -30043,7 +30073,7 @@
       </c>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="118" t="s">
         <v>96</v>
       </c>
@@ -30061,7 +30091,7 @@
       </c>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="119" t="s">
         <v>133</v>
       </c>
@@ -30079,7 +30109,7 @@
       </c>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="119" t="s">
         <v>133</v>
       </c>
@@ -30097,7 +30127,7 @@
       </c>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="119" t="s">
         <v>133</v>
       </c>
@@ -30115,7 +30145,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="120" t="s">
         <v>217</v>
       </c>
@@ -30133,7 +30163,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="120" t="s">
         <v>217</v>
       </c>
@@ -30151,7 +30181,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="120" t="s">
         <v>217</v>
       </c>
@@ -30169,75 +30199,75 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="26" 